--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2019.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2019.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>149.7501541273936</v>
+        <v>154.1063501406317</v>
       </c>
       <c r="C2">
-        <v>133.4878653803561</v>
+        <v>136.3506171921276</v>
       </c>
       <c r="D2">
-        <v>134.6643779257437</v>
+        <v>141.7042065311503</v>
       </c>
       <c r="E2">
-        <v>121.384041441076</v>
+        <v>124.4359359972539</v>
       </c>
       <c r="F2">
-        <v>139.4822027983649</v>
+        <v>142.7040963890458</v>
       </c>
       <c r="G2">
-        <v>135.9714896753031</v>
+        <v>142.0583835960869</v>
       </c>
       <c r="H2">
-        <v>158.3519717698735</v>
+        <v>165.0613588627339</v>
       </c>
       <c r="I2">
-        <v>151.5910171417844</v>
+        <v>153.814614896478</v>
       </c>
       <c r="J2">
-        <v>134.701118866784</v>
+        <v>139.2518820765866</v>
       </c>
       <c r="K2">
-        <v>136.2691627467115</v>
+        <v>139.8398707950037</v>
       </c>
       <c r="L2">
-        <v>178.762556440876</v>
+        <v>183.5720689932454</v>
       </c>
       <c r="M2">
-        <v>143.4508699172724</v>
+        <v>149.7974841620972</v>
       </c>
       <c r="N2">
-        <v>115.5671272414384</v>
+        <v>121.1687900618602</v>
       </c>
       <c r="O2">
-        <v>143.7989539195321</v>
+        <v>147.5432574504368</v>
       </c>
       <c r="P2">
-        <v>124.9720783193963</v>
+        <v>133.1284125025495</v>
       </c>
       <c r="Q2">
-        <v>126.6200110486201</v>
+        <v>132.8685113105661</v>
       </c>
       <c r="R2">
-        <v>138.3304432532781</v>
+        <v>146.8854248162674</v>
       </c>
       <c r="S2">
-        <v>165.0885205282692</v>
+        <v>168.0075438102354</v>
       </c>
       <c r="T2">
-        <v>170.3619469717881</v>
+        <v>182.1819465030649</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.18743322424283</v>
+        <v>12.54196272928687</v>
       </c>
       <c r="C3">
-        <v>9.699799636358017</v>
+        <v>9.907819435788344</v>
       </c>
       <c r="D3">
-        <v>8.839127337780498</v>
+        <v>9.301209014002634</v>
       </c>
       <c r="E3">
-        <v>10.88597983076147</v>
+        <v>11.15968024631644</v>
       </c>
       <c r="F3">
-        <v>14.77377114560138</v>
+        <v>15.11502986971983</v>
       </c>
       <c r="G3">
-        <v>8.620740017464147</v>
+        <v>9.006655698245947</v>
       </c>
       <c r="H3">
-        <v>9.140308540805982</v>
+        <v>9.52758422460718</v>
       </c>
       <c r="I3">
-        <v>10.57339891325861</v>
+        <v>10.72849376337767</v>
       </c>
       <c r="J3">
-        <v>10.25638762281074</v>
+        <v>10.60289099154313</v>
       </c>
       <c r="K3">
-        <v>11.23289753257759</v>
+        <v>11.52723703549043</v>
       </c>
       <c r="L3">
-        <v>13.14436751611288</v>
+        <v>13.49800981022837</v>
       </c>
       <c r="M3">
-        <v>10.59901601288173</v>
+        <v>11.06794217587589</v>
       </c>
       <c r="N3">
-        <v>8.916896049053719</v>
+        <v>9.349107580687607</v>
       </c>
       <c r="O3">
-        <v>11.73625039721018</v>
+        <v>12.04184430178369</v>
       </c>
       <c r="P3">
-        <v>8.016728533550888</v>
+        <v>8.53994234142362</v>
       </c>
       <c r="Q3">
-        <v>7.227534302703652</v>
+        <v>7.584201859511292</v>
       </c>
       <c r="R3">
-        <v>7.751304871144931</v>
+        <v>8.230680695455264</v>
       </c>
       <c r="S3">
-        <v>14.75442467528823</v>
+        <v>15.0153059830943</v>
       </c>
       <c r="T3">
-        <v>16.98021884162887</v>
+        <v>18.15833509538516</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.470160629882618</v>
+        <v>7.687465808256322</v>
       </c>
       <c r="C4">
-        <v>5.74292778152637</v>
+        <v>5.866089365274765</v>
       </c>
       <c r="D4">
-        <v>6.271168209664907</v>
+        <v>6.59900508851686</v>
       </c>
       <c r="E4">
-        <v>7.857837553894723</v>
+        <v>8.055402994700245</v>
       </c>
       <c r="F4">
-        <v>6.558144172288877</v>
+        <v>6.70963047126857</v>
       </c>
       <c r="G4">
-        <v>6.628371808819188</v>
+        <v>6.925097219154413</v>
       </c>
       <c r="H4">
-        <v>6.328529948240655</v>
+        <v>6.596670323614148</v>
       </c>
       <c r="I4">
-        <v>6.76126377045802</v>
+        <v>6.860440695465518</v>
       </c>
       <c r="J4">
-        <v>7.088444651758205</v>
+        <v>7.327921750443969</v>
       </c>
       <c r="K4">
-        <v>6.253045897250095</v>
+        <v>6.416896623721153</v>
       </c>
       <c r="L4">
-        <v>6.93541107686545</v>
+        <v>7.122004663879062</v>
       </c>
       <c r="M4">
-        <v>7.963867106320486</v>
+        <v>8.316207893448603</v>
       </c>
       <c r="N4">
-        <v>5.657778882340411</v>
+        <v>5.932017503372863</v>
       </c>
       <c r="O4">
-        <v>9.087106276584983</v>
+        <v>9.323720543863752</v>
       </c>
       <c r="P4">
-        <v>5.615400775035692</v>
+        <v>5.981891321639814</v>
       </c>
       <c r="Q4">
-        <v>6.052448329354879</v>
+        <v>6.351127224248254</v>
       </c>
       <c r="R4">
-        <v>6.876457237865488</v>
+        <v>7.301728519479989</v>
       </c>
       <c r="S4">
-        <v>7.265960686413188</v>
+        <v>7.39443423709753</v>
       </c>
       <c r="T4">
-        <v>6.524384540469036</v>
+        <v>6.977057356088975</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.29648385061861</v>
+        <v>20.8869036905715</v>
       </c>
       <c r="C5">
-        <v>14.99871437622008</v>
+        <v>15.32037355199926</v>
       </c>
       <c r="D5">
-        <v>13.95922329500912</v>
+        <v>14.68896742612337</v>
       </c>
       <c r="E5">
-        <v>14.3855923608619</v>
+        <v>14.74728167761465</v>
       </c>
       <c r="F5">
-        <v>14.5025756921134</v>
+        <v>14.83757008375153</v>
       </c>
       <c r="G5">
-        <v>14.78267354222877</v>
+        <v>15.44443407697024</v>
       </c>
       <c r="H5">
-        <v>15.51426826434487</v>
+        <v>16.17160918712947</v>
       </c>
       <c r="I5">
-        <v>17.79754799638433</v>
+        <v>18.058609558672</v>
       </c>
       <c r="J5">
-        <v>13.03848157080613</v>
+        <v>13.47897562715317</v>
       </c>
       <c r="K5">
-        <v>16.8028242099704</v>
+        <v>17.24311442993822</v>
       </c>
       <c r="L5">
-        <v>21.26584416007427</v>
+        <v>21.83799051141846</v>
       </c>
       <c r="M5">
-        <v>13.7248961671916</v>
+        <v>14.33211884610372</v>
       </c>
       <c r="N5">
-        <v>15.70729206260364</v>
+        <v>16.46864138448109</v>
       </c>
       <c r="O5">
-        <v>22.4236820029815</v>
+        <v>23.00756018436682</v>
       </c>
       <c r="P5">
-        <v>12.36726086069753</v>
+        <v>13.17441325718948</v>
       </c>
       <c r="Q5">
-        <v>11.98400600131687</v>
+        <v>12.57539802551782</v>
       </c>
       <c r="R5">
-        <v>15.56377165647489</v>
+        <v>16.52630583507163</v>
       </c>
       <c r="S5">
-        <v>19.79832896989173</v>
+        <v>20.14839439553255</v>
       </c>
       <c r="T5">
-        <v>24.9158256558218</v>
+        <v>26.64452770934999</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>44.32117388330486</v>
+        <v>45.61046618552339</v>
       </c>
       <c r="C6">
-        <v>42.28204607848691</v>
+        <v>43.18881766908578</v>
       </c>
       <c r="D6">
-        <v>43.81590151284104</v>
+        <v>46.10645853759383</v>
       </c>
       <c r="E6">
-        <v>34.52312181117473</v>
+        <v>35.39111834734987</v>
       </c>
       <c r="F6">
-        <v>32.43736913822327</v>
+        <v>33.18663857639005</v>
       </c>
       <c r="G6">
-        <v>43.29798873294098</v>
+        <v>45.2362646540922</v>
       </c>
       <c r="H6">
-        <v>42.67802890873534</v>
+        <v>44.48630077998886</v>
       </c>
       <c r="I6">
-        <v>45.47102873151611</v>
+        <v>46.13801599301352</v>
       </c>
       <c r="J6">
-        <v>35.31590363814732</v>
+        <v>36.50902153018472</v>
       </c>
       <c r="K6">
-        <v>40.05512091475173</v>
+        <v>41.10469911529785</v>
       </c>
       <c r="L6">
-        <v>48.48895305991996</v>
+        <v>49.79352283692506</v>
       </c>
       <c r="M6">
-        <v>48.20149260624198</v>
+        <v>50.3340434912454</v>
       </c>
       <c r="N6">
-        <v>34.84048560843069</v>
+        <v>36.52924137779802</v>
       </c>
       <c r="O6">
-        <v>45.75511826390287</v>
+        <v>46.94651115100525</v>
       </c>
       <c r="P6">
-        <v>47.39988782378136</v>
+        <v>50.49345344686928</v>
       </c>
       <c r="Q6">
-        <v>40.29184868690616</v>
+        <v>42.28018864193705</v>
       </c>
       <c r="R6">
-        <v>40.04402135939166</v>
+        <v>42.52052513094612</v>
       </c>
       <c r="S6">
-        <v>43.10610802142261</v>
+        <v>43.86829143979021</v>
       </c>
       <c r="T6">
-        <v>60.43465218138544</v>
+        <v>64.62771039159215</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>13.07783561176051</v>
+        <v>13.45826670838075</v>
       </c>
       <c r="C7">
-        <v>11.21652356204319</v>
+        <v>11.45707069385568</v>
       </c>
       <c r="D7">
-        <v>13.35322924321105</v>
+        <v>14.05129391813751</v>
       </c>
       <c r="E7">
-        <v>11.18649420355432</v>
+        <v>11.46775029255278</v>
       </c>
       <c r="F7">
-        <v>12.70789989697232</v>
+        <v>13.00143914719665</v>
       </c>
       <c r="G7">
-        <v>13.25456059914826</v>
+        <v>13.84791369490588</v>
       </c>
       <c r="H7">
-        <v>13.47885208178675</v>
+        <v>14.04995224033445</v>
       </c>
       <c r="I7">
-        <v>14.51498503333068</v>
+        <v>14.72789664734365</v>
       </c>
       <c r="J7">
-        <v>11.97663118394053</v>
+        <v>12.38125152434879</v>
       </c>
       <c r="K7">
-        <v>11.10406713255794</v>
+        <v>11.39503084789755</v>
       </c>
       <c r="L7">
-        <v>14.02486757514932</v>
+        <v>14.40219926021229</v>
       </c>
       <c r="M7">
-        <v>16.28370910188085</v>
+        <v>17.00413986820648</v>
       </c>
       <c r="N7">
-        <v>10.55365668244149</v>
+        <v>11.06520376047884</v>
       </c>
       <c r="O7">
-        <v>12.96040363706587</v>
+        <v>13.29787260869254</v>
       </c>
       <c r="P7">
-        <v>12.93010809708342</v>
+        <v>13.77399486028962</v>
       </c>
       <c r="Q7">
-        <v>11.97393177986746</v>
+        <v>12.56482665693627</v>
       </c>
       <c r="R7">
-        <v>11.7508295379782</v>
+        <v>12.47755409464842</v>
       </c>
       <c r="S7">
-        <v>12.32251567045432</v>
+        <v>12.54039702295146</v>
       </c>
       <c r="T7">
-        <v>16.98810276494576</v>
+        <v>18.16676601861352</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>209</v>
+        <v>185.99</v>
       </c>
       <c r="C8">
-        <v>253</v>
+        <v>236.98</v>
       </c>
       <c r="D8">
-        <v>227</v>
+        <v>186.59</v>
       </c>
       <c r="E8">
-        <v>263</v>
+        <v>244.47</v>
       </c>
       <c r="F8">
-        <v>232</v>
+        <v>214.26</v>
       </c>
       <c r="G8">
-        <v>295</v>
+        <v>263.44</v>
       </c>
       <c r="H8">
-        <v>211</v>
+        <v>177.57</v>
       </c>
       <c r="I8">
-        <v>231</v>
+        <v>219.72</v>
       </c>
       <c r="J8">
-        <v>268</v>
+        <v>243.27</v>
       </c>
       <c r="K8">
-        <v>223</v>
+        <v>202.64</v>
       </c>
       <c r="L8">
-        <v>173</v>
+        <v>150.75</v>
       </c>
       <c r="M8">
-        <v>241</v>
+        <v>207.42</v>
       </c>
       <c r="N8">
-        <v>274</v>
+        <v>238.81</v>
       </c>
       <c r="O8">
-        <v>220</v>
+        <v>199.69</v>
       </c>
       <c r="P8">
-        <v>246</v>
+        <v>196.79</v>
       </c>
       <c r="Q8">
-        <v>294</v>
+        <v>259.16</v>
       </c>
       <c r="R8">
-        <v>241</v>
+        <v>194.06</v>
       </c>
       <c r="S8">
-        <v>284</v>
+        <v>271.34</v>
       </c>
       <c r="T8">
-        <v>159</v>
+        <v>100.65</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.29664232322891</v>
+        <v>10.59616917513473</v>
       </c>
       <c r="C9">
-        <v>8.737130112749616</v>
+        <v>8.924504710348343</v>
       </c>
       <c r="D9">
-        <v>10.2813298918639</v>
+        <v>10.81880536525358</v>
       </c>
       <c r="E9">
-        <v>11.30302018484134</v>
+        <v>11.58720602476687</v>
       </c>
       <c r="F9">
-        <v>11.65661869786301</v>
+        <v>11.9258744474725</v>
       </c>
       <c r="G9">
-        <v>10.57163087479692</v>
+        <v>11.04488005268145</v>
       </c>
       <c r="H9">
-        <v>8.689255771773576</v>
+        <v>9.057420309733514</v>
       </c>
       <c r="I9">
-        <v>8.546902705426975</v>
+        <v>8.672272097516982</v>
       </c>
       <c r="J9">
-        <v>8.582078469187762</v>
+        <v>8.872016721295701</v>
       </c>
       <c r="K9">
-        <v>7.094419744292013</v>
+        <v>7.28031728096355</v>
       </c>
       <c r="L9">
-        <v>10.9001866773068</v>
+        <v>11.19345046638791</v>
       </c>
       <c r="M9">
-        <v>9.298967675592131</v>
+        <v>9.710376548512269</v>
       </c>
       <c r="N9">
-        <v>7.416595310992393</v>
+        <v>7.776085653959092</v>
       </c>
       <c r="O9">
-        <v>10.30408674355089</v>
+        <v>10.57238930991181</v>
       </c>
       <c r="P9">
-        <v>12.766328778299</v>
+        <v>13.59952644299409</v>
       </c>
       <c r="Q9">
-        <v>7.198031225601814</v>
+        <v>7.553242851522446</v>
       </c>
       <c r="R9">
-        <v>5.564185787946326</v>
+        <v>5.908300255517077</v>
       </c>
       <c r="S9">
-        <v>5.838665254567583</v>
+        <v>5.941901989375997</v>
       </c>
       <c r="T9">
-        <v>6.886169021566471</v>
+        <v>7.363943055345787</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>26.7080280179575</v>
+        <v>27.48495813767078</v>
       </c>
       <c r="C10">
-        <v>29.95664419228729</v>
+        <v>30.59908788701344</v>
       </c>
       <c r="D10">
-        <v>27.16055846779558</v>
+        <v>28.58042673129316</v>
       </c>
       <c r="E10">
-        <v>27.35294087053304</v>
+        <v>28.04066135130778</v>
       </c>
       <c r="F10">
-        <v>23.63388613779122</v>
+        <v>24.1798042889428</v>
       </c>
       <c r="G10">
-        <v>25.22332330761878</v>
+        <v>26.35246952547473</v>
       </c>
       <c r="H10">
-        <v>27.48907028536529</v>
+        <v>28.65378463218375</v>
       </c>
       <c r="I10">
-        <v>23.4573016329687</v>
+        <v>23.8013827284432</v>
       </c>
       <c r="J10">
-        <v>26.31964992793988</v>
+        <v>27.20883700815565</v>
       </c>
       <c r="K10">
-        <v>26.5136144237973</v>
+        <v>27.20835984164609</v>
       </c>
       <c r="L10">
-        <v>27.08589904360961</v>
+        <v>27.81463091026054</v>
       </c>
       <c r="M10">
-        <v>19.18369709452865</v>
+        <v>20.03243035992294</v>
       </c>
       <c r="N10">
-        <v>32.77842496794216</v>
+        <v>34.36723044262796</v>
       </c>
       <c r="O10">
-        <v>30.29221386306952</v>
+        <v>31.0809765086579</v>
       </c>
       <c r="P10">
-        <v>23.78490923924128</v>
+        <v>25.33723733428514</v>
       </c>
       <c r="Q10">
-        <v>28.51004670182384</v>
+        <v>29.91697308580618</v>
       </c>
       <c r="R10">
-        <v>29.27100824692844</v>
+        <v>31.08126006130369</v>
       </c>
       <c r="S10">
-        <v>25.22547473863522</v>
+        <v>25.67150059085745</v>
       </c>
       <c r="T10">
-        <v>23.05171578711636</v>
+        <v>24.65108275046742</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>42.63498952547166</v>
+        <v>43.87523112974614</v>
       </c>
       <c r="C11">
-        <v>49.56401386578212</v>
+        <v>50.62695295832538</v>
       </c>
       <c r="D11">
-        <v>47.80470309138657</v>
+        <v>50.30378207188196</v>
       </c>
       <c r="E11">
-        <v>38.99557296136223</v>
+        <v>39.97601796404071</v>
       </c>
       <c r="F11">
-        <v>29.78045132772774</v>
+        <v>30.46834873209479</v>
       </c>
       <c r="G11">
-        <v>40.90248977645478</v>
+        <v>42.73352889325606</v>
       </c>
       <c r="H11">
-        <v>57.88889117376704</v>
+        <v>60.34164862869611</v>
       </c>
       <c r="I11">
-        <v>57.7571033016452</v>
+        <v>58.60430762575777</v>
       </c>
       <c r="J11">
-        <v>45.17495863602421</v>
+        <v>46.70115635059918</v>
       </c>
       <c r="K11">
-        <v>43.85959396224561</v>
+        <v>45.00886208717652</v>
       </c>
       <c r="L11">
-        <v>51.71717268363388</v>
+        <v>53.10859601157929</v>
       </c>
       <c r="M11">
-        <v>44.79441565758726</v>
+        <v>46.77622919880172</v>
       </c>
       <c r="N11">
-        <v>40.09798213114686</v>
+        <v>42.04157440552023</v>
       </c>
       <c r="O11">
-        <v>36.24163048775877</v>
+        <v>37.18530678930541</v>
       </c>
       <c r="P11">
-        <v>45.70365694472772</v>
+        <v>48.68651763206201</v>
       </c>
       <c r="Q11">
-        <v>40.48973517966239</v>
+        <v>42.48784052478906</v>
       </c>
       <c r="R11">
-        <v>55.23772472497488</v>
+        <v>58.6538759747645</v>
       </c>
       <c r="S11">
-        <v>30.48444075367844</v>
+        <v>31.02345335136219</v>
       </c>
       <c r="T11">
-        <v>37.78501648343063</v>
+        <v>40.40660472577092</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.70989901716309</v>
+        <v>11.02144740703026</v>
       </c>
       <c r="C12">
-        <v>11.50047644310754</v>
+        <v>11.74711316682719</v>
       </c>
       <c r="D12">
-        <v>11.27022357952394</v>
+        <v>11.85939529342894</v>
       </c>
       <c r="E12">
-        <v>10.66902685244418</v>
+        <v>10.9372725343652</v>
       </c>
       <c r="F12">
-        <v>9.040380205390674</v>
+        <v>9.249203571072485</v>
       </c>
       <c r="G12">
-        <v>9.43646125993712</v>
+        <v>9.858893483147922</v>
       </c>
       <c r="H12">
-        <v>10.88286492188801</v>
+        <v>11.34397287415508</v>
       </c>
       <c r="I12">
-        <v>10.00381461326412</v>
+        <v>10.15055457274087</v>
       </c>
       <c r="J12">
-        <v>9.155492989564356</v>
+        <v>9.464803565564255</v>
       </c>
       <c r="K12">
-        <v>10.46389137937387</v>
+        <v>10.73808034782181</v>
       </c>
       <c r="L12">
-        <v>10.93722492070795</v>
+        <v>11.23148520424574</v>
       </c>
       <c r="M12">
-        <v>11.94268490552677</v>
+        <v>12.47105823771068</v>
       </c>
       <c r="N12">
-        <v>9.553708893910471</v>
+        <v>10.01678742831366</v>
       </c>
       <c r="O12">
-        <v>11.42383628912201</v>
+        <v>11.72129541095799</v>
       </c>
       <c r="P12">
-        <v>12.29959616561289</v>
+        <v>13.10233240872935</v>
       </c>
       <c r="Q12">
-        <v>11.59830723725383</v>
+        <v>12.17066562839536</v>
       </c>
       <c r="R12">
-        <v>11.58824723444839</v>
+        <v>12.30491696459992</v>
       </c>
       <c r="S12">
-        <v>7.73478035380773</v>
+        <v>7.871543369560809</v>
       </c>
       <c r="T12">
-        <v>12.6720927446865</v>
+        <v>13.55130393571202</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.497300342403079</v>
+        <v>4.628125729101809</v>
       </c>
       <c r="C13">
-        <v>4.591725857211288</v>
+        <v>4.690199014149071</v>
       </c>
       <c r="D13">
-        <v>4.575808871540535</v>
+        <v>4.815017715653023</v>
       </c>
       <c r="E13">
-        <v>4.010180316529102</v>
+        <v>4.111006152709949</v>
       </c>
       <c r="F13">
-        <v>4.230649074412577</v>
+        <v>4.328372661105388</v>
       </c>
       <c r="G13">
-        <v>3.10643531143365</v>
+        <v>3.245497862396552</v>
       </c>
       <c r="H13">
-        <v>4.323941113206344</v>
+        <v>4.507146881792514</v>
       </c>
       <c r="I13">
-        <v>4.275805006845696</v>
+        <v>4.338524227232197</v>
       </c>
       <c r="J13">
-        <v>3.4688133402221</v>
+        <v>3.586004260855559</v>
       </c>
       <c r="K13">
-        <v>3.93330344751354</v>
+        <v>4.036369159471553</v>
       </c>
       <c r="L13">
-        <v>4.288860230201417</v>
+        <v>4.404249758764877</v>
       </c>
       <c r="M13">
-        <v>4.110458403761072</v>
+        <v>4.292315048291107</v>
       </c>
       <c r="N13">
-        <v>3.223485971822514</v>
+        <v>3.379731800126144</v>
       </c>
       <c r="O13">
-        <v>4.392127932841593</v>
+        <v>4.50649218709289</v>
       </c>
       <c r="P13">
-        <v>4.714998980216193</v>
+        <v>5.022724576789722</v>
       </c>
       <c r="Q13">
-        <v>4.075022576285422</v>
+        <v>4.276118591239789</v>
       </c>
       <c r="R13">
-        <v>3.900426881824627</v>
+        <v>4.141646958020736</v>
       </c>
       <c r="S13">
-        <v>3.336805378725598</v>
+        <v>3.395805317405298</v>
       </c>
       <c r="T13">
-        <v>5.840235194858628</v>
+        <v>6.245440573717131</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.368650232545777</v>
+        <v>8.612092257641704</v>
       </c>
       <c r="C14">
-        <v>7.188855866946181</v>
+        <v>7.343026510839723</v>
       </c>
       <c r="D14">
-        <v>7.506098646814764</v>
+        <v>7.898493790822248</v>
       </c>
       <c r="E14">
-        <v>8.401369927134855</v>
+        <v>8.612601114040974</v>
       </c>
       <c r="F14">
-        <v>5.770879723486989</v>
+        <v>5.904181033766494</v>
       </c>
       <c r="G14">
-        <v>6.497390699412288</v>
+        <v>6.788252614977466</v>
       </c>
       <c r="H14">
-        <v>8.00537540433775</v>
+        <v>8.344563870455636</v>
       </c>
       <c r="I14">
-        <v>6.642796512470184</v>
+        <v>6.740235712288993</v>
       </c>
       <c r="J14">
-        <v>6.539528482051905</v>
+        <v>6.760460912873138</v>
       </c>
       <c r="K14">
-        <v>8.591874332174745</v>
+        <v>8.817010189836365</v>
       </c>
       <c r="L14">
-        <v>7.462364267072729</v>
+        <v>7.663135252492763</v>
       </c>
       <c r="M14">
-        <v>7.283074867380334</v>
+        <v>7.605295755452312</v>
       </c>
       <c r="N14">
-        <v>5.872324162214769</v>
+        <v>6.156962023465923</v>
       </c>
       <c r="O14">
-        <v>8.593778896721266</v>
+        <v>8.817547677993582</v>
       </c>
       <c r="P14">
-        <v>7.543075667958393</v>
+        <v>8.035376402202735</v>
       </c>
       <c r="Q14">
-        <v>6.542487244143927</v>
+        <v>6.865348795965418</v>
       </c>
       <c r="R14">
-        <v>6.052706899981128</v>
+        <v>6.427033727234242</v>
       </c>
       <c r="S14">
-        <v>6.081260828489203</v>
+        <v>6.188787032523662</v>
       </c>
       <c r="T14">
-        <v>7.091151027805699</v>
+        <v>7.583147059283063</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.903730445246691</v>
+        <v>1.959109506618532</v>
       </c>
       <c r="C15">
-        <v>1.986900647447553</v>
+        <v>2.029511287838596</v>
       </c>
       <c r="D15">
-        <v>1.711181637126932</v>
+        <v>1.800636811714642</v>
       </c>
       <c r="E15">
-        <v>1.587666495035705</v>
+        <v>1.627584351416996</v>
       </c>
       <c r="F15">
-        <v>2.17674233108445</v>
+        <v>2.227022811492572</v>
       </c>
       <c r="G15">
-        <v>2.004010973925573</v>
+        <v>2.093722443907262</v>
       </c>
       <c r="H15">
-        <v>2.049207364345071</v>
+        <v>2.136032462177841</v>
       </c>
       <c r="I15">
-        <v>1.542428007974062</v>
+        <v>1.565052959768532</v>
       </c>
       <c r="J15">
-        <v>1.726368148797359</v>
+        <v>1.78469203448009</v>
       </c>
       <c r="K15">
-        <v>1.995280701538915</v>
+        <v>2.047563732534194</v>
       </c>
       <c r="L15">
-        <v>1.787937022364634</v>
+        <v>1.836040527500804</v>
       </c>
       <c r="M15">
-        <v>2.723947894249094</v>
+        <v>2.844461952600721</v>
       </c>
       <c r="N15">
-        <v>1.336548863669589</v>
+        <v>1.401332823053243</v>
       </c>
       <c r="O15">
-        <v>2.36223320503402</v>
+        <v>2.423742123488174</v>
       </c>
       <c r="P15">
-        <v>2.329818478482562</v>
+        <v>2.481874668570264</v>
       </c>
       <c r="Q15">
-        <v>1.739242374515604</v>
+        <v>1.825071275830226</v>
       </c>
       <c r="R15">
-        <v>1.326207075936004</v>
+        <v>1.408225732252783</v>
       </c>
       <c r="S15">
-        <v>1.394552470948209</v>
+        <v>1.419210340057433</v>
       </c>
       <c r="T15">
-        <v>2.765505101270239</v>
+        <v>2.957380514658014</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.928800812197688</v>
+        <v>1.984909164522175</v>
       </c>
       <c r="C16">
-        <v>1.784516886688952</v>
+        <v>1.822787248837221</v>
       </c>
       <c r="D16">
-        <v>2.166863848400678</v>
+        <v>2.280140650617847</v>
       </c>
       <c r="E16">
-        <v>2.184095530833762</v>
+        <v>2.239009086039122</v>
       </c>
       <c r="F16">
-        <v>2.273256007178703</v>
+        <v>2.325765852969524</v>
       </c>
       <c r="G16">
-        <v>1.689656311349013</v>
+        <v>1.765295393882593</v>
       </c>
       <c r="H16">
-        <v>2.007022572996716</v>
+        <v>2.092060297477427</v>
       </c>
       <c r="I16">
-        <v>1.608330323675904</v>
+        <v>1.631921957032294</v>
       </c>
       <c r="J16">
-        <v>1.54645838606238</v>
+        <v>1.598704172793695</v>
       </c>
       <c r="K16">
-        <v>1.661275960747227</v>
+        <v>1.704806949885983</v>
       </c>
       <c r="L16">
-        <v>1.689448966047938</v>
+        <v>1.734902701833387</v>
       </c>
       <c r="M16">
-        <v>2.046271409262902</v>
+        <v>2.136803417066655</v>
       </c>
       <c r="N16">
-        <v>1.654955286097965</v>
+        <v>1.735172746866268</v>
       </c>
       <c r="O16">
-        <v>1.921506159695351</v>
+        <v>1.971539223930495</v>
       </c>
       <c r="P16">
-        <v>1.627028349989802</v>
+        <v>1.733216765245768</v>
       </c>
       <c r="Q16">
-        <v>1.611875431905235</v>
+        <v>1.691418973049113</v>
       </c>
       <c r="R16">
-        <v>1.760534086794204</v>
+        <v>1.869413493953782</v>
       </c>
       <c r="S16">
-        <v>1.262092310954196</v>
+        <v>1.284408077234475</v>
       </c>
       <c r="T16">
-        <v>1.497069438730073</v>
+        <v>1.60093864414018</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>21.68505869109803</v>
+        <v>22.31587183962164</v>
       </c>
       <c r="C17">
-        <v>20.48000535676575</v>
+        <v>20.9192151102</v>
       </c>
       <c r="D17">
-        <v>18.6829706622236</v>
+        <v>19.65965739503143</v>
       </c>
       <c r="E17">
-        <v>22.64053819309003</v>
+        <v>23.20977723341291</v>
       </c>
       <c r="F17">
-        <v>21.3303200505168</v>
+        <v>21.82302822460035</v>
       </c>
       <c r="G17">
-        <v>16.8106977195456</v>
+        <v>17.56324469830994</v>
       </c>
       <c r="H17">
-        <v>20.94069267452071</v>
+        <v>21.82795168099628</v>
       </c>
       <c r="I17">
-        <v>19.08578135807986</v>
+        <v>19.36573924328031</v>
       </c>
       <c r="J17">
-        <v>18.87291689762861</v>
+        <v>19.51052240975751</v>
       </c>
       <c r="K17">
-        <v>22.76162783557067</v>
+        <v>23.35805864989785</v>
       </c>
       <c r="L17">
-        <v>21.64296082015871</v>
+        <v>22.22525329688003</v>
       </c>
       <c r="M17">
-        <v>19.24523323511935</v>
+        <v>20.0966890085519</v>
       </c>
       <c r="N17">
-        <v>21.45301176637665</v>
+        <v>22.49286229538325</v>
       </c>
       <c r="O17">
-        <v>21.64663160658873</v>
+        <v>22.21027659111414</v>
       </c>
       <c r="P17">
-        <v>18.45400775035692</v>
+        <v>19.65841321639813</v>
       </c>
       <c r="Q17">
-        <v>17.83856783791552</v>
+        <v>18.71887336691407</v>
       </c>
       <c r="R17">
-        <v>16.88997873241088</v>
+        <v>17.93453156732441</v>
       </c>
       <c r="S17">
-        <v>23.46628474860236</v>
+        <v>23.88120536999524</v>
       </c>
       <c r="T17">
-        <v>26.64678481961971</v>
+        <v>28.49558374259808</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>19.88080099214078</v>
+        <v>20.45912871758852</v>
       </c>
       <c r="C18">
-        <v>18.20068710822212</v>
+        <v>18.59101509680809</v>
       </c>
       <c r="D18">
-        <v>18.85701595125176</v>
+        <v>19.84280122239029</v>
       </c>
       <c r="E18">
-        <v>18.41723798973335</v>
+        <v>18.88029283362719</v>
       </c>
       <c r="F18">
-        <v>21.90142577021503</v>
+        <v>22.40732589152182</v>
       </c>
       <c r="G18">
-        <v>16.57638706827326</v>
+        <v>17.3184449063934</v>
       </c>
       <c r="H18">
-        <v>17.74276099192044</v>
+        <v>18.49452334928407</v>
       </c>
       <c r="I18">
-        <v>18.99085064141411</v>
+        <v>19.26941604484083</v>
       </c>
       <c r="J18">
-        <v>17.78427143971737</v>
+        <v>18.38509798712749</v>
       </c>
       <c r="K18">
-        <v>20.7735043784773</v>
+        <v>21.31783970556327</v>
       </c>
       <c r="L18">
-        <v>18.80448453041598</v>
+        <v>19.31040929559344</v>
       </c>
       <c r="M18">
-        <v>18.91652119297662</v>
+        <v>19.7534339487871</v>
       </c>
       <c r="N18">
-        <v>18.06122525698485</v>
+        <v>18.93667224981309</v>
       </c>
       <c r="O18">
-        <v>18.84845320480923</v>
+        <v>19.33923792864214</v>
       </c>
       <c r="P18">
-        <v>19.96800530287579</v>
+        <v>21.27122220069346</v>
       </c>
       <c r="Q18">
-        <v>14.72995093352685</v>
+        <v>15.45685106174792</v>
       </c>
       <c r="R18">
-        <v>19.85517026821643</v>
+        <v>21.08310398678043</v>
       </c>
       <c r="S18">
-        <v>18.50721448905121</v>
+        <v>18.83445099105035</v>
       </c>
       <c r="T18">
-        <v>17.16154907791741</v>
+        <v>18.35224632963737</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.524313276835292</v>
+        <v>9.801373262296709</v>
       </c>
       <c r="C19">
-        <v>10.26616635848094</v>
+        <v>10.4863323358074</v>
       </c>
       <c r="D19">
-        <v>11.47116677685646</v>
+        <v>12.07084316683417</v>
       </c>
       <c r="E19">
-        <v>9.989803040468502</v>
+        <v>10.24097135843306</v>
       </c>
       <c r="F19">
-        <v>10.37163082854199</v>
+        <v>10.6112046968992</v>
       </c>
       <c r="G19">
-        <v>9.394983908624935</v>
+        <v>9.815559358491889</v>
       </c>
       <c r="H19">
-        <v>9.856638747740542</v>
+        <v>10.2742654059623</v>
       </c>
       <c r="I19">
-        <v>8.923487366580355</v>
+        <v>9.054380653309909</v>
       </c>
       <c r="J19">
-        <v>9.889677936214763</v>
+        <v>10.22379232878661</v>
       </c>
       <c r="K19">
-        <v>11.13667235725427</v>
+        <v>11.42849043858464</v>
       </c>
       <c r="L19">
-        <v>8.645062721132197</v>
+        <v>8.877653586362173</v>
       </c>
       <c r="M19">
-        <v>10.87398129931866</v>
+        <v>11.3550725931673</v>
       </c>
       <c r="N19">
-        <v>10.10030658574585</v>
+        <v>10.58987929752601</v>
       </c>
       <c r="O19">
-        <v>8.246297898949731</v>
+        <v>8.461018809626227</v>
       </c>
       <c r="P19">
-        <v>13.25766673465225</v>
+        <v>14.12293169488069</v>
       </c>
       <c r="Q19">
-        <v>8.644401590838207</v>
+        <v>9.070989340731694</v>
       </c>
       <c r="R19">
-        <v>13.17148919025057</v>
+        <v>13.98607377864367</v>
       </c>
       <c r="S19">
-        <v>8.03393195109758</v>
+        <v>8.175984435037376</v>
       </c>
       <c r="T19">
-        <v>8.229063959877298</v>
+        <v>8.800010311909213</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5766184398729356</v>
+        <v>0.5933921317837781</v>
       </c>
       <c r="C20">
-        <v>0.7687504828815278</v>
+        <v>0.7852369390204327</v>
       </c>
       <c r="D20">
-        <v>1.415304645779049</v>
+        <v>1.489292305204574</v>
       </c>
       <c r="E20">
-        <v>1.039534412007926</v>
+        <v>1.065670874225711</v>
       </c>
       <c r="F20">
-        <v>0.6588454252384592</v>
+        <v>0.6740640682641496</v>
       </c>
       <c r="G20">
-        <v>1.327275241989922</v>
+        <v>1.386691988993045</v>
       </c>
       <c r="H20">
-        <v>0.5183861859922804</v>
+        <v>0.5403502546839432</v>
       </c>
       <c r="I20">
-        <v>0.6088118688646348</v>
+        <v>0.6177421651985661</v>
       </c>
       <c r="J20">
-        <v>1.665887845580069</v>
+        <v>1.722168455445089</v>
       </c>
       <c r="K20">
-        <v>1.30023274093907</v>
+        <v>1.334303189594822</v>
       </c>
       <c r="L20">
-        <v>1.271926949525876</v>
+        <v>1.306147475072371</v>
       </c>
       <c r="M20">
-        <v>0.9697784181698949</v>
+        <v>1.012683766367714</v>
       </c>
       <c r="N20">
-        <v>1.200088968343142</v>
+        <v>1.258258569990519</v>
       </c>
       <c r="O20">
-        <v>0.6869922478877614</v>
+        <v>0.704880469111608</v>
       </c>
       <c r="P20">
-        <v>1.43095451764226</v>
+        <v>1.524346124821538</v>
       </c>
       <c r="Q20">
-        <v>0.8721397426201538</v>
+        <v>0.9151784800605022</v>
       </c>
       <c r="R20">
-        <v>0.6356193866570103</v>
+        <v>0.674928970332478</v>
       </c>
       <c r="S20">
-        <v>0.5648160754800912</v>
+        <v>0.5748029072057586</v>
       </c>
       <c r="T20">
-        <v>0.5185869559556484</v>
+        <v>0.5545673945763524</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>34.49116387397032</v>
+        <v>35.49450354620807</v>
       </c>
       <c r="C21">
-        <v>29.75272139152292</v>
+        <v>30.3907918020881</v>
       </c>
       <c r="D21">
-        <v>30.09717716267084</v>
+        <v>31.6705625820027</v>
       </c>
       <c r="E21">
-        <v>30.44777893932065</v>
+        <v>31.21331129175704</v>
       </c>
       <c r="F21">
-        <v>31.39565954335471</v>
+        <v>32.12086657499418</v>
       </c>
       <c r="G21">
-        <v>24.73287182017295</v>
+        <v>25.84006250761217</v>
       </c>
       <c r="H21">
-        <v>32.55935770704252</v>
+        <v>33.93890058175283</v>
       </c>
       <c r="I21">
-        <v>32.31880944073423</v>
+        <v>32.79287468194553</v>
       </c>
       <c r="J21">
-        <v>27.02933652391999</v>
+        <v>27.94249976468029</v>
       </c>
       <c r="K21">
-        <v>32.4239078370445</v>
+        <v>33.27352271936396</v>
       </c>
       <c r="L21">
-        <v>33.73089662107968</v>
+        <v>34.63840865229977</v>
       </c>
       <c r="M21">
-        <v>30.73223912487954</v>
+        <v>32.09190788616209</v>
       </c>
       <c r="N21">
-        <v>26.08582521270952</v>
+        <v>27.35023318686276</v>
       </c>
       <c r="O21">
-        <v>30.98717585861259</v>
+        <v>31.79403424539261</v>
       </c>
       <c r="P21">
-        <v>34.93189883744646</v>
+        <v>37.21173801754029</v>
       </c>
       <c r="Q21">
-        <v>24.97615373482089</v>
+        <v>26.20868800694717</v>
       </c>
       <c r="R21">
-        <v>29.44907457936585</v>
+        <v>31.27033882278539</v>
       </c>
       <c r="S21">
-        <v>19.20225824991867</v>
+        <v>19.54178421282924</v>
       </c>
       <c r="T21">
-        <v>27.19427949440396</v>
+        <v>29.08106452234507</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>82.57774512901204</v>
+        <v>84.97991189945273</v>
       </c>
       <c r="C22">
-        <v>69.46226210036724</v>
+        <v>70.95193470926667</v>
       </c>
       <c r="D22">
-        <v>77.1962057185432</v>
+        <v>81.23177968113872</v>
       </c>
       <c r="E22">
-        <v>82.82544090954008</v>
+        <v>84.90787702901605</v>
       </c>
       <c r="F22">
-        <v>85.13303865199907</v>
+        <v>87.09952316461165</v>
       </c>
       <c r="G22">
-        <v>80.23175089436667</v>
+        <v>83.82340204078682</v>
       </c>
       <c r="H22">
-        <v>76.23278544240154</v>
+        <v>79.46277532496109</v>
       </c>
       <c r="I22">
-        <v>85.76794112906023</v>
+        <v>87.02601964133046</v>
       </c>
       <c r="J22">
-        <v>72.39186065726363</v>
+        <v>74.83755835405888</v>
       </c>
       <c r="K22">
-        <v>82.20254295574851</v>
+        <v>84.35652464761343</v>
       </c>
       <c r="L22">
-        <v>81.09691748333748</v>
+        <v>83.2787873914442</v>
       </c>
       <c r="M22">
-        <v>89.60596796192129</v>
+        <v>93.57035321114569</v>
       </c>
       <c r="N22">
-        <v>69.48689492128599</v>
+        <v>72.85499937346239</v>
       </c>
       <c r="O22">
-        <v>86.7347637327437</v>
+        <v>88.99320354224628</v>
       </c>
       <c r="P22">
-        <v>67.29177034468692</v>
+        <v>71.68358469304509</v>
       </c>
       <c r="Q22">
-        <v>63.88999284489736</v>
+        <v>67.04286444647839</v>
       </c>
       <c r="R22">
-        <v>71.77931280696475</v>
+        <v>76.21847083484211</v>
       </c>
       <c r="S22">
-        <v>54.95757154987575</v>
+        <v>55.92930738202857</v>
       </c>
       <c r="T22">
-        <v>73.45188556905593</v>
+        <v>78.54810141085666</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.24161756571757</v>
+        <v>12.5977232802399</v>
       </c>
       <c r="C23">
-        <v>11.27885468227683</v>
+        <v>11.52073855377626</v>
       </c>
       <c r="D23">
-        <v>11.97827145988853</v>
+        <v>12.6044576820025</v>
       </c>
       <c r="E23">
-        <v>17.09558804408315</v>
+        <v>17.52541334456737</v>
       </c>
       <c r="F23">
-        <v>24.79922895410283</v>
+        <v>25.37206531041245</v>
       </c>
       <c r="G23">
-        <v>10.81540127285976</v>
+        <v>11.29956306601076</v>
       </c>
       <c r="H23">
-        <v>9.779570378931048</v>
+        <v>10.19393164352885</v>
       </c>
       <c r="I23">
-        <v>7.950643658600785</v>
+        <v>8.067266884178181</v>
       </c>
       <c r="J23">
-        <v>11.80667387616536</v>
+        <v>12.20555235288334</v>
       </c>
       <c r="K23">
-        <v>10.52592083123518</v>
+        <v>10.80173517888505</v>
       </c>
       <c r="L23">
-        <v>7.581055001608235</v>
+        <v>7.785019298809908</v>
       </c>
       <c r="M23">
-        <v>9.922897404872522</v>
+        <v>10.36191044157294</v>
       </c>
       <c r="N23">
-        <v>23.45745600661624</v>
+        <v>24.59446410148239</v>
       </c>
       <c r="O23">
-        <v>7.734640099478799</v>
+        <v>7.936038228222918</v>
       </c>
       <c r="P23">
-        <v>8.933277585151949</v>
+        <v>9.516310197838061</v>
       </c>
       <c r="Q23">
-        <v>11.18238580884257</v>
+        <v>11.73421912552822</v>
       </c>
       <c r="R23">
-        <v>7.413753040959235</v>
+        <v>7.872253130211706</v>
       </c>
       <c r="S23">
-        <v>20.89000905253902</v>
+        <v>21.25937708969704</v>
       </c>
       <c r="T23">
-        <v>27.51839634187624</v>
+        <v>29.42766914395529</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2426164543644891</v>
+        <v>0.2496741087449276</v>
       </c>
       <c r="C24">
-        <v>0.2931871210989611</v>
+        <v>0.2994747485153002</v>
       </c>
       <c r="D24">
-        <v>0.3014147959987801</v>
+        <v>0.3171718101078496</v>
       </c>
       <c r="E24">
-        <v>0.1218923093726108</v>
+        <v>0.1249569830397404</v>
       </c>
       <c r="F24">
-        <v>0.2010036890558011</v>
+        <v>0.2056466648941474</v>
       </c>
       <c r="G24">
-        <v>0.3478276127583238</v>
+        <v>0.3633984488698879</v>
       </c>
       <c r="H24">
-        <v>0.361004464423419</v>
+        <v>0.3763002556093188</v>
       </c>
       <c r="I24">
-        <v>0.1380810424229068</v>
+        <v>0.1401064704574067</v>
       </c>
       <c r="J24">
-        <v>0.2051736868637217</v>
+        <v>0.2121053060934209</v>
       </c>
       <c r="K24">
-        <v>0.14712113582491</v>
+        <v>0.1509762018807597</v>
       </c>
       <c r="L24">
-        <v>0.2163370125930842</v>
+        <v>0.2221574461241557</v>
       </c>
       <c r="M24">
-        <v>0.1472193743245864</v>
+        <v>0.153732716340159</v>
       </c>
       <c r="N24">
-        <v>0.1599613217437795</v>
+        <v>0.1677148188679718</v>
       </c>
       <c r="O24">
-        <v>0.3777660388617157</v>
+        <v>0.3876024853351534</v>
       </c>
       <c r="P24">
-        <v>0.2552804405466041</v>
+        <v>0.2719413828268408</v>
       </c>
       <c r="Q24">
-        <v>0.3151792139171843</v>
+        <v>0.3307328170515676</v>
       </c>
       <c r="R24">
-        <v>0.2523896711938921</v>
+        <v>0.2679985923610084</v>
       </c>
       <c r="S24">
-        <v>0.264920319988027</v>
+        <v>0.2696045256459157</v>
       </c>
       <c r="T24">
-        <v>0.3609084896177823</v>
+        <v>0.3859489300092182</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.479540163605078</v>
+        <v>2.551669391373161</v>
       </c>
       <c r="C25">
-        <v>2.361656888852261</v>
+        <v>2.412304470324032</v>
       </c>
       <c r="D25">
-        <v>3.071899351347148</v>
+        <v>3.232488552883936</v>
       </c>
       <c r="E25">
-        <v>1.953343423153537</v>
+        <v>2.002455300536217</v>
       </c>
       <c r="F25">
-        <v>2.621024294592708</v>
+        <v>2.68156722556416</v>
       </c>
       <c r="G25">
-        <v>1.492456974408624</v>
+        <v>1.559268239816193</v>
       </c>
       <c r="H25">
-        <v>2.638171951247098</v>
+        <v>2.749951530879786</v>
       </c>
       <c r="I25">
-        <v>1.936272799430307</v>
+        <v>1.964674824368635</v>
       </c>
       <c r="J25">
-        <v>2.642759578558087</v>
+        <v>2.73204297251675</v>
       </c>
       <c r="K25">
-        <v>3.418777096817775</v>
+        <v>3.508360496677761</v>
       </c>
       <c r="L25">
-        <v>3.326707680030617</v>
+        <v>3.416211000321647</v>
       </c>
       <c r="M25">
-        <v>2.413930375830124</v>
+        <v>2.520728507609275</v>
       </c>
       <c r="N25">
-        <v>1.889211439741699</v>
+        <v>1.980783547957279</v>
       </c>
       <c r="O25">
-        <v>2.451494378773497</v>
+        <v>2.515327520866945</v>
       </c>
       <c r="P25">
-        <v>3.06336528655925</v>
+        <v>3.26329659392209</v>
       </c>
       <c r="Q25">
-        <v>2.089681363505715</v>
+        <v>2.192803882917243</v>
       </c>
       <c r="R25">
-        <v>2.845190311771636</v>
+        <v>3.02114977584879</v>
       </c>
       <c r="S25">
-        <v>0.7739245303021013</v>
+        <v>0.7876087266060459</v>
       </c>
       <c r="T25">
-        <v>3.105389795376306</v>
+        <v>3.320846982724948</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.07842247162062</v>
+        <v>27.86612727702137</v>
       </c>
       <c r="C26">
-        <v>26.13674689796907</v>
+        <v>26.69726990373273</v>
       </c>
       <c r="D26">
-        <v>28.08299849964487</v>
+        <v>29.55108901629513</v>
       </c>
       <c r="E26">
-        <v>28.13795800762458</v>
+        <v>28.84541575780271</v>
       </c>
       <c r="F26">
-        <v>27.49842134999502</v>
+        <v>28.133606238991</v>
       </c>
       <c r="G26">
-        <v>23.49728335476786</v>
+        <v>24.54916174154299</v>
       </c>
       <c r="H26">
-        <v>28.11697467966579</v>
+        <v>29.30829339137838</v>
       </c>
       <c r="I26">
-        <v>25.39200532964421</v>
+        <v>25.76446543382937</v>
       </c>
       <c r="J26">
-        <v>25.93915991909185</v>
+        <v>26.81549246663166</v>
       </c>
       <c r="K26">
-        <v>28.02061200427408</v>
+        <v>28.75484580145171</v>
       </c>
       <c r="L26">
-        <v>30.11209188513543</v>
+        <v>30.92224187841749</v>
       </c>
       <c r="M26">
-        <v>25.12543988472942</v>
+        <v>26.23705025538714</v>
       </c>
       <c r="N26">
-        <v>26.10856852859727</v>
+        <v>27.37407889570655</v>
       </c>
       <c r="O26">
-        <v>24.07979556575501</v>
+        <v>24.70679639644794</v>
       </c>
       <c r="P26">
-        <v>23.70955537426066</v>
+        <v>25.25696548031818</v>
       </c>
       <c r="Q26">
-        <v>23.49524318175796</v>
+        <v>24.65469682545831</v>
       </c>
       <c r="R26">
-        <v>27.70325032003386</v>
+        <v>29.41654487869313</v>
       </c>
       <c r="S26">
-        <v>28.8465485506064</v>
+        <v>29.35660065207381</v>
       </c>
       <c r="T26">
-        <v>28.45395524214758</v>
+        <v>30.42813870038695</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.347234959671278</v>
+        <v>7.56096425982556</v>
       </c>
       <c r="C27">
-        <v>7.880654349539267</v>
+        <v>8.049661153661914</v>
       </c>
       <c r="D27">
-        <v>7.429360496652345</v>
+        <v>7.81774401239584</v>
       </c>
       <c r="E27">
-        <v>6.413528680573975</v>
+        <v>6.574780629625586</v>
       </c>
       <c r="F27">
-        <v>7.881418458572901</v>
+        <v>8.063471015155041</v>
       </c>
       <c r="G27">
-        <v>5.969100224804457</v>
+        <v>6.236312711463786</v>
       </c>
       <c r="H27">
-        <v>7.125984753922051</v>
+        <v>7.427913360162373</v>
       </c>
       <c r="I27">
-        <v>6.1022406134396</v>
+        <v>6.191750722827894</v>
       </c>
       <c r="J27">
-        <v>7.720808328435198</v>
+        <v>7.981649298328916</v>
       </c>
       <c r="K27">
-        <v>7.86740214440992</v>
+        <v>8.07355440652084</v>
       </c>
       <c r="L27">
-        <v>7.199729450228208</v>
+        <v>7.393434384046319</v>
       </c>
       <c r="M27">
-        <v>6.335106726888155</v>
+        <v>6.615387206320176</v>
       </c>
       <c r="N27">
-        <v>7.155805288812961</v>
+        <v>7.502654859216996</v>
       </c>
       <c r="O27">
-        <v>6.209230398252378</v>
+        <v>6.370909205160717</v>
       </c>
       <c r="P27">
-        <v>7.568449928615133</v>
+        <v>8.062406720375282</v>
       </c>
       <c r="Q27">
-        <v>7.26639201400851</v>
+        <v>7.624977138325868</v>
       </c>
       <c r="R27">
-        <v>7.220976881059605</v>
+        <v>7.667554818868482</v>
       </c>
       <c r="S27">
-        <v>6.509895952964212</v>
+        <v>6.625001096490085</v>
       </c>
       <c r="T27">
-        <v>7.746392654587497</v>
+        <v>8.283850456484265</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6680039710168931</v>
+        <v>0.6874360460777008</v>
       </c>
       <c r="C28">
-        <v>0.4978794418662148</v>
+        <v>0.5085568564026227</v>
       </c>
       <c r="D28">
-        <v>0.2950858763977558</v>
+        <v>0.3105120345675273</v>
       </c>
       <c r="E28">
-        <v>0.6715576289962709</v>
+        <v>0.6884422461812112</v>
       </c>
       <c r="F28">
-        <v>0.1954202532486955</v>
+        <v>0.1999342575359766</v>
       </c>
       <c r="G28">
-        <v>0.2779710210746438</v>
+        <v>0.2904146599755171</v>
       </c>
       <c r="H28">
-        <v>0.7009165331726607</v>
+        <v>0.7306144288684302</v>
       </c>
       <c r="I28">
-        <v>0.339710746415447</v>
+        <v>0.34469375970487</v>
       </c>
       <c r="J28">
-        <v>0.6155210605911651</v>
+        <v>0.6363159182802627</v>
       </c>
       <c r="K28">
-        <v>0.7324246815932008</v>
+        <v>0.7516166590928631</v>
       </c>
       <c r="L28">
-        <v>0.5513647597216738</v>
+        <v>0.5661989385654552</v>
       </c>
       <c r="M28">
-        <v>0.4401002459967795</v>
+        <v>0.4595713477893643</v>
       </c>
       <c r="N28">
-        <v>0.5625180129567982</v>
+        <v>0.58978386540301</v>
       </c>
       <c r="O28">
-        <v>0.1578010035751471</v>
+        <v>0.1619098989374691</v>
       </c>
       <c r="P28">
-        <v>0.4636569447277177</v>
+        <v>0.493917632062003</v>
       </c>
       <c r="Q28">
-        <v>0.6944016927627462</v>
+        <v>0.7286693343716045</v>
       </c>
       <c r="R28">
-        <v>0.6294257750939701</v>
+        <v>0.6683523177592018</v>
       </c>
       <c r="S28">
-        <v>0.1964577653843795</v>
+        <v>0.1999314459846117</v>
       </c>
       <c r="T28">
-        <v>0.2154939039950836</v>
+        <v>0.2304452349084167</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.32252141169446</v>
+        <v>10.62280108006752</v>
       </c>
       <c r="C29">
-        <v>10.45469875918763</v>
+        <v>10.67890796149309</v>
       </c>
       <c r="D29">
-        <v>9.755238450028758</v>
+        <v>10.26521152346429</v>
       </c>
       <c r="E29">
-        <v>12.06120568150494</v>
+        <v>12.36445417713356</v>
       </c>
       <c r="F29">
-        <v>14.80886702781747</v>
+        <v>15.15093643025691</v>
       </c>
       <c r="G29">
-        <v>9.539063128972526</v>
+        <v>9.966088423086529</v>
       </c>
       <c r="H29">
-        <v>8.962645669550412</v>
+        <v>9.342393761734279</v>
       </c>
       <c r="I29">
-        <v>9.14237720087576</v>
+        <v>9.276481251364549</v>
       </c>
       <c r="J29">
-        <v>11.3419707868882</v>
+        <v>11.72514966333593</v>
       </c>
       <c r="K29">
-        <v>11.22574028813206</v>
+        <v>11.51989224729083</v>
       </c>
       <c r="L29">
-        <v>8.792373916477683</v>
+        <v>9.028928111933098</v>
       </c>
       <c r="M29">
-        <v>10.82412923605531</v>
+        <v>11.30301495377169</v>
       </c>
       <c r="N29">
-        <v>9.333098729799381</v>
+        <v>9.785484052528917</v>
       </c>
       <c r="O29">
-        <v>11.15047394454486</v>
+        <v>11.44081513148551</v>
       </c>
       <c r="P29">
-        <v>9.463061390985112</v>
+        <v>10.08067047725882</v>
       </c>
       <c r="Q29">
-        <v>9.457535179254689</v>
+        <v>9.924249804814506</v>
       </c>
       <c r="R29">
-        <v>7.925500196355438</v>
+        <v>8.415649049078658</v>
       </c>
       <c r="S29">
-        <v>10.80889788715194</v>
+        <v>11.00001610957002</v>
       </c>
       <c r="T29">
-        <v>12.18854544791705</v>
+        <v>13.03420731103947</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>20.83913598688051</v>
+        <v>21.44534144713099</v>
       </c>
       <c r="C30">
-        <v>24.23603249084456</v>
+        <v>24.75579318763617</v>
       </c>
       <c r="D30">
-        <v>24.65351519083985</v>
+        <v>25.94232314538298</v>
       </c>
       <c r="E30">
-        <v>23.12964066717636</v>
+        <v>23.71117695152206</v>
       </c>
       <c r="F30">
-        <v>25.70534082222739</v>
+        <v>26.29910741882415</v>
       </c>
       <c r="G30">
-        <v>20.69210459497008</v>
+        <v>21.61840646875341</v>
       </c>
       <c r="H30">
-        <v>21.56291834690894</v>
+        <v>22.4765411103274</v>
       </c>
       <c r="I30">
-        <v>19.10147238562792</v>
+        <v>19.38166043310501</v>
       </c>
       <c r="J30">
-        <v>28.1600885220458</v>
+        <v>29.11145326132202</v>
       </c>
       <c r="K30">
-        <v>26.29094459660284</v>
+        <v>26.97985531988062</v>
       </c>
       <c r="L30">
-        <v>20.05452524520482</v>
+        <v>20.59408169829527</v>
       </c>
       <c r="M30">
-        <v>20.06779227896466</v>
+        <v>20.95564005857946</v>
       </c>
       <c r="N30">
-        <v>28.08420456871238</v>
+        <v>29.44547613727022</v>
       </c>
       <c r="O30">
-        <v>20.85603263918194</v>
+        <v>21.39909164290217</v>
       </c>
       <c r="P30">
-        <v>28.13082806445034</v>
+        <v>29.9667936467469</v>
       </c>
       <c r="Q30">
-        <v>24.1004160559688</v>
+        <v>25.28973403810754</v>
       </c>
       <c r="R30">
-        <v>25.46658234433093</v>
+        <v>27.04155121816874</v>
       </c>
       <c r="S30">
-        <v>22.04047763316118</v>
+        <v>22.43018775444025</v>
       </c>
       <c r="T30">
-        <v>23.51861924577237</v>
+        <v>25.15038075943565</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>9.92867403410944</v>
+        <v>10.21749677687159</v>
       </c>
       <c r="C31">
-        <v>9.411229635276364</v>
+        <v>9.613060825044938</v>
       </c>
       <c r="D31">
-        <v>11.09617829049577</v>
+        <v>11.67625146607007</v>
       </c>
       <c r="E31">
-        <v>8.980933360378211</v>
+        <v>9.206736203211062</v>
       </c>
       <c r="F31">
-        <v>10.9746418957094</v>
+        <v>11.22814469158164</v>
       </c>
       <c r="G31">
-        <v>8.991853160783698</v>
+        <v>9.39438207674729</v>
       </c>
       <c r="H31">
-        <v>9.720349421845857</v>
+        <v>10.13220148923788</v>
       </c>
       <c r="I31">
-        <v>7.606225603920922</v>
+        <v>7.717796767525899</v>
       </c>
       <c r="J31">
-        <v>9.462487946401492</v>
+        <v>9.782170086995082</v>
       </c>
       <c r="K31">
-        <v>9.98992274720281</v>
+        <v>10.25169215149245</v>
       </c>
       <c r="L31">
-        <v>8.980932246519904</v>
+        <v>9.222559504663879</v>
       </c>
       <c r="M31">
-        <v>9.74374155251985</v>
+        <v>10.17482829999497</v>
       </c>
       <c r="N31">
-        <v>10.91527540505658</v>
+        <v>11.44435053109506</v>
       </c>
       <c r="O31">
-        <v>10.25786220715009</v>
+        <v>10.5249611576978</v>
       </c>
       <c r="P31">
-        <v>10.8394228023659</v>
+        <v>11.54686046298185</v>
       </c>
       <c r="Q31">
-        <v>9.776312329403803</v>
+        <v>10.2587581106452</v>
       </c>
       <c r="R31">
-        <v>8.921897456559547</v>
+        <v>9.473668031804479</v>
       </c>
       <c r="S31">
-        <v>9.759634822030824</v>
+        <v>9.932200432152204</v>
       </c>
       <c r="T31">
-        <v>11.63491883277521</v>
+        <v>12.44216914655931</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>8.853883141274755</v>
+        <v>9.111440475131561</v>
       </c>
       <c r="C32">
-        <v>12.32540188619963</v>
+        <v>12.58972978207234</v>
       </c>
       <c r="D32">
-        <v>13.85479612159222</v>
+        <v>14.57908112970806</v>
       </c>
       <c r="E32">
-        <v>9.401806805947793</v>
+        <v>9.638191446536958</v>
       </c>
       <c r="F32">
-        <v>10.83744890159194</v>
+        <v>11.08778268220945</v>
       </c>
       <c r="G32">
-        <v>11.13557731807663</v>
+        <v>11.63407209844329</v>
       </c>
       <c r="H32">
-        <v>11.61460880258447</v>
+        <v>12.10672080799689</v>
       </c>
       <c r="I32">
-        <v>9.91359120486279</v>
+        <v>10.05900773124881</v>
       </c>
       <c r="J32">
-        <v>16.08699508234098</v>
+        <v>16.63048058560095</v>
       </c>
       <c r="K32">
-        <v>12.16095356234878</v>
+        <v>12.47961123870582</v>
       </c>
       <c r="L32">
-        <v>9.086996307168654</v>
+        <v>9.331477163074945</v>
       </c>
       <c r="M32">
-        <v>9.223410642208613</v>
+        <v>9.631476688803296</v>
       </c>
       <c r="N32">
-        <v>15.77476389973727</v>
+        <v>16.53938365405099</v>
       </c>
       <c r="O32">
-        <v>13.69840226994761</v>
+        <v>14.05508759059201</v>
       </c>
       <c r="P32">
-        <v>18.13029369773608</v>
+        <v>19.31357188456048</v>
       </c>
       <c r="Q32">
-        <v>14.30539445815896</v>
+        <v>15.01134338581088</v>
       </c>
       <c r="R32">
-        <v>15.62261096632377</v>
+        <v>16.58878403451775</v>
       </c>
       <c r="S32">
-        <v>8.72823155376283</v>
+        <v>8.882560340732994</v>
       </c>
       <c r="T32">
-        <v>14.99960210612934</v>
+        <v>16.04029982657244</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.388963353975669</v>
+        <v>2.458457724108388</v>
       </c>
       <c r="C33">
-        <v>2.871848650764627</v>
+        <v>2.933437694118373</v>
       </c>
       <c r="D33">
-        <v>2.431887356693569</v>
+        <v>2.559018751368844</v>
       </c>
       <c r="E33">
-        <v>4.30762821613019</v>
+        <v>4.41593262704592</v>
       </c>
       <c r="F33">
-        <v>3.930738808202333</v>
+        <v>4.021534780152215</v>
       </c>
       <c r="G33">
-        <v>2.205576347846192</v>
+        <v>2.304311084779561</v>
       </c>
       <c r="H33">
-        <v>2.7509351435052</v>
+        <v>2.867492509598202</v>
       </c>
       <c r="I33">
-        <v>1.999821460999941</v>
+        <v>2.029155643158691</v>
       </c>
       <c r="J33">
-        <v>4.78636526220891</v>
+        <v>4.948068558567415</v>
       </c>
       <c r="K33">
-        <v>2.718957639920905</v>
+        <v>2.790203428271985</v>
       </c>
       <c r="L33">
-        <v>1.908311313418373</v>
+        <v>1.959653425538758</v>
       </c>
       <c r="M33">
-        <v>2.752768618323219</v>
+        <v>2.874557775376307</v>
       </c>
       <c r="N33">
-        <v>5.470525581531342</v>
+        <v>5.735687833892345</v>
       </c>
       <c r="O33">
-        <v>1.616264824496961</v>
+        <v>1.658349873965593</v>
       </c>
       <c r="P33">
-        <v>4.067570874974505</v>
+        <v>4.333041913114421</v>
       </c>
       <c r="Q33">
-        <v>3.759123775121851</v>
+        <v>3.944630676432396</v>
       </c>
       <c r="R33">
-        <v>1.905309757080271</v>
+        <v>2.023142747854115</v>
       </c>
       <c r="S33">
-        <v>1.47417739858506</v>
+        <v>1.500243160967862</v>
       </c>
       <c r="T33">
-        <v>2.192606673575993</v>
+        <v>2.34473342673076</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.211464828793348</v>
+        <v>1.246706049666339</v>
       </c>
       <c r="C34">
-        <v>1.455931845457308</v>
+        <v>1.48715544407073</v>
       </c>
       <c r="D34">
-        <v>1.233348207249601</v>
+        <v>1.297823758420308</v>
       </c>
       <c r="E34">
-        <v>2.184095530833762</v>
+        <v>2.239009086039122</v>
       </c>
       <c r="F34">
-        <v>1.993286583136695</v>
+        <v>2.039329426866961</v>
       </c>
       <c r="G34">
-        <v>1.11843313976892</v>
+        <v>1.168500870110916</v>
       </c>
       <c r="H34">
-        <v>1.394531852458106</v>
+        <v>1.453618290769481</v>
       </c>
       <c r="I34">
-        <v>1.013640379604521</v>
+        <v>1.028508862675963</v>
       </c>
       <c r="J34">
-        <v>2.426867863276111</v>
+        <v>2.508857538493075</v>
       </c>
       <c r="K34">
-        <v>1.378962429839967</v>
+        <v>1.415095859790472</v>
       </c>
       <c r="L34">
-        <v>0.9672032197255011</v>
+        <v>0.9932253136056611</v>
       </c>
       <c r="M34">
-        <v>1.395857771373857</v>
+        <v>1.457613903077064</v>
       </c>
       <c r="N34">
-        <v>2.773926427774831</v>
+        <v>2.908381621980611</v>
       </c>
       <c r="O34">
-        <v>0.8192900589659149</v>
+        <v>0.8406231116551426</v>
       </c>
       <c r="P34">
-        <v>2.062235366102386</v>
+        <v>2.196827676932491</v>
       </c>
       <c r="Q34">
-        <v>1.906186615677218</v>
+        <v>2.000253955181742</v>
       </c>
       <c r="R34">
-        <v>0.9662034038342862</v>
+        <v>1.025957801431099</v>
       </c>
       <c r="S34">
-        <v>0.747134835022413</v>
+        <v>0.7603453476081443</v>
       </c>
       <c r="T34">
-        <v>1.111633187681956</v>
+        <v>1.188760175198296</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.271278526347861</v>
+        <v>3.366439232910774</v>
       </c>
       <c r="C35">
-        <v>4.224664815835424</v>
+        <v>4.315266061283459</v>
       </c>
       <c r="D35">
-        <v>4.611409044296296</v>
+        <v>4.852478953067337</v>
       </c>
       <c r="E35">
-        <v>4.273130392722847</v>
+        <v>4.380567443166748</v>
       </c>
       <c r="F35">
-        <v>4.827279072086144</v>
+        <v>4.938784190235634</v>
       </c>
       <c r="G35">
-        <v>3.233778056690358</v>
+        <v>3.378541227568581</v>
       </c>
       <c r="H35">
-        <v>5.548111308296096</v>
+        <v>5.783185276656474</v>
       </c>
       <c r="I35">
-        <v>3.33983521360406</v>
+        <v>3.388825254188525</v>
       </c>
       <c r="J35">
-        <v>7.158877409935304</v>
+        <v>7.40073401969992</v>
       </c>
       <c r="K35">
-        <v>3.274041709141376</v>
+        <v>3.359832557530203</v>
       </c>
       <c r="L35">
-        <v>2.833425620188021</v>
+        <v>2.909657446124156</v>
       </c>
       <c r="M35">
-        <v>4.268582916924517</v>
+        <v>4.457435373249056</v>
       </c>
       <c r="N35">
-        <v>5.579693497792499</v>
+        <v>5.850147236342525</v>
       </c>
       <c r="O35">
-        <v>2.839621089587116</v>
+        <v>2.913560454112134</v>
       </c>
       <c r="P35">
-        <v>5.964489088313277</v>
+        <v>6.353762971650012</v>
       </c>
       <c r="Q35">
-        <v>7.66144541227457</v>
+        <v>8.039525806274066</v>
       </c>
       <c r="R35">
-        <v>6.414258974973607</v>
+        <v>6.810945821199246</v>
       </c>
       <c r="S35">
-        <v>2.161035419228175</v>
+        <v>2.199245905830728</v>
       </c>
       <c r="T35">
-        <v>3.214012738853503</v>
+        <v>3.437006369426751</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.202957405629561</v>
+        <v>2.267040907403943</v>
       </c>
       <c r="C36">
-        <v>1.952272247317754</v>
+        <v>1.994140254549387</v>
       </c>
       <c r="D36">
-        <v>3.494354734715515</v>
+        <v>3.67702857020045</v>
       </c>
       <c r="E36">
-        <v>2.360417739360181</v>
+        <v>2.419764470310445</v>
       </c>
       <c r="F36">
-        <v>2.939280135597727</v>
+        <v>3.007174444979893</v>
       </c>
       <c r="G36">
-        <v>1.537572689871001</v>
+        <v>1.60640360347714</v>
       </c>
       <c r="H36">
-        <v>2.215512791776084</v>
+        <v>2.309384265323707</v>
       </c>
       <c r="I36">
-        <v>1.657757060452285</v>
+        <v>1.682073704980116</v>
       </c>
       <c r="J36">
-        <v>2.509549796788357</v>
+        <v>2.594332811097887</v>
       </c>
       <c r="K36">
-        <v>2.668061679419314</v>
+        <v>2.73797382329702</v>
       </c>
       <c r="L36">
-        <v>1.876323739571925</v>
+        <v>1.926805242843358</v>
       </c>
       <c r="M36">
-        <v>2.068860625429109</v>
+        <v>2.16039203491779</v>
       </c>
       <c r="N36">
-        <v>2.572269026903526</v>
+        <v>2.696949670232362</v>
       </c>
       <c r="O36">
-        <v>2.318399592929812</v>
+        <v>2.3787671515611</v>
       </c>
       <c r="P36">
-        <v>2.836534774627779</v>
+        <v>3.021661931470529</v>
       </c>
       <c r="Q36">
-        <v>2.904973713661354</v>
+        <v>3.048329640267531</v>
       </c>
       <c r="R36">
-        <v>2.653188353317387</v>
+        <v>2.817273546077226</v>
       </c>
       <c r="S36">
-        <v>1.027682477256925</v>
+        <v>1.045853511002836</v>
       </c>
       <c r="T36">
-        <v>1.528605131997646</v>
+        <v>1.634662337053606</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>97.75097818496718</v>
+        <v>100.5945306603605</v>
       </c>
       <c r="C37">
-        <v>85.89767032197253</v>
+        <v>87.73981313128709</v>
       </c>
       <c r="D37">
-        <v>95.90370094422076</v>
+        <v>100.9172437063889</v>
       </c>
       <c r="E37">
-        <v>79.76510066415982</v>
+        <v>81.77059227244597</v>
       </c>
       <c r="F37">
-        <v>89.71703944963276</v>
+        <v>91.78940960566985</v>
       </c>
       <c r="G37">
-        <v>75.2340938976634</v>
+        <v>78.60202014363539</v>
       </c>
       <c r="H37">
-        <v>87.96177992921905</v>
+        <v>91.68872834878026</v>
       </c>
       <c r="I37">
-        <v>86.86082119778244</v>
+        <v>88.13493051262118</v>
       </c>
       <c r="J37">
-        <v>79.70614947926363</v>
+        <v>82.39895422874748</v>
       </c>
       <c r="K37">
-        <v>93.12926947593373</v>
+        <v>95.56956796567633</v>
       </c>
       <c r="L37">
-        <v>95.47028125776126</v>
+        <v>98.03885895786426</v>
       </c>
       <c r="M37">
-        <v>76.85085021289959</v>
+        <v>80.25091813140968</v>
       </c>
       <c r="N37">
-        <v>89.98620364143669</v>
+        <v>94.34793161132947</v>
       </c>
       <c r="O37">
-        <v>90.63356428572158</v>
+        <v>92.99352286346901</v>
       </c>
       <c r="P37">
-        <v>88.26167448500918</v>
+        <v>94.02209491127884</v>
       </c>
       <c r="Q37">
-        <v>93.93060161978477</v>
+        <v>98.56593045892542</v>
       </c>
       <c r="R37">
-        <v>91.96816389813998</v>
+        <v>97.65589197900781</v>
       </c>
       <c r="S37">
-        <v>76.62001681631244</v>
+        <v>77.9747785661651</v>
       </c>
       <c r="T37">
-        <v>94.11039263375535</v>
+        <v>100.639930576894</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.851877184749414</v>
+        <v>8.080286406015007</v>
       </c>
       <c r="C38">
-        <v>12.05837844519874</v>
+        <v>12.31697981426444</v>
       </c>
       <c r="D38">
-        <v>7.104212252149725</v>
+        <v>7.475598044011783</v>
       </c>
       <c r="E38">
-        <v>6.718642763154473</v>
+        <v>6.887566033712482</v>
       </c>
       <c r="F38">
-        <v>6.559739439662335</v>
+        <v>6.711262587656619</v>
       </c>
       <c r="G38">
-        <v>5.101714211398763</v>
+        <v>5.330097332692017</v>
       </c>
       <c r="H38">
-        <v>11.77361301612827</v>
+        <v>12.27246204417538</v>
       </c>
       <c r="I38">
-        <v>9.303994784620754</v>
+        <v>9.440469506559014</v>
       </c>
       <c r="J38">
-        <v>6.98662338178479</v>
+        <v>7.222660535106562</v>
       </c>
       <c r="K38">
-        <v>6.87334041586323</v>
+        <v>7.053444934353545</v>
       </c>
       <c r="L38">
-        <v>11.8227756492991</v>
+        <v>12.14086120939209</v>
       </c>
       <c r="M38">
-        <v>8.061234417381719</v>
+        <v>8.417882970393153</v>
       </c>
       <c r="N38">
-        <v>9.471832956714604</v>
+        <v>9.930942876476021</v>
       </c>
       <c r="O38">
-        <v>5.925507381723325</v>
+        <v>6.079798477778197</v>
       </c>
       <c r="P38">
-        <v>12.41416479706302</v>
+        <v>13.22437839078116</v>
       </c>
       <c r="Q38">
-        <v>8.529987218662791</v>
+        <v>8.95092879755544</v>
       </c>
       <c r="R38">
-        <v>12.84477618030019</v>
+        <v>13.63915535540334</v>
       </c>
       <c r="S38">
-        <v>5.920522656811075</v>
+        <v>6.025206758536251</v>
       </c>
       <c r="T38">
-        <v>6.825725609470291</v>
+        <v>7.299305977261719</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>26.39747895637095</v>
+        <v>27.16537527847727</v>
       </c>
       <c r="C39">
-        <v>24.81240297300499</v>
+        <v>25.34452438616099</v>
       </c>
       <c r="D39">
-        <v>27.18982972095032</v>
+        <v>28.61122819316715</v>
       </c>
       <c r="E39">
-        <v>27.38053912925892</v>
+        <v>28.06895349841112</v>
       </c>
       <c r="F39">
-        <v>29.28033500614843</v>
+        <v>29.9566802444415</v>
       </c>
       <c r="G39">
-        <v>28.78018810084617</v>
+        <v>30.06856077667979</v>
       </c>
       <c r="H39">
-        <v>25.71000783484718</v>
+        <v>26.79934314779894</v>
       </c>
       <c r="I39">
-        <v>27.35495287590621</v>
+        <v>27.7562062809</v>
       </c>
       <c r="J39">
-        <v>21.956646788252</v>
+        <v>22.69843350283325</v>
       </c>
       <c r="K39">
-        <v>31.40598862701269</v>
+        <v>32.22893061986465</v>
       </c>
       <c r="L39">
-        <v>27.55476953393782</v>
+        <v>28.29611611450627</v>
       </c>
       <c r="M39">
-        <v>31.82197407027688</v>
+        <v>33.22985534732549</v>
       </c>
       <c r="N39">
-        <v>19.65249925859714</v>
+        <v>20.60507701191675</v>
       </c>
       <c r="O39">
-        <v>30.13281890996331</v>
+        <v>30.9174311561958</v>
       </c>
       <c r="P39">
-        <v>24.51307362839078</v>
+        <v>26.11292555578218</v>
       </c>
       <c r="Q39">
-        <v>23.15487841421725</v>
+        <v>24.29753558695284</v>
       </c>
       <c r="R39">
-        <v>27.30376237421777</v>
+        <v>28.99235078771682</v>
       </c>
       <c r="S39">
-        <v>31.51212323093536</v>
+        <v>32.06930686236502</v>
       </c>
       <c r="T39">
-        <v>29.61201597825125</v>
+        <v>31.6665476457078</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.367484692057046</v>
+        <v>5.523623532466949</v>
       </c>
       <c r="C40">
-        <v>6.0622785827234</v>
+        <v>6.192288894497468</v>
       </c>
       <c r="D40">
-        <v>5.840801676795258</v>
+        <v>6.146140351774943</v>
       </c>
       <c r="E40">
-        <v>4.634974229350975</v>
+        <v>4.751508927410506</v>
       </c>
       <c r="F40">
-        <v>4.865565489049154</v>
+        <v>4.977954983548806</v>
       </c>
       <c r="G40">
-        <v>3.987647108610073</v>
+        <v>4.166157949386999</v>
       </c>
       <c r="H40">
-        <v>6.050272574539009</v>
+        <v>6.306623160301797</v>
       </c>
       <c r="I40">
-        <v>5.008575993339986</v>
+        <v>5.082043792045935</v>
       </c>
       <c r="J40">
-        <v>4.838424257383287</v>
+        <v>5.001886322800075</v>
       </c>
       <c r="K40">
-        <v>6.063776544134805</v>
+        <v>6.222667780220499</v>
       </c>
       <c r="L40">
-        <v>5.543951614544952</v>
+        <v>5.693108716629141</v>
       </c>
       <c r="M40">
-        <v>5.923048266477012</v>
+        <v>6.185098280690843</v>
       </c>
       <c r="N40">
-        <v>4.271952834247382</v>
+        <v>4.479018977824746</v>
       </c>
       <c r="O40">
-        <v>6.221185019735343</v>
+        <v>6.383175106595373</v>
       </c>
       <c r="P40">
-        <v>6.381242096675504</v>
+        <v>6.797715470120336</v>
       </c>
       <c r="Q40">
-        <v>4.91550048006458</v>
+        <v>5.15807277004397</v>
       </c>
       <c r="R40">
-        <v>5.85760813574536</v>
+        <v>6.219869171176041</v>
       </c>
       <c r="S40">
-        <v>4.258073233065984</v>
+        <v>4.333362628499803</v>
       </c>
       <c r="T40">
-        <v>7.427531755993146</v>
+        <v>7.942866450359614</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.739139769775081</v>
+        <v>2.818820687730233</v>
       </c>
       <c r="C41">
-        <v>3.890693134583589</v>
+        <v>3.974132095783091</v>
       </c>
       <c r="D41">
-        <v>3.328220595188629</v>
+        <v>3.502209462266989</v>
       </c>
       <c r="E41">
-        <v>4.659506014885086</v>
+        <v>4.776657502613473</v>
       </c>
       <c r="F41">
-        <v>3.212070856459171</v>
+        <v>3.286266347336236</v>
       </c>
       <c r="G41">
-        <v>2.165554342194083</v>
+        <v>2.262497455725494</v>
       </c>
       <c r="H41">
-        <v>2.961047854259504</v>
+        <v>3.086507714548345</v>
       </c>
       <c r="I41">
-        <v>2.469767736064266</v>
+        <v>2.505995278408616</v>
       </c>
       <c r="J41">
-        <v>4.082037680437925</v>
+        <v>4.219945866007911</v>
       </c>
       <c r="K41">
-        <v>3.115787081956744</v>
+        <v>3.197431129561169</v>
       </c>
       <c r="L41">
-        <v>2.421796051479779</v>
+        <v>2.486953200385976</v>
       </c>
       <c r="M41">
-        <v>1.957472421575057</v>
+        <v>2.044075746893226</v>
       </c>
       <c r="N41">
-        <v>4.306825918608586</v>
+        <v>4.515582398051887</v>
       </c>
       <c r="O41">
-        <v>3.137689651895727</v>
+        <v>3.219390263216242</v>
       </c>
       <c r="P41">
-        <v>3.475504792983887</v>
+        <v>3.702334489088314</v>
       </c>
       <c r="Q41">
-        <v>2.565328533367036</v>
+        <v>2.691923499517896</v>
       </c>
       <c r="R41">
-        <v>3.195903566528793</v>
+        <v>3.39355272781056</v>
       </c>
       <c r="S41">
-        <v>1.823931753625433</v>
+        <v>1.856181720107133</v>
       </c>
       <c r="T41">
-        <v>1.44012999255251</v>
+        <v>1.540048643046492</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.30188316581245</v>
+        <v>11.63065223236788</v>
       </c>
       <c r="C42">
-        <v>9.909878597145463</v>
+        <v>10.12240370440954</v>
       </c>
       <c r="D42">
-        <v>12.17763242732079</v>
+        <v>12.81424061152265</v>
       </c>
       <c r="E42">
-        <v>13.76003182974209</v>
+        <v>14.105993009939</v>
       </c>
       <c r="F42">
-        <v>9.491840872079498</v>
+        <v>9.711092508890294</v>
       </c>
       <c r="G42">
-        <v>10.30966865598312</v>
+        <v>10.77119084432756</v>
       </c>
       <c r="H42">
-        <v>10.79038287931662</v>
+        <v>11.24757235923494</v>
       </c>
       <c r="I42">
-        <v>10.90761780003224</v>
+        <v>11.0676151066439</v>
       </c>
       <c r="J42">
-        <v>14.98992831638683</v>
+        <v>15.49635034816858</v>
       </c>
       <c r="K42">
-        <v>12.21900676729591</v>
+        <v>12.53918563188039</v>
       </c>
       <c r="L42">
-        <v>11.58960307152367</v>
+        <v>11.90141524605983</v>
       </c>
       <c r="M42">
-        <v>10.61537372114002</v>
+        <v>11.08502358880258</v>
       </c>
       <c r="N42">
-        <v>13.32985744180509</v>
+        <v>13.97596995334383</v>
       </c>
       <c r="O42">
-        <v>12.18415021543863</v>
+        <v>12.50140674220216</v>
       </c>
       <c r="P42">
-        <v>10.13125025494595</v>
+        <v>10.79246885580257</v>
       </c>
       <c r="Q42">
-        <v>11.4112145531934</v>
+        <v>11.97434021188073</v>
       </c>
       <c r="R42">
-        <v>10.29533082066373</v>
+        <v>10.93204073992849</v>
       </c>
       <c r="S42">
-        <v>7.844915767735337</v>
+        <v>7.983626149885516</v>
       </c>
       <c r="T42">
-        <v>9.445816125117831</v>
+        <v>10.10118279681893</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.243004967860732</v>
+        <v>1.279163683803179</v>
       </c>
       <c r="C43">
-        <v>1.232001524617944</v>
+        <v>1.258422762133847</v>
       </c>
       <c r="D43">
-        <v>0.8567774909886583</v>
+        <v>0.9015671137711315</v>
       </c>
       <c r="E43">
-        <v>0.8034159762421141</v>
+        <v>0.8236158378971568</v>
       </c>
       <c r="F43">
-        <v>0.8670278174748247</v>
+        <v>0.8870552569045167</v>
       </c>
       <c r="G43">
-        <v>1.776977050953613</v>
+        <v>1.856525130000557</v>
       </c>
       <c r="H43">
-        <v>1.128443168568485</v>
+        <v>1.176255405736095</v>
       </c>
       <c r="I43">
-        <v>0.6535312973765989</v>
+        <v>0.6631175561989762</v>
       </c>
       <c r="J43">
-        <v>0.5764768142103821</v>
+        <v>0.5959525951057683</v>
       </c>
       <c r="K43">
-        <v>0.8501215902531288</v>
+        <v>0.8723976205974706</v>
       </c>
       <c r="L43">
-        <v>0.7382395332456608</v>
+        <v>0.7581014795754262</v>
       </c>
       <c r="M43">
-        <v>0.6161403443954914</v>
+        <v>0.64339988690511</v>
       </c>
       <c r="N43">
-        <v>0.865762224793347</v>
+        <v>0.9077266499868429</v>
       </c>
       <c r="O43">
-        <v>1.214589542669314</v>
+        <v>1.246215585761126</v>
       </c>
       <c r="P43">
-        <v>0.5005649602284317</v>
+        <v>0.5332344584947992</v>
       </c>
       <c r="Q43">
-        <v>0.7066346759513127</v>
+        <v>0.741505996220638</v>
       </c>
       <c r="R43">
-        <v>0.7161363369765342</v>
+        <v>0.7604254537850697</v>
       </c>
       <c r="S43">
-        <v>0.5142133177295691</v>
+        <v>0.5233054135430555</v>
       </c>
       <c r="T43">
-        <v>0.8348198801110351</v>
+        <v>0.8927410929582159</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.384856357358803</v>
+        <v>6.570590295137346</v>
       </c>
       <c r="C44">
-        <v>6.086903222815702</v>
+        <v>6.217441629280905</v>
       </c>
       <c r="D44">
-        <v>7.209430540516752</v>
+        <v>7.586316812369641</v>
       </c>
       <c r="E44">
-        <v>8.097789081150241</v>
+        <v>8.301387495904264</v>
       </c>
       <c r="F44">
-        <v>4.977234205191266</v>
+        <v>5.092203130712221</v>
       </c>
       <c r="G44">
-        <v>5.728968190891806</v>
+        <v>5.985430937139388</v>
       </c>
       <c r="H44">
-        <v>5.454006773749766</v>
+        <v>5.685093524632473</v>
       </c>
       <c r="I44">
-        <v>4.567658119239567</v>
+        <v>4.634658357971715</v>
       </c>
       <c r="J44">
-        <v>5.476146948269406</v>
+        <v>5.661153934650147</v>
       </c>
       <c r="K44">
-        <v>6.494006460249813</v>
+        <v>6.664171159774504</v>
       </c>
       <c r="L44">
-        <v>4.687863125022902</v>
+        <v>4.813987616596976</v>
       </c>
       <c r="M44">
-        <v>6.472978839350865</v>
+        <v>6.759359115273659</v>
       </c>
       <c r="N44">
-        <v>4.713173162469561</v>
+        <v>4.941625729394223</v>
       </c>
       <c r="O44">
-        <v>7.540178256689224</v>
+        <v>7.736512898219169</v>
       </c>
       <c r="P44">
-        <v>5.429322863552926</v>
+        <v>5.783668988374465</v>
       </c>
       <c r="Q44">
-        <v>5.005448885862863</v>
+        <v>5.252459989522157</v>
       </c>
       <c r="R44">
-        <v>4.079267415707415</v>
+        <v>4.331547801074089</v>
       </c>
       <c r="S44">
-        <v>4.85116732023019</v>
+        <v>4.936943546870013</v>
       </c>
       <c r="T44">
-        <v>6.518252600111452</v>
+        <v>6.970499971355808</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2019.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2019.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>154.1063501406317</v>
+        <v>151.6603562092766</v>
       </c>
       <c r="C2">
-        <v>136.3506171921276</v>
+        <v>138.7193453939415</v>
       </c>
       <c r="D2">
-        <v>141.7042065311503</v>
+        <v>140.141114021211</v>
       </c>
       <c r="E2">
-        <v>124.4359359972539</v>
+        <v>124.3310628499593</v>
       </c>
       <c r="F2">
-        <v>142.7040963890458</v>
+        <v>140.5742267331375</v>
       </c>
       <c r="G2">
-        <v>142.0583835960869</v>
+        <v>140.2163520301214</v>
       </c>
       <c r="H2">
-        <v>165.0613588627339</v>
+        <v>164.6814402884852</v>
       </c>
       <c r="I2">
-        <v>153.814614896478</v>
+        <v>153.9826644878873</v>
       </c>
       <c r="J2">
-        <v>139.2518820765866</v>
+        <v>138.7625596610883</v>
       </c>
       <c r="K2">
-        <v>139.8398707950037</v>
+        <v>139.6155600121093</v>
       </c>
       <c r="L2">
-        <v>183.5720689932454</v>
+        <v>180.6531615711965</v>
       </c>
       <c r="M2">
-        <v>149.7974841620972</v>
+        <v>148.611163974813</v>
       </c>
       <c r="N2">
-        <v>121.1687900618602</v>
+        <v>120.6474577830211</v>
       </c>
       <c r="O2">
-        <v>147.5432574504368</v>
+        <v>146.5988728304513</v>
       </c>
       <c r="P2">
-        <v>133.1284125025495</v>
+        <v>131.2056706270455</v>
       </c>
       <c r="Q2">
-        <v>132.8685113105661</v>
+        <v>130.7378184254395</v>
       </c>
       <c r="R2">
-        <v>146.8854248162674</v>
+        <v>146.6755134033816</v>
       </c>
       <c r="S2">
-        <v>168.0075438102354</v>
+        <v>141.2506482988938</v>
       </c>
       <c r="T2">
-        <v>182.1819465030649</v>
+        <v>181.7585886842055</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.54196272928687</v>
+        <v>12.34289523664219</v>
       </c>
       <c r="C3">
-        <v>9.907819435788344</v>
+        <v>10.07994136526199</v>
       </c>
       <c r="D3">
-        <v>9.301209014002634</v>
+        <v>9.198610435604246</v>
       </c>
       <c r="E3">
-        <v>11.15968024631644</v>
+        <v>11.15027499870164</v>
       </c>
       <c r="F3">
-        <v>15.11502986971983</v>
+        <v>14.88943688197617</v>
       </c>
       <c r="G3">
-        <v>9.006655698245947</v>
+        <v>8.889868897777179</v>
       </c>
       <c r="H3">
-        <v>9.52758422460718</v>
+        <v>9.505654766134359</v>
       </c>
       <c r="I3">
-        <v>10.72849376337767</v>
+        <v>10.74021513975394</v>
       </c>
       <c r="J3">
-        <v>10.60289099154313</v>
+        <v>10.5656330948894</v>
       </c>
       <c r="K3">
-        <v>11.52723703549043</v>
+        <v>11.50874671832023</v>
       </c>
       <c r="L3">
-        <v>13.49800981022837</v>
+        <v>13.28338325383534</v>
       </c>
       <c r="M3">
-        <v>11.06794217587589</v>
+        <v>10.98028968085316</v>
       </c>
       <c r="N3">
-        <v>9.349107580687607</v>
+        <v>9.308882770671238</v>
       </c>
       <c r="O3">
-        <v>12.04184430178369</v>
+        <v>11.96476770234176</v>
       </c>
       <c r="P3">
-        <v>8.53994234142362</v>
+        <v>8.416601993217109</v>
       </c>
       <c r="Q3">
-        <v>7.584201859511292</v>
+        <v>7.462580831458576</v>
       </c>
       <c r="R3">
-        <v>8.230680695455264</v>
+        <v>8.218918372434063</v>
       </c>
       <c r="S3">
-        <v>15.0153059830943</v>
+        <v>12.62396709348903</v>
       </c>
       <c r="T3">
-        <v>18.15833509538516</v>
+        <v>18.11613841625389</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.687465808256322</v>
+        <v>7.56544945592992</v>
       </c>
       <c r="C4">
-        <v>5.866089365274765</v>
+        <v>5.967997017766779</v>
       </c>
       <c r="D4">
-        <v>6.59900508851686</v>
+        <v>6.526213633136567</v>
       </c>
       <c r="E4">
-        <v>8.055402994700245</v>
+        <v>8.048613995541679</v>
       </c>
       <c r="F4">
-        <v>6.70963047126857</v>
+        <v>6.609488718475762</v>
       </c>
       <c r="G4">
-        <v>6.925097219154413</v>
+        <v>6.83530140878301</v>
       </c>
       <c r="H4">
-        <v>6.596670323614148</v>
+        <v>6.581486893637538</v>
       </c>
       <c r="I4">
-        <v>6.860440695465518</v>
+        <v>6.867936044698337</v>
       </c>
       <c r="J4">
-        <v>7.327921750443969</v>
+        <v>7.302171891138387</v>
       </c>
       <c r="K4">
-        <v>6.416896623721153</v>
+        <v>6.406603571408987</v>
       </c>
       <c r="L4">
-        <v>7.122004663879062</v>
+        <v>7.008760462910621</v>
       </c>
       <c r="M4">
-        <v>8.316207893448603</v>
+        <v>8.250347739916423</v>
       </c>
       <c r="N4">
-        <v>5.932017503372863</v>
+        <v>5.906494823798627</v>
       </c>
       <c r="O4">
-        <v>9.323720543863752</v>
+        <v>9.264041921913673</v>
       </c>
       <c r="P4">
-        <v>5.981891321639814</v>
+        <v>5.895496293541583</v>
       </c>
       <c r="Q4">
-        <v>6.351127224248254</v>
+        <v>6.249279905754488</v>
       </c>
       <c r="R4">
-        <v>7.301728519479989</v>
+        <v>7.291293745900854</v>
       </c>
       <c r="S4">
-        <v>7.39443423709753</v>
+        <v>6.216796020619703</v>
       </c>
       <c r="T4">
-        <v>6.977057356088975</v>
+        <v>6.960843939551123</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.8869036905715</v>
+        <v>20.55538432342462</v>
       </c>
       <c r="C5">
-        <v>15.32037355199926</v>
+        <v>15.58652416900607</v>
       </c>
       <c r="D5">
-        <v>14.68896742612337</v>
+        <v>14.52693825617443</v>
       </c>
       <c r="E5">
-        <v>14.74728167761465</v>
+        <v>14.73485284159411</v>
       </c>
       <c r="F5">
-        <v>14.83757008375153</v>
+        <v>14.61611820473441</v>
       </c>
       <c r="G5">
-        <v>15.44443407697024</v>
+        <v>15.24417039405279</v>
       </c>
       <c r="H5">
-        <v>16.17160918712947</v>
+        <v>16.13438730341293</v>
       </c>
       <c r="I5">
-        <v>18.058609558672</v>
+        <v>18.07833942608282</v>
       </c>
       <c r="J5">
-        <v>13.47897562715317</v>
+        <v>13.43161134873937</v>
       </c>
       <c r="K5">
-        <v>17.24311442993822</v>
+        <v>17.2154555335496</v>
       </c>
       <c r="L5">
-        <v>21.83799051141846</v>
+        <v>21.49075319510997</v>
       </c>
       <c r="M5">
-        <v>14.33211884610372</v>
+        <v>14.21861572548194</v>
       </c>
       <c r="N5">
-        <v>16.46864138448109</v>
+        <v>16.39778457112204</v>
       </c>
       <c r="O5">
-        <v>23.00756018436682</v>
+        <v>22.86029499341897</v>
       </c>
       <c r="P5">
-        <v>13.17441325718948</v>
+        <v>12.98413835209131</v>
       </c>
       <c r="Q5">
-        <v>12.57539802551782</v>
+        <v>12.37373767095889</v>
       </c>
       <c r="R5">
-        <v>16.52630583507163</v>
+        <v>16.50268837805054</v>
       </c>
       <c r="S5">
-        <v>20.14839439553255</v>
+        <v>16.93955941505399</v>
       </c>
       <c r="T5">
-        <v>26.64452770934999</v>
+        <v>26.58261065690824</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>45.61046618552339</v>
+        <v>44.88653155600123</v>
       </c>
       <c r="C6">
-        <v>43.18881766908578</v>
+        <v>43.93910815197821</v>
       </c>
       <c r="D6">
-        <v>46.10645853759383</v>
+        <v>45.59787335325706</v>
       </c>
       <c r="E6">
-        <v>35.39111834734987</v>
+        <v>35.36129112792472</v>
       </c>
       <c r="F6">
-        <v>33.18663857639005</v>
+        <v>32.69132543350204</v>
       </c>
       <c r="G6">
-        <v>45.2362646540922</v>
+        <v>44.64969858660739</v>
       </c>
       <c r="H6">
-        <v>44.48630077998886</v>
+        <v>44.38390751191944</v>
       </c>
       <c r="I6">
-        <v>46.13801599301352</v>
+        <v>46.18842391258136</v>
       </c>
       <c r="J6">
-        <v>36.50902153018472</v>
+        <v>36.38073110899814</v>
       </c>
       <c r="K6">
-        <v>41.10469911529785</v>
+        <v>41.03876493510466</v>
       </c>
       <c r="L6">
-        <v>49.79352283692506</v>
+        <v>49.00177557288998</v>
       </c>
       <c r="M6">
-        <v>50.3340434912454</v>
+        <v>49.93542336597888</v>
       </c>
       <c r="N6">
-        <v>36.52924137779802</v>
+        <v>36.37207324364378</v>
       </c>
       <c r="O6">
-        <v>46.94651115100525</v>
+        <v>46.64601918777284</v>
       </c>
       <c r="P6">
-        <v>50.49345344686928</v>
+        <v>49.76418855475433</v>
       </c>
       <c r="Q6">
-        <v>42.28018864193705</v>
+        <v>41.60217926083831</v>
       </c>
       <c r="R6">
-        <v>42.52052513094612</v>
+        <v>42.45975978599751</v>
       </c>
       <c r="S6">
-        <v>43.86829143979021</v>
+        <v>36.88182366759698</v>
       </c>
       <c r="T6">
-        <v>64.62771039159215</v>
+        <v>64.47752730795273</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>13.45826670838075</v>
+        <v>13.24465553229866</v>
       </c>
       <c r="C7">
-        <v>11.45707069385568</v>
+        <v>11.6561067306671</v>
       </c>
       <c r="D7">
-        <v>14.05129391813751</v>
+        <v>13.89629871498828</v>
       </c>
       <c r="E7">
-        <v>11.46775029255278</v>
+        <v>11.4580854071165</v>
       </c>
       <c r="F7">
-        <v>13.00143914719665</v>
+        <v>12.80739166416393</v>
       </c>
       <c r="G7">
-        <v>13.84791369490588</v>
+        <v>13.6683516479287</v>
       </c>
       <c r="H7">
-        <v>14.04995224033445</v>
+        <v>14.01761373385305</v>
       </c>
       <c r="I7">
-        <v>14.72789664734365</v>
+        <v>14.74398755662148</v>
       </c>
       <c r="J7">
-        <v>12.38125152434879</v>
+        <v>12.33774457986488</v>
       </c>
       <c r="K7">
-        <v>11.39503084789755</v>
+        <v>11.37675259666586</v>
       </c>
       <c r="L7">
-        <v>14.40219926021229</v>
+        <v>14.17319554224467</v>
       </c>
       <c r="M7">
-        <v>17.00413986820648</v>
+        <v>16.86947569473326</v>
       </c>
       <c r="N7">
-        <v>11.06520376047884</v>
+        <v>11.01759539623485</v>
       </c>
       <c r="O7">
-        <v>13.29787260869254</v>
+        <v>13.21275651062622</v>
       </c>
       <c r="P7">
-        <v>13.77399486028962</v>
+        <v>13.57506034125637</v>
       </c>
       <c r="Q7">
-        <v>12.56482665693627</v>
+        <v>12.36333582591305</v>
       </c>
       <c r="R7">
-        <v>12.47755409464842</v>
+        <v>12.4597226385142</v>
       </c>
       <c r="S7">
-        <v>12.54039702295146</v>
+        <v>10.5432123418109</v>
       </c>
       <c r="T7">
-        <v>18.16676601861352</v>
+        <v>18.12454974754497</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>185.99</v>
+        <v>198.910061491596</v>
       </c>
       <c r="C8">
-        <v>236.98</v>
+        <v>223.724563172741</v>
       </c>
       <c r="D8">
-        <v>186.59</v>
+        <v>195.562458261006</v>
       </c>
       <c r="E8">
-        <v>244.47</v>
+        <v>245.106751822056</v>
       </c>
       <c r="F8">
-        <v>214.26</v>
+        <v>225.987230162132</v>
       </c>
       <c r="G8">
-        <v>263.44</v>
+        <v>272.990768746498</v>
       </c>
       <c r="H8">
-        <v>177.57</v>
+        <v>179.462971408767</v>
       </c>
       <c r="I8">
-        <v>219.72</v>
+        <v>218.867507957725</v>
       </c>
       <c r="J8">
-        <v>243.27</v>
+        <v>245.929101952219</v>
       </c>
       <c r="K8">
-        <v>202.64</v>
+        <v>203.919008946675</v>
       </c>
       <c r="L8">
-        <v>150.75</v>
+        <v>164.253590942619</v>
       </c>
       <c r="M8">
-        <v>207.42</v>
+        <v>213.696832079638</v>
       </c>
       <c r="N8">
-        <v>238.81</v>
+        <v>242.085042336619</v>
       </c>
       <c r="O8">
-        <v>199.69</v>
+        <v>204.812568582807</v>
       </c>
       <c r="P8">
-        <v>196.79</v>
+        <v>208.390570252379</v>
       </c>
       <c r="Q8">
-        <v>259.16</v>
+        <v>271.040185165375</v>
       </c>
       <c r="R8">
-        <v>194.06</v>
+        <v>195.211754875018</v>
       </c>
       <c r="S8">
-        <v>271.34</v>
+        <v>387.38645268379</v>
       </c>
       <c r="T8">
-        <v>100.65</v>
+        <v>102.739926371408</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.59616917513473</v>
+        <v>10.42798554432172</v>
       </c>
       <c r="C9">
-        <v>8.924504710348343</v>
+        <v>9.079544169867882</v>
       </c>
       <c r="D9">
-        <v>10.81880536525358</v>
+        <v>10.69946668048982</v>
       </c>
       <c r="E9">
-        <v>11.58720602476687</v>
+        <v>11.57744046344063</v>
       </c>
       <c r="F9">
-        <v>11.9258744474725</v>
+        <v>11.74787985062087</v>
       </c>
       <c r="G9">
-        <v>11.04488005268145</v>
+        <v>10.90166416366227</v>
       </c>
       <c r="H9">
-        <v>9.057420309733514</v>
+        <v>9.036573018555528</v>
       </c>
       <c r="I9">
-        <v>8.672272097516982</v>
+        <v>8.681746956479889</v>
       </c>
       <c r="J9">
-        <v>8.872016721295701</v>
+        <v>8.840841008711667</v>
       </c>
       <c r="K9">
-        <v>7.28031728096355</v>
+        <v>7.268639254806</v>
       </c>
       <c r="L9">
-        <v>11.19345046638791</v>
+        <v>11.01546780364482</v>
       </c>
       <c r="M9">
-        <v>9.710376548512269</v>
+        <v>9.633475285516651</v>
       </c>
       <c r="N9">
-        <v>7.776085653959092</v>
+        <v>7.742628816993428</v>
       </c>
       <c r="O9">
-        <v>10.57238930991181</v>
+        <v>10.50471829577459</v>
       </c>
       <c r="P9">
-        <v>13.59952644299409</v>
+        <v>13.40311172965506</v>
       </c>
       <c r="Q9">
-        <v>7.553242851522446</v>
+        <v>7.4321182852529</v>
       </c>
       <c r="R9">
-        <v>5.908300255517077</v>
+        <v>5.89985680610104</v>
       </c>
       <c r="S9">
-        <v>5.941901989375997</v>
+        <v>4.99559418043652</v>
       </c>
       <c r="T9">
-        <v>7.363943055345787</v>
+        <v>7.346830586575103</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>27.48495813767078</v>
+        <v>27.04871368215715</v>
       </c>
       <c r="C10">
-        <v>30.59908788701344</v>
+        <v>31.13066540327522</v>
       </c>
       <c r="D10">
-        <v>28.58042673129316</v>
+        <v>28.26516544125705</v>
       </c>
       <c r="E10">
-        <v>28.04066135130778</v>
+        <v>28.01702901082216</v>
       </c>
       <c r="F10">
-        <v>24.1798042889428</v>
+        <v>23.818918843157</v>
       </c>
       <c r="G10">
-        <v>26.35246952547473</v>
+        <v>26.01076437947584</v>
       </c>
       <c r="H10">
-        <v>28.65378463218375</v>
+        <v>28.58783276386463</v>
       </c>
       <c r="I10">
-        <v>23.8013827284432</v>
+        <v>23.82738684154508</v>
       </c>
       <c r="J10">
-        <v>27.20883700815565</v>
+        <v>27.11322685446016</v>
       </c>
       <c r="K10">
-        <v>27.20835984164609</v>
+        <v>27.1647161478794</v>
       </c>
       <c r="L10">
-        <v>27.81463091026054</v>
+        <v>27.37236138063783</v>
       </c>
       <c r="M10">
-        <v>20.03243035992294</v>
+        <v>19.87378365988475</v>
       </c>
       <c r="N10">
-        <v>34.36723044262796</v>
+        <v>34.21936442403607</v>
       </c>
       <c r="O10">
-        <v>31.0809765086579</v>
+        <v>30.88203555604428</v>
       </c>
       <c r="P10">
-        <v>25.33723733428514</v>
+        <v>24.97129766508582</v>
       </c>
       <c r="Q10">
-        <v>29.91697308580618</v>
+        <v>29.43722147972807</v>
       </c>
       <c r="R10">
-        <v>31.08126006130369</v>
+        <v>31.03684237165272</v>
       </c>
       <c r="S10">
-        <v>25.67150059085745</v>
+        <v>21.58305525470777</v>
       </c>
       <c r="T10">
-        <v>24.65108275046742</v>
+        <v>24.59379810275078</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>43.87523112974614</v>
+        <v>43.17883835305504</v>
       </c>
       <c r="C11">
-        <v>50.62695295832538</v>
+        <v>51.50646119755333</v>
       </c>
       <c r="D11">
-        <v>50.30378207188196</v>
+        <v>49.74889759171734</v>
       </c>
       <c r="E11">
-        <v>39.97601796404071</v>
+        <v>39.94232664499693</v>
       </c>
       <c r="F11">
-        <v>30.46834873209479</v>
+        <v>30.01360627499527</v>
       </c>
       <c r="G11">
-        <v>42.73352889325606</v>
+        <v>42.1794151045881</v>
       </c>
       <c r="H11">
-        <v>60.34164862869611</v>
+        <v>60.20276140958691</v>
       </c>
       <c r="I11">
-        <v>58.60430762575777</v>
+        <v>58.6683355463683</v>
       </c>
       <c r="J11">
-        <v>46.70115635059918</v>
+        <v>46.53705140428707</v>
       </c>
       <c r="K11">
-        <v>45.00886208717652</v>
+        <v>44.93666541655202</v>
       </c>
       <c r="L11">
-        <v>53.10859601157929</v>
+        <v>52.26413707006952</v>
       </c>
       <c r="M11">
-        <v>46.77622919880172</v>
+        <v>46.40578516034563</v>
       </c>
       <c r="N11">
-        <v>42.04157440552023</v>
+        <v>41.86068929657738</v>
       </c>
       <c r="O11">
-        <v>37.18530678930541</v>
+        <v>36.9472936640153</v>
       </c>
       <c r="P11">
-        <v>48.68651763206201</v>
+        <v>47.98334988248913</v>
       </c>
       <c r="Q11">
-        <v>42.48784052478906</v>
+        <v>41.80650121709589</v>
       </c>
       <c r="R11">
-        <v>58.6538759747645</v>
+        <v>58.57005473795701</v>
       </c>
       <c r="S11">
-        <v>31.02345335136219</v>
+        <v>26.0826555699187</v>
       </c>
       <c r="T11">
-        <v>40.40660472577092</v>
+        <v>40.312707101047</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>11.02144740703026</v>
+        <v>10.84651371060733</v>
       </c>
       <c r="C12">
-        <v>11.74711316682719</v>
+        <v>11.95118791779774</v>
       </c>
       <c r="D12">
-        <v>11.85939529342894</v>
+        <v>11.72857820331317</v>
       </c>
       <c r="E12">
-        <v>10.9372725343652</v>
+        <v>10.92805472936132</v>
       </c>
       <c r="F12">
-        <v>9.249203571072485</v>
+        <v>9.111158493700351</v>
       </c>
       <c r="G12">
-        <v>9.858893483147922</v>
+        <v>9.731055952255799</v>
       </c>
       <c r="H12">
-        <v>11.34397287415508</v>
+        <v>11.31786266865114</v>
       </c>
       <c r="I12">
-        <v>10.15055457274087</v>
+        <v>10.16164452378144</v>
       </c>
       <c r="J12">
-        <v>9.464803565564255</v>
+        <v>9.431544837036826</v>
       </c>
       <c r="K12">
-        <v>10.73808034782181</v>
+        <v>10.7208558810377</v>
       </c>
       <c r="L12">
-        <v>11.23148520424574</v>
+        <v>11.05289776606356</v>
       </c>
       <c r="M12">
-        <v>12.47105823771068</v>
+        <v>12.37229377429564</v>
       </c>
       <c r="N12">
-        <v>10.01678742831366</v>
+        <v>9.973689906138322</v>
       </c>
       <c r="O12">
-        <v>11.72129541095799</v>
+        <v>11.64627055856083</v>
       </c>
       <c r="P12">
-        <v>13.10233240872935</v>
+        <v>12.91309855011518</v>
       </c>
       <c r="Q12">
-        <v>12.17066562839536</v>
+        <v>11.97549560348958</v>
       </c>
       <c r="R12">
-        <v>12.30491696459992</v>
+        <v>12.28733222119387</v>
       </c>
       <c r="S12">
-        <v>7.871543369560809</v>
+        <v>6.617920712650674</v>
       </c>
       <c r="T12">
-        <v>13.55130393571202</v>
+        <v>13.51981316186178</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.628125729101809</v>
+        <v>4.554667578697227</v>
       </c>
       <c r="C13">
-        <v>4.690199014149071</v>
+        <v>4.771678708966149</v>
       </c>
       <c r="D13">
-        <v>4.815017715653023</v>
+        <v>4.761904838408213</v>
       </c>
       <c r="E13">
-        <v>4.111006152709949</v>
+        <v>4.107541444944246</v>
       </c>
       <c r="F13">
-        <v>4.328372661105388</v>
+        <v>4.263771364971472</v>
       </c>
       <c r="G13">
-        <v>3.245497862396552</v>
+        <v>3.20341439390654</v>
       </c>
       <c r="H13">
-        <v>4.507146881792514</v>
+        <v>4.496772867976936</v>
       </c>
       <c r="I13">
-        <v>4.338524227232197</v>
+        <v>4.343264265909252</v>
       </c>
       <c r="J13">
-        <v>3.586004260855559</v>
+        <v>3.573403265876232</v>
       </c>
       <c r="K13">
-        <v>4.036369159471553</v>
+        <v>4.029894603101723</v>
       </c>
       <c r="L13">
-        <v>4.404249758764877</v>
+        <v>4.334219511898242</v>
       </c>
       <c r="M13">
-        <v>4.292315048291107</v>
+        <v>4.258322087591839</v>
       </c>
       <c r="N13">
-        <v>3.379731800126144</v>
+        <v>3.365190404769095</v>
       </c>
       <c r="O13">
-        <v>4.50649218709289</v>
+        <v>4.477647345348734</v>
       </c>
       <c r="P13">
-        <v>5.022724576789722</v>
+        <v>4.950182564972885</v>
       </c>
       <c r="Q13">
-        <v>4.276118591239789</v>
+        <v>4.207546321042405</v>
       </c>
       <c r="R13">
-        <v>4.141646958020736</v>
+        <v>4.135728202189654</v>
       </c>
       <c r="S13">
-        <v>3.395805317405298</v>
+        <v>2.854989077883936</v>
       </c>
       <c r="T13">
-        <v>6.245440573717131</v>
+        <v>6.230927301958557</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.612092257641704</v>
+        <v>8.475400126660476</v>
       </c>
       <c r="C14">
-        <v>7.343026510839723</v>
+        <v>7.470592005892704</v>
       </c>
       <c r="D14">
-        <v>7.898493790822248</v>
+        <v>7.811368102838367</v>
       </c>
       <c r="E14">
-        <v>8.612601114040974</v>
+        <v>8.605342514843048</v>
       </c>
       <c r="F14">
-        <v>5.904181033766494</v>
+        <v>5.81606067601218</v>
       </c>
       <c r="G14">
-        <v>6.788252614977466</v>
+        <v>6.700231230543803</v>
       </c>
       <c r="H14">
-        <v>8.344563870455636</v>
+        <v>8.325357347316398</v>
       </c>
       <c r="I14">
-        <v>6.740235712288993</v>
+        <v>6.747599732009841</v>
       </c>
       <c r="J14">
-        <v>6.760460912873138</v>
+        <v>6.736705075505357</v>
       </c>
       <c r="K14">
-        <v>8.817010189836365</v>
+        <v>8.802867224405787</v>
       </c>
       <c r="L14">
-        <v>7.663135252492763</v>
+        <v>7.541286746413722</v>
       </c>
       <c r="M14">
-        <v>7.605295755452312</v>
+        <v>7.545065665905569</v>
       </c>
       <c r="N14">
-        <v>6.156962023465923</v>
+        <v>6.130471513485752</v>
       </c>
       <c r="O14">
-        <v>8.817547677993582</v>
+        <v>8.761108932116747</v>
       </c>
       <c r="P14">
-        <v>8.035376402202735</v>
+        <v>7.919323379384216</v>
       </c>
       <c r="Q14">
-        <v>6.865348795965418</v>
+        <v>6.755255368341435</v>
       </c>
       <c r="R14">
-        <v>6.427033727234242</v>
+        <v>6.417848964811176</v>
       </c>
       <c r="S14">
-        <v>6.188787032523662</v>
+        <v>5.20316029091604</v>
       </c>
       <c r="T14">
-        <v>7.583147059283063</v>
+        <v>7.565525200143171</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.959109506618532</v>
+        <v>1.928014292438999</v>
       </c>
       <c r="C15">
-        <v>2.029511287838596</v>
+        <v>2.064768631900552</v>
       </c>
       <c r="D15">
-        <v>1.800636811714642</v>
+        <v>1.780774579093527</v>
       </c>
       <c r="E15">
-        <v>1.627584351416996</v>
+        <v>1.626212642416275</v>
       </c>
       <c r="F15">
-        <v>2.227022811492572</v>
+        <v>2.19378432409637</v>
       </c>
       <c r="G15">
-        <v>2.093722443907262</v>
+        <v>2.066573727059876</v>
       </c>
       <c r="H15">
-        <v>2.136032462177841</v>
+        <v>2.13111599709376</v>
       </c>
       <c r="I15">
-        <v>1.565052959768532</v>
+        <v>1.566762852619741</v>
       </c>
       <c r="J15">
-        <v>1.78469203448009</v>
+        <v>1.778420738148511</v>
       </c>
       <c r="K15">
-        <v>2.047563732534194</v>
+        <v>2.044279328585165</v>
       </c>
       <c r="L15">
-        <v>1.836040527500804</v>
+        <v>1.806846367668669</v>
       </c>
       <c r="M15">
-        <v>2.844461952600721</v>
+        <v>2.821935254938158</v>
       </c>
       <c r="N15">
-        <v>1.401332823053243</v>
+        <v>1.395303547414844</v>
       </c>
       <c r="O15">
-        <v>2.423742123488174</v>
+        <v>2.408228403486417</v>
       </c>
       <c r="P15">
-        <v>2.481874668570264</v>
+        <v>2.446029545314391</v>
       </c>
       <c r="Q15">
-        <v>1.825071275830226</v>
+        <v>1.795804248271144</v>
       </c>
       <c r="R15">
-        <v>1.408225732252783</v>
+        <v>1.406213261284414</v>
       </c>
       <c r="S15">
-        <v>1.419210340057433</v>
+        <v>1.193186782327051</v>
       </c>
       <c r="T15">
-        <v>2.957380514658014</v>
+        <v>2.950508098437552</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.984909164522175</v>
+        <v>1.953404455168654</v>
       </c>
       <c r="C16">
-        <v>1.822787248837221</v>
+        <v>1.854453314243757</v>
       </c>
       <c r="D16">
-        <v>2.280140650617847</v>
+        <v>2.254989168810528</v>
       </c>
       <c r="E16">
-        <v>2.239009086039122</v>
+        <v>2.237122075443731</v>
       </c>
       <c r="F16">
-        <v>2.325765852969524</v>
+        <v>2.291053618055938</v>
       </c>
       <c r="G16">
-        <v>1.765295393882593</v>
+        <v>1.742405299285778</v>
       </c>
       <c r="H16">
-        <v>2.092060297477427</v>
+        <v>2.087245042284229</v>
       </c>
       <c r="I16">
-        <v>1.631921957032294</v>
+        <v>1.633704907360361</v>
       </c>
       <c r="J16">
-        <v>1.598704172793695</v>
+        <v>1.593086426190684</v>
       </c>
       <c r="K16">
-        <v>1.704806949885983</v>
+        <v>1.702072346518298</v>
       </c>
       <c r="L16">
-        <v>1.734902701833387</v>
+        <v>1.70731669487336</v>
       </c>
       <c r="M16">
-        <v>2.136803417066655</v>
+        <v>2.119881016506303</v>
       </c>
       <c r="N16">
-        <v>1.735172746866268</v>
+        <v>1.727707115148386</v>
       </c>
       <c r="O16">
-        <v>1.971539223930495</v>
+        <v>1.958919932795463</v>
       </c>
       <c r="P16">
-        <v>1.733216765245768</v>
+        <v>1.708184329335066</v>
       </c>
       <c r="Q16">
-        <v>1.691418973049113</v>
+        <v>1.664295207334449</v>
       </c>
       <c r="R16">
-        <v>1.869413493953782</v>
+        <v>1.866741947554441</v>
       </c>
       <c r="S16">
-        <v>1.284408077234475</v>
+        <v>1.079853139181792</v>
       </c>
       <c r="T16">
-        <v>1.60093864414018</v>
+        <v>1.597218352939429</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.31587183962164</v>
+        <v>21.96167172364457</v>
       </c>
       <c r="C17">
-        <v>20.9192151102</v>
+        <v>21.28263066204543</v>
       </c>
       <c r="D17">
-        <v>19.65965739503143</v>
+        <v>19.44279817839702</v>
       </c>
       <c r="E17">
-        <v>23.20977723341291</v>
+        <v>23.19021630539828</v>
       </c>
       <c r="F17">
-        <v>21.82302822460035</v>
+        <v>21.49731784352698</v>
       </c>
       <c r="G17">
-        <v>17.56324469830994</v>
+        <v>17.33550698712319</v>
       </c>
       <c r="H17">
-        <v>21.82795168099628</v>
+        <v>21.7777107018928</v>
       </c>
       <c r="I17">
-        <v>19.36573924328031</v>
+        <v>19.38689721041732</v>
       </c>
       <c r="J17">
-        <v>19.51052240975751</v>
+        <v>19.44196365269937</v>
       </c>
       <c r="K17">
-        <v>23.35805864989785</v>
+        <v>23.32059104932825</v>
       </c>
       <c r="L17">
-        <v>22.22525329688003</v>
+        <v>21.87185826700995</v>
       </c>
       <c r="M17">
-        <v>20.0966890085519</v>
+        <v>19.93753341256994</v>
       </c>
       <c r="N17">
-        <v>22.49286229538325</v>
+        <v>22.3960860945804</v>
       </c>
       <c r="O17">
-        <v>22.21027659111414</v>
+        <v>22.06811459753528</v>
       </c>
       <c r="P17">
-        <v>19.65841321639813</v>
+        <v>19.37449144803478</v>
       </c>
       <c r="Q17">
-        <v>18.71887336691407</v>
+        <v>18.4186956204558</v>
       </c>
       <c r="R17">
-        <v>17.93453156732441</v>
+        <v>17.90890163933495</v>
       </c>
       <c r="S17">
-        <v>23.88120536999524</v>
+        <v>20.07788260080108</v>
       </c>
       <c r="T17">
-        <v>28.49558374259808</v>
+        <v>28.42936517148303</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.45912871758852</v>
+        <v>20.13439904461678</v>
       </c>
       <c r="C18">
-        <v>18.59101509680809</v>
+        <v>18.91398438486129</v>
       </c>
       <c r="D18">
-        <v>19.84280122239029</v>
+        <v>19.62392180641393</v>
       </c>
       <c r="E18">
-        <v>18.88029283362719</v>
+        <v>18.86438074428227</v>
       </c>
       <c r="F18">
-        <v>22.40732589152182</v>
+        <v>22.07289482265963</v>
       </c>
       <c r="G18">
-        <v>17.3184449063934</v>
+        <v>17.09388144605083</v>
       </c>
       <c r="H18">
-        <v>18.49452334928407</v>
+        <v>18.4519548584472</v>
       </c>
       <c r="I18">
-        <v>19.26941604484083</v>
+        <v>19.2904687744219</v>
       </c>
       <c r="J18">
-        <v>18.38509798712749</v>
+        <v>18.32049390119287</v>
       </c>
       <c r="K18">
-        <v>21.31783970556327</v>
+        <v>21.28364472750166</v>
       </c>
       <c r="L18">
-        <v>19.31040929559344</v>
+        <v>19.00336205619133</v>
       </c>
       <c r="M18">
-        <v>19.7534339487871</v>
+        <v>19.59699675898575</v>
       </c>
       <c r="N18">
-        <v>18.93667224981309</v>
+        <v>18.85519666115215</v>
       </c>
       <c r="O18">
-        <v>19.33923792864214</v>
+        <v>19.21545267964027</v>
       </c>
       <c r="P18">
-        <v>21.27122220069346</v>
+        <v>20.96400701725063</v>
       </c>
       <c r="Q18">
-        <v>15.45685106174792</v>
+        <v>15.20898343488222</v>
       </c>
       <c r="R18">
-        <v>21.08310398678043</v>
+        <v>21.05297448855813</v>
       </c>
       <c r="S18">
-        <v>18.83445099105035</v>
+        <v>15.8348747473179</v>
       </c>
       <c r="T18">
-        <v>18.35224632963737</v>
+        <v>18.30959903594872</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.801373262296709</v>
+        <v>9.645804724746851</v>
       </c>
       <c r="C19">
-        <v>10.4863323358074</v>
+        <v>10.66850438349546</v>
       </c>
       <c r="D19">
-        <v>12.07084316683417</v>
+        <v>11.93769366475088</v>
       </c>
       <c r="E19">
-        <v>10.24097135843306</v>
+        <v>10.23234038789304</v>
       </c>
       <c r="F19">
-        <v>10.6112046968992</v>
+        <v>10.45283164757241</v>
       </c>
       <c r="G19">
-        <v>9.815559358491889</v>
+        <v>9.688283729146718</v>
       </c>
       <c r="H19">
-        <v>10.2742654059623</v>
+        <v>10.25061732568851</v>
       </c>
       <c r="I19">
-        <v>9.054380653309909</v>
+        <v>9.064272983569143</v>
       </c>
       <c r="J19">
-        <v>10.22379232878661</v>
+        <v>10.18786656115409</v>
       </c>
       <c r="K19">
-        <v>11.42849043858464</v>
+        <v>11.41015851634382</v>
       </c>
       <c r="L19">
-        <v>8.877653586362173</v>
+        <v>8.73649350092148</v>
       </c>
       <c r="M19">
-        <v>11.3550725931673</v>
+        <v>11.26514617069965</v>
       </c>
       <c r="N19">
-        <v>10.58987929752601</v>
+        <v>10.54431603074757</v>
       </c>
       <c r="O19">
-        <v>8.461018809626227</v>
+        <v>8.406862108931834</v>
       </c>
       <c r="P19">
-        <v>14.12293169488069</v>
+        <v>13.91895756445899</v>
       </c>
       <c r="Q19">
-        <v>9.070989340731694</v>
+        <v>8.925526038262829</v>
       </c>
       <c r="R19">
-        <v>13.98607377864367</v>
+        <v>13.96608652319424</v>
       </c>
       <c r="S19">
-        <v>8.175984435037376</v>
+        <v>6.873876468518057</v>
       </c>
       <c r="T19">
-        <v>8.800010311909213</v>
+        <v>8.779560683155644</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5933921317837781</v>
+        <v>0.5839737427820756</v>
       </c>
       <c r="C20">
-        <v>0.7852369390204327</v>
+        <v>0.7988783358902601</v>
       </c>
       <c r="D20">
-        <v>1.489292305204574</v>
+        <v>1.472864411464781</v>
       </c>
       <c r="E20">
-        <v>1.065670874225711</v>
+        <v>1.064772739312636</v>
       </c>
       <c r="F20">
-        <v>0.6740640682641496</v>
+        <v>0.6640036100049841</v>
       </c>
       <c r="G20">
-        <v>1.386691988993045</v>
+        <v>1.368711139490637</v>
       </c>
       <c r="H20">
-        <v>0.5403502546839432</v>
+        <v>0.539106540832507</v>
       </c>
       <c r="I20">
-        <v>0.6177421651985661</v>
+        <v>0.6184170771276293</v>
       </c>
       <c r="J20">
-        <v>1.722168455445089</v>
+        <v>1.716116863064816</v>
       </c>
       <c r="K20">
-        <v>1.334303189594822</v>
+        <v>1.332162894474589</v>
       </c>
       <c r="L20">
-        <v>1.306147475072371</v>
+        <v>1.285378936698379</v>
       </c>
       <c r="M20">
-        <v>1.012683766367714</v>
+        <v>1.004663823962827</v>
       </c>
       <c r="N20">
-        <v>1.258258569990519</v>
+        <v>1.25284487552904</v>
       </c>
       <c r="O20">
-        <v>0.704880469111608</v>
+        <v>0.7003687192325545</v>
       </c>
       <c r="P20">
-        <v>1.524346124821538</v>
+        <v>1.502330357699697</v>
       </c>
       <c r="Q20">
-        <v>0.9151784800605022</v>
+        <v>0.9005025853970323</v>
       </c>
       <c r="R20">
-        <v>0.674928970332478</v>
+        <v>0.6739644410475795</v>
       </c>
       <c r="S20">
-        <v>0.5748029072057586</v>
+        <v>0.4832597480182665</v>
       </c>
       <c r="T20">
-        <v>0.5545673945763524</v>
+        <v>0.5532786804798958</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>35.49450354620807</v>
+        <v>34.93113065345406</v>
       </c>
       <c r="C21">
-        <v>30.3907918020881</v>
+        <v>30.91875072959061</v>
       </c>
       <c r="D21">
-        <v>31.6705625820027</v>
+        <v>31.32121501943327</v>
       </c>
       <c r="E21">
-        <v>31.21331129175704</v>
+        <v>31.18700507911501</v>
       </c>
       <c r="F21">
-        <v>32.12086657499418</v>
+        <v>31.64146016150869</v>
       </c>
       <c r="G21">
-        <v>25.84006250761217</v>
+        <v>25.50500160095793</v>
       </c>
       <c r="H21">
-        <v>33.93890058175283</v>
+        <v>33.86078406308711</v>
       </c>
       <c r="I21">
-        <v>32.79287468194553</v>
+        <v>32.82870241648912</v>
       </c>
       <c r="J21">
-        <v>27.94249976468029</v>
+        <v>27.84431156588529</v>
       </c>
       <c r="K21">
-        <v>33.27352271936396</v>
+        <v>33.22015017340547</v>
       </c>
       <c r="L21">
-        <v>34.63840865229977</v>
+        <v>34.0876369109469</v>
       </c>
       <c r="M21">
-        <v>32.09190788616209</v>
+        <v>31.83775623343726</v>
       </c>
       <c r="N21">
-        <v>27.35023318686276</v>
+        <v>27.23255800510344</v>
       </c>
       <c r="O21">
-        <v>31.79403424539261</v>
+        <v>31.5905292024141</v>
       </c>
       <c r="P21">
-        <v>37.21173801754029</v>
+        <v>36.67429777017583</v>
       </c>
       <c r="Q21">
-        <v>26.20868800694717</v>
+        <v>25.78840283543366</v>
       </c>
       <c r="R21">
-        <v>31.27033882278539</v>
+        <v>31.22565092395594</v>
       </c>
       <c r="S21">
-        <v>19.54178421282924</v>
+        <v>16.42955802090033</v>
       </c>
       <c r="T21">
-        <v>29.08106452234507</v>
+        <v>29.01348540003021</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>84.97991189945273</v>
+        <v>83.63110084394805</v>
       </c>
       <c r="C22">
-        <v>70.95193470926667</v>
+        <v>72.18453528108721</v>
       </c>
       <c r="D22">
-        <v>81.23177968113872</v>
+        <v>80.33573862846386</v>
       </c>
       <c r="E22">
-        <v>84.90787702901605</v>
+        <v>84.83631766617785</v>
       </c>
       <c r="F22">
-        <v>87.09952316461165</v>
+        <v>85.79955605696364</v>
       </c>
       <c r="G22">
-        <v>83.82340204078682</v>
+        <v>82.7364872905475</v>
       </c>
       <c r="H22">
-        <v>79.46277532496109</v>
+        <v>79.27987737406991</v>
       </c>
       <c r="I22">
-        <v>87.02601964133046</v>
+        <v>87.12109959880097</v>
       </c>
       <c r="J22">
-        <v>74.83755835405888</v>
+        <v>74.57458384859646</v>
       </c>
       <c r="K22">
-        <v>84.35652464761343</v>
+        <v>84.22121217929961</v>
       </c>
       <c r="L22">
-        <v>83.2787873914442</v>
+        <v>81.95460407777756</v>
       </c>
       <c r="M22">
-        <v>93.57035321114569</v>
+        <v>92.82932341637574</v>
       </c>
       <c r="N22">
-        <v>72.85499937346239</v>
+        <v>72.5415385983833</v>
       </c>
       <c r="O22">
-        <v>88.99320354224628</v>
+        <v>88.42358203489432</v>
       </c>
       <c r="P22">
-        <v>71.68358469304509</v>
+        <v>70.64827579478182</v>
       </c>
       <c r="Q22">
-        <v>67.04286444647839</v>
+        <v>65.96775829178739</v>
       </c>
       <c r="R22">
-        <v>76.21847083484211</v>
+        <v>76.10954834017696</v>
       </c>
       <c r="S22">
-        <v>55.92930738202857</v>
+        <v>47.02200119979582</v>
       </c>
       <c r="T22">
-        <v>78.54810141085666</v>
+        <v>78.36556986189065</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.5977232802399</v>
+        <v>12.39777074963854</v>
       </c>
       <c r="C23">
-        <v>11.52073855377626</v>
+        <v>11.72088064979334</v>
       </c>
       <c r="D23">
-        <v>12.6044576820025</v>
+        <v>12.4654220536547</v>
       </c>
       <c r="E23">
-        <v>17.52541334456737</v>
+        <v>17.51064313176385</v>
       </c>
       <c r="F23">
-        <v>25.37206531041245</v>
+        <v>24.99338527683409</v>
       </c>
       <c r="G23">
-        <v>11.29956306601076</v>
+        <v>11.15304477316301</v>
       </c>
       <c r="H23">
-        <v>10.19393164352885</v>
+        <v>10.17046846594033</v>
       </c>
       <c r="I23">
-        <v>8.067266884178181</v>
+        <v>8.076080746921901</v>
       </c>
       <c r="J23">
-        <v>12.20555235288334</v>
+        <v>12.16266280431323</v>
       </c>
       <c r="K23">
-        <v>10.80173517888505</v>
+        <v>10.78440860627869</v>
       </c>
       <c r="L23">
-        <v>7.785019298809908</v>
+        <v>7.66123276234653</v>
       </c>
       <c r="M23">
-        <v>10.36191044157294</v>
+        <v>10.27984936021081</v>
       </c>
       <c r="N23">
-        <v>24.59446410148239</v>
+        <v>24.48864569716966</v>
       </c>
       <c r="O23">
-        <v>7.936038228222918</v>
+        <v>7.88524178671919</v>
       </c>
       <c r="P23">
-        <v>9.516310197838061</v>
+        <v>9.378868401802835</v>
       </c>
       <c r="Q23">
-        <v>11.73421912552822</v>
+        <v>11.54604800088274</v>
       </c>
       <c r="R23">
-        <v>7.872253130211706</v>
+        <v>7.86100302980709</v>
       </c>
       <c r="S23">
-        <v>21.25937708969704</v>
+        <v>17.87360691221183</v>
       </c>
       <c r="T23">
-        <v>29.42766914395529</v>
+        <v>29.35928457533015</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2496741087449276</v>
+        <v>0.2457112522224722</v>
       </c>
       <c r="C24">
-        <v>0.2994747485153002</v>
+        <v>0.3046773232974866</v>
       </c>
       <c r="D24">
-        <v>0.3171718101078496</v>
+        <v>0.3136731921565576</v>
       </c>
       <c r="E24">
-        <v>0.1249569830397404</v>
+        <v>0.1248516707601099</v>
       </c>
       <c r="F24">
-        <v>0.2056466648941474</v>
+        <v>0.2025773725438935</v>
       </c>
       <c r="G24">
-        <v>0.3633984488698879</v>
+        <v>0.3586863622130068</v>
       </c>
       <c r="H24">
-        <v>0.3763002556093188</v>
+        <v>0.375434132504641</v>
       </c>
       <c r="I24">
-        <v>0.1401064704574067</v>
+        <v>0.1402595432660602</v>
       </c>
       <c r="J24">
-        <v>0.2121053060934209</v>
+        <v>0.2113599812965858</v>
       </c>
       <c r="K24">
-        <v>0.1509762018807597</v>
+        <v>0.1507340278151676</v>
       </c>
       <c r="L24">
-        <v>0.2221574461241557</v>
+        <v>0.2186250077640527</v>
       </c>
       <c r="M24">
-        <v>0.153732716340159</v>
+        <v>0.1525152311076099</v>
       </c>
       <c r="N24">
-        <v>0.1677148188679718</v>
+        <v>0.1669932209328032</v>
       </c>
       <c r="O24">
-        <v>0.3876024853351534</v>
+        <v>0.3851215463065323</v>
       </c>
       <c r="P24">
-        <v>0.2719413828268408</v>
+        <v>0.2680137983644811</v>
       </c>
       <c r="Q24">
-        <v>0.3307328170515676</v>
+        <v>0.3254291521484325</v>
       </c>
       <c r="R24">
-        <v>0.2679985923610084</v>
+        <v>0.2676156002210852</v>
       </c>
       <c r="S24">
-        <v>0.2696045256459157</v>
+        <v>0.2266672862905176</v>
       </c>
       <c r="T24">
-        <v>0.3859489300092182</v>
+        <v>0.3850520546583059</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.551669391373161</v>
+        <v>2.511168997713666</v>
       </c>
       <c r="C25">
-        <v>2.412304470324032</v>
+        <v>2.45421182467188</v>
       </c>
       <c r="D25">
-        <v>3.232488552883936</v>
+        <v>3.19683203449846</v>
       </c>
       <c r="E25">
-        <v>2.002455300536217</v>
+        <v>2.000767654696605</v>
       </c>
       <c r="F25">
-        <v>2.68156722556416</v>
+        <v>2.641544627695373</v>
       </c>
       <c r="G25">
-        <v>1.559268239816193</v>
+        <v>1.53904964204786</v>
       </c>
       <c r="H25">
-        <v>2.749951530879786</v>
+        <v>2.743622020011443</v>
       </c>
       <c r="I25">
-        <v>1.964674824368635</v>
+        <v>1.966821322617254</v>
       </c>
       <c r="J25">
-        <v>2.73204297251675</v>
+        <v>2.722442744163486</v>
       </c>
       <c r="K25">
-        <v>3.508360496677761</v>
+        <v>3.502732895013003</v>
       </c>
       <c r="L25">
-        <v>3.416211000321647</v>
+        <v>3.361891169974848</v>
       </c>
       <c r="M25">
-        <v>2.520728507609275</v>
+        <v>2.500765614827953</v>
       </c>
       <c r="N25">
-        <v>1.980783547957279</v>
+        <v>1.972261168552349</v>
       </c>
       <c r="O25">
-        <v>2.515327520866945</v>
+        <v>2.499227587423826</v>
       </c>
       <c r="P25">
-        <v>3.26329659392209</v>
+        <v>3.216165580373773</v>
       </c>
       <c r="Q25">
-        <v>2.192803882917243</v>
+        <v>2.157639858080018</v>
       </c>
       <c r="R25">
-        <v>3.02114977584879</v>
+        <v>3.016832303105791</v>
       </c>
       <c r="S25">
-        <v>0.7876087266060459</v>
+        <v>0.6621740947812875</v>
       </c>
       <c r="T25">
-        <v>3.320846982724948</v>
+        <v>3.313129936319646</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.86612727702137</v>
+        <v>27.42383286055012</v>
       </c>
       <c r="C26">
-        <v>26.69726990373273</v>
+        <v>27.16106374225495</v>
       </c>
       <c r="D26">
-        <v>29.55108901629513</v>
+        <v>29.22512066974667</v>
       </c>
       <c r="E26">
-        <v>28.84541575780271</v>
+        <v>28.82110517974261</v>
       </c>
       <c r="F26">
-        <v>28.133606238991</v>
+        <v>27.7137099938521</v>
       </c>
       <c r="G26">
-        <v>24.54916174154299</v>
+        <v>24.23083958623473</v>
       </c>
       <c r="H26">
-        <v>29.30829339137838</v>
+        <v>29.24083505276034</v>
       </c>
       <c r="I26">
-        <v>25.76446543382937</v>
+        <v>25.79261430571614</v>
       </c>
       <c r="J26">
-        <v>26.81549246663166</v>
+        <v>26.72126450108552</v>
       </c>
       <c r="K26">
-        <v>28.75484580145171</v>
+        <v>28.70872145982394</v>
       </c>
       <c r="L26">
-        <v>30.92224187841749</v>
+        <v>30.43055944644237</v>
       </c>
       <c r="M26">
-        <v>26.23705025538714</v>
+        <v>26.02926610903209</v>
       </c>
       <c r="N26">
-        <v>27.37407889570655</v>
+        <v>27.2563011170844</v>
       </c>
       <c r="O26">
-        <v>24.70679639644794</v>
+        <v>24.54865485254339</v>
       </c>
       <c r="P26">
-        <v>25.25696548031818</v>
+        <v>24.89218515833968</v>
       </c>
       <c r="Q26">
-        <v>24.65469682545831</v>
+        <v>24.25933161369514</v>
       </c>
       <c r="R26">
-        <v>29.41654487869313</v>
+        <v>29.37450620463525</v>
       </c>
       <c r="S26">
-        <v>29.35660065207381</v>
+        <v>24.68126597125176</v>
       </c>
       <c r="T26">
-        <v>30.42813870038695</v>
+        <v>30.35742922187158</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.56096425982556</v>
+        <v>7.440955754803869</v>
       </c>
       <c r="C27">
-        <v>8.049661153661914</v>
+        <v>8.189502540392548</v>
       </c>
       <c r="D27">
-        <v>7.81774401239584</v>
+        <v>7.731509048667276</v>
       </c>
       <c r="E27">
-        <v>6.574780629625586</v>
+        <v>6.569239481629433</v>
       </c>
       <c r="F27">
-        <v>8.063471015155041</v>
+        <v>7.943123087723062</v>
       </c>
       <c r="G27">
-        <v>6.236312711463786</v>
+        <v>6.155448178312332</v>
       </c>
       <c r="H27">
-        <v>7.427913360162373</v>
+        <v>7.41081667397925</v>
       </c>
       <c r="I27">
-        <v>6.191750722827894</v>
+        <v>6.198515497292139</v>
       </c>
       <c r="J27">
-        <v>7.981649298328916</v>
+        <v>7.953602281253984</v>
       </c>
       <c r="K27">
-        <v>8.07355440652084</v>
+        <v>8.060603984732179</v>
       </c>
       <c r="L27">
-        <v>7.393434384046319</v>
+        <v>7.275874285626236</v>
       </c>
       <c r="M27">
-        <v>6.615387206320176</v>
+        <v>6.56299669099572</v>
       </c>
       <c r="N27">
-        <v>7.502654859216996</v>
+        <v>7.470374466278337</v>
       </c>
       <c r="O27">
-        <v>6.370909205160717</v>
+        <v>6.330130732645978</v>
       </c>
       <c r="P27">
-        <v>8.062406720375282</v>
+        <v>7.945963305125264</v>
       </c>
       <c r="Q27">
-        <v>7.624977138325868</v>
+        <v>7.502702233778245</v>
       </c>
       <c r="R27">
-        <v>7.667554818868482</v>
+        <v>7.656597249270127</v>
       </c>
       <c r="S27">
-        <v>6.625001096490085</v>
+        <v>5.569902866487213</v>
       </c>
       <c r="T27">
-        <v>8.283850456484265</v>
+        <v>8.264600289668445</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6874360460777008</v>
+        <v>0.6765249811192068</v>
       </c>
       <c r="C28">
-        <v>0.5085568564026227</v>
+        <v>0.5173916749959944</v>
       </c>
       <c r="D28">
-        <v>0.3105120345675273</v>
+        <v>0.3070868784104882</v>
       </c>
       <c r="E28">
-        <v>0.6884422461812112</v>
+        <v>0.6878620351311717</v>
       </c>
       <c r="F28">
-        <v>0.1999342575359766</v>
+        <v>0.1969502233065631</v>
       </c>
       <c r="G28">
-        <v>0.2904146599755171</v>
+        <v>0.2866489338187628</v>
       </c>
       <c r="H28">
-        <v>0.7306144288684302</v>
+        <v>0.7289327876045164</v>
       </c>
       <c r="I28">
-        <v>0.34469375970487</v>
+        <v>0.3450703536034323</v>
       </c>
       <c r="J28">
-        <v>0.6363159182802627</v>
+        <v>0.6340799438897574</v>
       </c>
       <c r="K28">
-        <v>0.7516166590928631</v>
+        <v>0.7504110249609154</v>
       </c>
       <c r="L28">
-        <v>0.5661989385654552</v>
+        <v>0.5571960314609125</v>
       </c>
       <c r="M28">
-        <v>0.4595713477893643</v>
+        <v>0.4559317755333312</v>
       </c>
       <c r="N28">
-        <v>0.58978386540301</v>
+        <v>0.5872463029959241</v>
       </c>
       <c r="O28">
-        <v>0.1619098989374691</v>
+        <v>0.1608735573179186</v>
       </c>
       <c r="P28">
-        <v>0.493917632062003</v>
+        <v>0.4867840976318738</v>
       </c>
       <c r="Q28">
-        <v>0.7286693343716045</v>
+        <v>0.7169843192311356</v>
       </c>
       <c r="R28">
-        <v>0.6683523177592018</v>
+        <v>0.667397187054424</v>
       </c>
       <c r="S28">
-        <v>0.1999314459846117</v>
+        <v>0.1680903471367884</v>
       </c>
       <c r="T28">
-        <v>0.2304452349084167</v>
+        <v>0.2299097219561729</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.62280108006752</v>
+        <v>10.45419474455879</v>
       </c>
       <c r="C29">
-        <v>10.67890796149309</v>
+        <v>10.86442549690198</v>
       </c>
       <c r="D29">
-        <v>10.26521152346429</v>
+        <v>10.1519793503478</v>
       </c>
       <c r="E29">
-        <v>12.36445417713356</v>
+        <v>12.35403356018119</v>
       </c>
       <c r="F29">
-        <v>15.15093643025691</v>
+        <v>14.9248075343251</v>
       </c>
       <c r="G29">
-        <v>9.966088423086529</v>
+        <v>9.836860925209846</v>
       </c>
       <c r="H29">
-        <v>9.342393761734279</v>
+        <v>9.320890552609603</v>
       </c>
       <c r="I29">
-        <v>9.276481251364549</v>
+        <v>9.286616236814774</v>
       </c>
       <c r="J29">
-        <v>11.72514966333593</v>
+        <v>11.6839482198094</v>
       </c>
       <c r="K29">
-        <v>11.51989224729083</v>
+        <v>11.50141371156165</v>
       </c>
       <c r="L29">
-        <v>9.028928111933098</v>
+        <v>8.885362669632412</v>
       </c>
       <c r="M29">
-        <v>11.30301495377169</v>
+        <v>11.2135008014357</v>
       </c>
       <c r="N29">
-        <v>9.785484052528917</v>
+        <v>9.743381719922938</v>
       </c>
       <c r="O29">
-        <v>11.44081513148551</v>
+        <v>11.36758555775252</v>
       </c>
       <c r="P29">
-        <v>10.08067047725882</v>
+        <v>9.935077760456835</v>
       </c>
       <c r="Q29">
-        <v>9.924249804814506</v>
+        <v>9.765103531248513</v>
       </c>
       <c r="R29">
-        <v>8.415649049078658</v>
+        <v>8.403622390991559</v>
       </c>
       <c r="S29">
-        <v>11.00001610957002</v>
+        <v>9.248152621825193</v>
       </c>
       <c r="T29">
-        <v>13.03420731103947</v>
+        <v>13.0039181760089</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>21.44534144713099</v>
+        <v>21.10495849089555</v>
       </c>
       <c r="C30">
-        <v>24.75579318763617</v>
+        <v>25.18585904791166</v>
       </c>
       <c r="D30">
-        <v>25.94232314538298</v>
+        <v>25.65616190859528</v>
       </c>
       <c r="E30">
-        <v>23.71117695152206</v>
+        <v>23.69119344970614</v>
       </c>
       <c r="F30">
-        <v>26.29910741882415</v>
+        <v>25.90659121020656</v>
       </c>
       <c r="G30">
-        <v>21.61840646875341</v>
+        <v>21.33808660227837</v>
       </c>
       <c r="H30">
-        <v>22.4765411103274</v>
+        <v>22.42480728533339</v>
       </c>
       <c r="I30">
-        <v>19.38166043310501</v>
+        <v>19.40283579487937</v>
       </c>
       <c r="J30">
-        <v>29.11145326132202</v>
+        <v>29.0091574329564</v>
       </c>
       <c r="K30">
-        <v>26.97985531988062</v>
+        <v>26.93657815983481</v>
       </c>
       <c r="L30">
-        <v>20.59408169829527</v>
+        <v>20.26662328782409</v>
       </c>
       <c r="M30">
-        <v>20.95564005857946</v>
+        <v>20.78968200542516</v>
       </c>
       <c r="N30">
-        <v>29.44547613727022</v>
+        <v>29.31878611116443</v>
       </c>
       <c r="O30">
-        <v>21.39909164290217</v>
+        <v>21.26212182551824</v>
       </c>
       <c r="P30">
-        <v>29.9667936467469</v>
+        <v>29.53399040109802</v>
       </c>
       <c r="Q30">
-        <v>25.28973403810754</v>
+        <v>24.8841853053774</v>
       </c>
       <c r="R30">
-        <v>27.04155121816874</v>
+        <v>27.00290660635698</v>
       </c>
       <c r="S30">
-        <v>22.43018775444025</v>
+        <v>18.85795417233863</v>
       </c>
       <c r="T30">
-        <v>25.15038075943565</v>
+        <v>25.09193583365581</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.21749677687159</v>
+        <v>10.05532347845097</v>
       </c>
       <c r="C31">
-        <v>9.613060825044938</v>
+        <v>9.780062110047931</v>
       </c>
       <c r="D31">
-        <v>11.67625146607007</v>
+        <v>11.54745457529626</v>
       </c>
       <c r="E31">
-        <v>9.206736203211062</v>
+        <v>9.198976873928855</v>
       </c>
       <c r="F31">
-        <v>11.22814469158164</v>
+        <v>11.06056376520409</v>
       </c>
       <c r="G31">
-        <v>9.39438207674729</v>
+        <v>9.272567736121601</v>
       </c>
       <c r="H31">
-        <v>10.13220148923788</v>
+        <v>10.10888039476541</v>
       </c>
       <c r="I31">
-        <v>7.717796767525899</v>
+        <v>7.726228817979854</v>
       </c>
       <c r="J31">
-        <v>9.782170086995082</v>
+        <v>9.747796152335075</v>
       </c>
       <c r="K31">
-        <v>10.25169215149245</v>
+        <v>10.23524787791424</v>
       </c>
       <c r="L31">
-        <v>9.222559504663879</v>
+        <v>9.075915205582403</v>
       </c>
       <c r="M31">
-        <v>10.17482829999497</v>
+        <v>10.09424881441848</v>
       </c>
       <c r="N31">
-        <v>11.44435053109506</v>
+        <v>11.39511087673223</v>
       </c>
       <c r="O31">
-        <v>10.5249611576978</v>
+        <v>10.45759371837843</v>
       </c>
       <c r="P31">
-        <v>11.54686046298185</v>
+        <v>11.38009191428943</v>
       </c>
       <c r="Q31">
-        <v>10.2587581106452</v>
+        <v>10.09424762805617</v>
       </c>
       <c r="R31">
-        <v>9.473668031804479</v>
+        <v>9.460129377140445</v>
       </c>
       <c r="S31">
-        <v>9.932200432152204</v>
+        <v>8.350397358708255</v>
       </c>
       <c r="T31">
-        <v>12.44216914655931</v>
+        <v>12.41325580090199</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>9.111440475131561</v>
+        <v>8.966822631105421</v>
       </c>
       <c r="C32">
-        <v>12.58972978207234</v>
+        <v>12.808442748703</v>
       </c>
       <c r="D32">
-        <v>14.57908112970806</v>
+        <v>14.41826407936429</v>
       </c>
       <c r="E32">
-        <v>9.638191446536958</v>
+        <v>9.630068491836404</v>
       </c>
       <c r="F32">
-        <v>11.08778268220945</v>
+        <v>10.92229666965826</v>
       </c>
       <c r="G32">
-        <v>11.63407209844329</v>
+        <v>11.48321631996997</v>
       </c>
       <c r="H32">
-        <v>12.10672080799689</v>
+        <v>12.07885500015493</v>
       </c>
       <c r="I32">
-        <v>10.05900773124881</v>
+        <v>10.06999766312464</v>
       </c>
       <c r="J32">
-        <v>16.63048058560095</v>
+        <v>16.57204211561626</v>
       </c>
       <c r="K32">
-        <v>12.47961123870582</v>
+        <v>12.45959326134888</v>
       </c>
       <c r="L32">
-        <v>9.331477163074945</v>
+        <v>9.183101007054274</v>
       </c>
       <c r="M32">
-        <v>9.631476688803296</v>
+        <v>9.555200272725973</v>
       </c>
       <c r="N32">
-        <v>16.53938365405099</v>
+        <v>16.4682224699989</v>
       </c>
       <c r="O32">
-        <v>14.05508759059201</v>
+        <v>13.96512476353729</v>
       </c>
       <c r="P32">
-        <v>19.31357188456048</v>
+        <v>19.03463057721717</v>
       </c>
       <c r="Q32">
-        <v>15.01134338581088</v>
+        <v>14.77061996509324</v>
       </c>
       <c r="R32">
-        <v>16.58878403451775</v>
+        <v>16.56507729098551</v>
       </c>
       <c r="S32">
-        <v>8.882560340732994</v>
+        <v>7.467923036240116</v>
       </c>
       <c r="T32">
-        <v>16.04029982657244</v>
+        <v>16.00302507746158</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.458457724108388</v>
+        <v>2.419436796883943</v>
       </c>
       <c r="C33">
-        <v>2.933437694118373</v>
+        <v>2.984398347890342</v>
       </c>
       <c r="D33">
-        <v>2.559018751368844</v>
+        <v>2.530791056927186</v>
       </c>
       <c r="E33">
-        <v>4.41593262704592</v>
+        <v>4.412210930824263</v>
       </c>
       <c r="F33">
-        <v>4.021534780152215</v>
+        <v>3.961513063080583</v>
       </c>
       <c r="G33">
-        <v>2.304311084779561</v>
+        <v>2.274431723572434</v>
       </c>
       <c r="H33">
-        <v>2.867492509598202</v>
+        <v>2.860892456906152</v>
       </c>
       <c r="I33">
-        <v>2.029155643158691</v>
+        <v>2.031372589688565</v>
       </c>
       <c r="J33">
-        <v>4.948068558567415</v>
+        <v>4.930681354724829</v>
       </c>
       <c r="K33">
-        <v>2.790203428271985</v>
+        <v>2.785727789730043</v>
       </c>
       <c r="L33">
-        <v>1.959653425538758</v>
+        <v>1.928493745529601</v>
       </c>
       <c r="M33">
-        <v>2.874557775376307</v>
+        <v>2.85179273404388</v>
       </c>
       <c r="N33">
-        <v>5.735687833892345</v>
+        <v>5.711009868488663</v>
       </c>
       <c r="O33">
-        <v>1.658349873965593</v>
+        <v>1.647735223438075</v>
       </c>
       <c r="P33">
-        <v>4.333041913114421</v>
+        <v>4.270460823337666</v>
       </c>
       <c r="Q33">
-        <v>3.944630676432396</v>
+        <v>3.881374179962126</v>
       </c>
       <c r="R33">
-        <v>2.023142747854115</v>
+        <v>2.020251509644449</v>
       </c>
       <c r="S33">
-        <v>1.500243160967862</v>
+        <v>1.26131430938628</v>
       </c>
       <c r="T33">
-        <v>2.34473342673076</v>
+        <v>2.339284691285776</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.246706049666339</v>
+        <v>1.226918186097545</v>
       </c>
       <c r="C34">
-        <v>1.48715544407073</v>
+        <v>1.512990802306679</v>
       </c>
       <c r="D34">
-        <v>1.297823758420308</v>
+        <v>1.283507891265284</v>
       </c>
       <c r="E34">
-        <v>2.239009086039122</v>
+        <v>2.237122075443731</v>
       </c>
       <c r="F34">
-        <v>2.039329426866961</v>
+        <v>2.008892277726944</v>
       </c>
       <c r="G34">
-        <v>1.168500870110916</v>
+        <v>1.153349244187011</v>
       </c>
       <c r="H34">
-        <v>1.453618290769481</v>
+        <v>1.450272525338153</v>
       </c>
       <c r="I34">
-        <v>1.028508862675963</v>
+        <v>1.029632556248579</v>
       </c>
       <c r="J34">
-        <v>2.508857538493075</v>
+        <v>2.500041569814093</v>
       </c>
       <c r="K34">
-        <v>1.415095859790472</v>
+        <v>1.412825968818922</v>
       </c>
       <c r="L34">
-        <v>0.9932253136056611</v>
+        <v>0.9774324277077685</v>
       </c>
       <c r="M34">
-        <v>1.457613903077064</v>
+        <v>1.446070339390672</v>
       </c>
       <c r="N34">
-        <v>2.908381621980611</v>
+        <v>2.895868224611976</v>
       </c>
       <c r="O34">
-        <v>0.8406231116551426</v>
+        <v>0.8352425097112135</v>
       </c>
       <c r="P34">
-        <v>2.196827676932491</v>
+        <v>2.165099419317886</v>
       </c>
       <c r="Q34">
-        <v>2.000253955181742</v>
+        <v>1.968177680459356</v>
       </c>
       <c r="R34">
-        <v>1.025957801431099</v>
+        <v>1.024491622932252</v>
       </c>
       <c r="S34">
-        <v>0.7603453476081443</v>
+        <v>0.639252683808089</v>
       </c>
       <c r="T34">
-        <v>1.188760175198296</v>
+        <v>1.185997712042209</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.366439232910774</v>
+        <v>3.313006717466334</v>
       </c>
       <c r="C35">
-        <v>4.315266061283459</v>
+        <v>4.390232296333862</v>
       </c>
       <c r="D35">
-        <v>4.852478953067337</v>
+        <v>4.798952853229854</v>
       </c>
       <c r="E35">
-        <v>4.380567443166748</v>
+        <v>4.376875552307251</v>
       </c>
       <c r="F35">
-        <v>4.938784190235634</v>
+        <v>4.865072454903346</v>
       </c>
       <c r="G35">
-        <v>3.378541227568581</v>
+        <v>3.334732622750214</v>
       </c>
       <c r="H35">
-        <v>5.783185276656474</v>
+        <v>5.769874229661212</v>
       </c>
       <c r="I35">
-        <v>3.388825254188525</v>
+        <v>3.392527702747832</v>
       </c>
       <c r="J35">
-        <v>7.40073401969992</v>
+        <v>7.37472830262826</v>
       </c>
       <c r="K35">
-        <v>3.359832557530203</v>
+        <v>3.354443202784027</v>
       </c>
       <c r="L35">
-        <v>2.909657446124156</v>
+        <v>2.863392125034246</v>
       </c>
       <c r="M35">
-        <v>4.457435373249056</v>
+        <v>4.422134743225938</v>
       </c>
       <c r="N35">
-        <v>5.850147236342525</v>
+        <v>5.824976805997306</v>
       </c>
       <c r="O35">
-        <v>2.913560454112134</v>
+        <v>2.894911539008807</v>
       </c>
       <c r="P35">
-        <v>6.353762971650012</v>
+        <v>6.26199709010024</v>
       </c>
       <c r="Q35">
-        <v>8.039525806274066</v>
+        <v>7.910603157361555</v>
       </c>
       <c r="R35">
-        <v>6.810945821199246</v>
+        <v>6.801212416661627</v>
       </c>
       <c r="S35">
-        <v>2.199245905830728</v>
+        <v>1.848993818504672</v>
       </c>
       <c r="T35">
-        <v>3.437006369426751</v>
+        <v>3.429019389663408</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.267040907403943</v>
+        <v>2.231058170180048</v>
       </c>
       <c r="C36">
-        <v>1.994140254549387</v>
+        <v>2.028783121274865</v>
       </c>
       <c r="D36">
-        <v>3.67702857020045</v>
+        <v>3.636468477048595</v>
       </c>
       <c r="E36">
-        <v>2.419764470310445</v>
+        <v>2.417725121197349</v>
       </c>
       <c r="F36">
-        <v>3.007174444979893</v>
+        <v>2.962292134223204</v>
       </c>
       <c r="G36">
-        <v>1.60640360347714</v>
+        <v>1.585573814552476</v>
       </c>
       <c r="H36">
-        <v>2.309384265323707</v>
+        <v>2.304068799708257</v>
       </c>
       <c r="I36">
-        <v>1.682073704980116</v>
+        <v>1.683911448415825</v>
       </c>
       <c r="J36">
-        <v>2.594332811097887</v>
+        <v>2.585216487650031</v>
       </c>
       <c r="K36">
-        <v>2.73797382329702</v>
+        <v>2.733581963891282</v>
       </c>
       <c r="L36">
-        <v>1.926805242843358</v>
+        <v>1.896167868895227</v>
       </c>
       <c r="M36">
-        <v>2.16039203491779</v>
+        <v>2.143282824454031</v>
       </c>
       <c r="N36">
-        <v>2.696949670232362</v>
+        <v>2.685345965047399</v>
       </c>
       <c r="O36">
-        <v>2.3787671515611</v>
+        <v>2.36354130423144</v>
       </c>
       <c r="P36">
-        <v>3.021661931470529</v>
+        <v>2.978020789658346</v>
       </c>
       <c r="Q36">
-        <v>3.048329640267531</v>
+        <v>2.999446317861237</v>
       </c>
       <c r="R36">
-        <v>2.817273546077226</v>
+        <v>2.813247429317972</v>
       </c>
       <c r="S36">
-        <v>1.045853511002836</v>
+        <v>0.8792907931663058</v>
       </c>
       <c r="T36">
-        <v>1.634662337053606</v>
+        <v>1.630863678103747</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>100.5945306603605</v>
+        <v>98.99788255794147</v>
       </c>
       <c r="C37">
-        <v>87.73981313128709</v>
+        <v>89.26405830205235</v>
       </c>
       <c r="D37">
-        <v>100.9172437063889</v>
+        <v>99.8040587726269</v>
       </c>
       <c r="E37">
-        <v>81.77059227244597</v>
+        <v>81.70167697640201</v>
       </c>
       <c r="F37">
-        <v>91.78940960566985</v>
+        <v>90.41944558081188</v>
       </c>
       <c r="G37">
-        <v>78.60202014363539</v>
+        <v>77.58280960084262</v>
       </c>
       <c r="H37">
-        <v>91.68872834878026</v>
+        <v>91.4776901555353</v>
       </c>
       <c r="I37">
-        <v>88.13493051262118</v>
+        <v>88.23122200658293</v>
       </c>
       <c r="J37">
-        <v>82.39895422874748</v>
+        <v>82.10940945049042</v>
       </c>
       <c r="K37">
-        <v>95.56956796567633</v>
+        <v>95.41626916405853</v>
       </c>
       <c r="L37">
-        <v>98.03885895786426</v>
+        <v>96.47998153914409</v>
       </c>
       <c r="M37">
-        <v>80.25091813140968</v>
+        <v>79.61537151485662</v>
       </c>
       <c r="N37">
-        <v>94.34793161132947</v>
+        <v>93.94199686389513</v>
       </c>
       <c r="O37">
-        <v>92.99352286346901</v>
+        <v>92.39829639044613</v>
       </c>
       <c r="P37">
-        <v>94.02209491127884</v>
+        <v>92.66415624356534</v>
       </c>
       <c r="Q37">
-        <v>98.56593045892542</v>
+        <v>96.98531722955133</v>
       </c>
       <c r="R37">
-        <v>97.65589197900781</v>
+        <v>97.51633363761634</v>
       </c>
       <c r="S37">
-        <v>77.9747785661651</v>
+        <v>65.5565087950682</v>
       </c>
       <c r="T37">
-        <v>100.639930576894</v>
+        <v>100.406061621616</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>8.080286406015007</v>
+        <v>7.952035159426609</v>
       </c>
       <c r="C38">
-        <v>12.31697981426444</v>
+        <v>12.53095447787825</v>
       </c>
       <c r="D38">
-        <v>7.475598044011783</v>
+        <v>7.393137179962959</v>
       </c>
       <c r="E38">
-        <v>6.887566033712482</v>
+        <v>6.881761273846562</v>
       </c>
       <c r="F38">
-        <v>6.711262587656619</v>
+        <v>6.611096475400713</v>
       </c>
       <c r="G38">
-        <v>5.330097332692017</v>
+        <v>5.260983442417136</v>
       </c>
       <c r="H38">
-        <v>12.27246204417538</v>
+        <v>12.24421475289855</v>
       </c>
       <c r="I38">
-        <v>9.440469506559014</v>
+        <v>9.450783656773911</v>
       </c>
       <c r="J38">
-        <v>7.222660535106562</v>
+        <v>7.197280557136723</v>
       </c>
       <c r="K38">
-        <v>7.053444934353545</v>
+        <v>7.042130823818884</v>
       </c>
       <c r="L38">
-        <v>12.14086120939209</v>
+        <v>11.94781414025727</v>
       </c>
       <c r="M38">
-        <v>8.417882970393153</v>
+        <v>8.35121760176008</v>
       </c>
       <c r="N38">
-        <v>9.930942876476021</v>
+        <v>9.88821470300684</v>
       </c>
       <c r="O38">
-        <v>6.079798477778197</v>
+        <v>6.040883326559214</v>
       </c>
       <c r="P38">
-        <v>13.22437839078116</v>
+        <v>13.03338185118839</v>
       </c>
       <c r="Q38">
-        <v>8.95092879755544</v>
+        <v>8.807390798099357</v>
       </c>
       <c r="R38">
-        <v>13.63915535540334</v>
+        <v>13.61966387505529</v>
       </c>
       <c r="S38">
-        <v>6.025206758536251</v>
+        <v>5.06563182507685</v>
       </c>
       <c r="T38">
-        <v>7.299305977261719</v>
+        <v>7.282343713343494</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>27.16537527847727</v>
+        <v>26.73420327931239</v>
       </c>
       <c r="C39">
-        <v>25.34452438616099</v>
+        <v>25.78481788032587</v>
       </c>
       <c r="D39">
-        <v>28.61122819316715</v>
+        <v>28.29562714233262</v>
       </c>
       <c r="E39">
-        <v>28.06895349841112</v>
+        <v>28.04529731363576</v>
       </c>
       <c r="F39">
-        <v>29.9566802444415</v>
+        <v>29.50957447902296</v>
       </c>
       <c r="G39">
-        <v>30.06856077667979</v>
+        <v>29.67867010854944</v>
       </c>
       <c r="H39">
-        <v>26.79934314779894</v>
+        <v>26.73765961199344</v>
       </c>
       <c r="I39">
-        <v>27.7562062809</v>
+        <v>27.78653122191887</v>
       </c>
       <c r="J39">
-        <v>22.69843350283325</v>
+        <v>22.61867262532119</v>
       </c>
       <c r="K39">
-        <v>32.22893061986465</v>
+        <v>32.17723365663026</v>
       </c>
       <c r="L39">
-        <v>28.29611611450627</v>
+        <v>27.84619067762062</v>
       </c>
       <c r="M39">
-        <v>33.22985534732549</v>
+        <v>32.96669172719147</v>
       </c>
       <c r="N39">
-        <v>20.60507701191675</v>
+        <v>20.51642306275383</v>
       </c>
       <c r="O39">
-        <v>30.9174311561958</v>
+        <v>30.7195370132989</v>
       </c>
       <c r="P39">
-        <v>26.11292555578218</v>
+        <v>25.7357828068062</v>
       </c>
       <c r="Q39">
-        <v>24.29753558695284</v>
+        <v>23.9078978489321</v>
       </c>
       <c r="R39">
-        <v>28.99235078771682</v>
+        <v>28.95091832207672</v>
       </c>
       <c r="S39">
-        <v>32.06930686236502</v>
+        <v>26.96194636308499</v>
       </c>
       <c r="T39">
-        <v>31.6665476457078</v>
+        <v>31.59296032929459</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.523623532466949</v>
+        <v>5.435951936668493</v>
       </c>
       <c r="C40">
-        <v>6.192288894497468</v>
+        <v>6.299863393537008</v>
       </c>
       <c r="D40">
-        <v>6.146140351774943</v>
+        <v>6.078344298403844</v>
       </c>
       <c r="E40">
-        <v>4.751508927410506</v>
+        <v>4.747504411419023</v>
       </c>
       <c r="F40">
-        <v>4.977954983548806</v>
+        <v>4.903658621102182</v>
       </c>
       <c r="G40">
-        <v>4.166157949386999</v>
+        <v>4.112136537504765</v>
       </c>
       <c r="H40">
-        <v>6.306623160301797</v>
+        <v>6.292107326336208</v>
       </c>
       <c r="I40">
-        <v>5.082043792045935</v>
+        <v>5.087596160287094</v>
       </c>
       <c r="J40">
-        <v>5.001886322800075</v>
+        <v>4.984310006695605</v>
       </c>
       <c r="K40">
-        <v>6.222667780220499</v>
+        <v>6.212686281571096</v>
       </c>
       <c r="L40">
-        <v>5.693108716629141</v>
+        <v>5.602584829315372</v>
       </c>
       <c r="M40">
-        <v>6.185098280690843</v>
+        <v>6.136115435673364</v>
       </c>
       <c r="N40">
-        <v>4.479018977824746</v>
+        <v>4.459747867091687</v>
       </c>
       <c r="O40">
-        <v>6.383175106595373</v>
+        <v>6.34231812335188</v>
       </c>
       <c r="P40">
-        <v>6.797715470120336</v>
+        <v>6.699537688635026</v>
       </c>
       <c r="Q40">
-        <v>5.15807277004397</v>
+        <v>5.075357393438225</v>
       </c>
       <c r="R40">
-        <v>6.219869171176041</v>
+        <v>6.21098046402678</v>
       </c>
       <c r="S40">
-        <v>4.333362628499803</v>
+        <v>3.643230933017815</v>
       </c>
       <c r="T40">
-        <v>7.942866450359614</v>
+        <v>7.924408668562562</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.818820687730233</v>
+        <v>2.774080037591712</v>
       </c>
       <c r="C41">
-        <v>3.974132095783091</v>
+        <v>4.043172038299455</v>
       </c>
       <c r="D41">
-        <v>3.502209462266989</v>
+        <v>3.463577741214272</v>
       </c>
       <c r="E41">
-        <v>4.776657502613473</v>
+        <v>4.772631791697788</v>
       </c>
       <c r="F41">
-        <v>3.286266347336236</v>
+        <v>3.237218568389917</v>
       </c>
       <c r="G41">
-        <v>2.262497455725494</v>
+        <v>2.233160280221565</v>
       </c>
       <c r="H41">
-        <v>3.086507714548345</v>
+        <v>3.079403558745931</v>
       </c>
       <c r="I41">
-        <v>2.505995278408616</v>
+        <v>2.508733194327032</v>
       </c>
       <c r="J41">
-        <v>4.219945866007911</v>
+        <v>4.205117239826102</v>
       </c>
       <c r="K41">
-        <v>3.197431129561169</v>
+        <v>3.192302275566631</v>
       </c>
       <c r="L41">
-        <v>2.486953200385976</v>
+        <v>2.447409133607702</v>
       </c>
       <c r="M41">
-        <v>2.044075746893226</v>
+        <v>2.027887702504887</v>
       </c>
       <c r="N41">
-        <v>4.515582398051887</v>
+        <v>4.496153972129171</v>
       </c>
       <c r="O41">
-        <v>3.219390263216242</v>
+        <v>3.198783813942653</v>
       </c>
       <c r="P41">
-        <v>3.702334489088314</v>
+        <v>3.64886255604655</v>
       </c>
       <c r="Q41">
-        <v>2.691923499517896</v>
+        <v>2.64875554203005</v>
       </c>
       <c r="R41">
-        <v>3.39355272781056</v>
+        <v>3.388703060468219</v>
       </c>
       <c r="S41">
-        <v>1.856181720107133</v>
+        <v>1.560566063758592</v>
       </c>
       <c r="T41">
-        <v>1.540048643046492</v>
+        <v>1.536469849170521</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.63065223236788</v>
+        <v>11.44604916603016</v>
       </c>
       <c r="C42">
-        <v>10.12240370440954</v>
+        <v>10.29825346305783</v>
       </c>
       <c r="D42">
-        <v>12.81424061152265</v>
+        <v>12.67289093665588</v>
       </c>
       <c r="E42">
-        <v>14.105993009939</v>
+        <v>14.09410464448562</v>
       </c>
       <c r="F42">
-        <v>9.711092508890294</v>
+        <v>9.566153703461637</v>
       </c>
       <c r="G42">
-        <v>10.77119084432756</v>
+        <v>10.63152380718385</v>
       </c>
       <c r="H42">
-        <v>11.24757235923494</v>
+        <v>11.22168403695332</v>
       </c>
       <c r="I42">
-        <v>11.0676151066439</v>
+        <v>11.07970698879566</v>
       </c>
       <c r="J42">
-        <v>15.49635034816858</v>
+        <v>15.44189714099682</v>
       </c>
       <c r="K42">
-        <v>12.53918563188039</v>
+        <v>12.51907209394622</v>
       </c>
       <c r="L42">
-        <v>11.90141524605983</v>
+        <v>11.71217551321197</v>
       </c>
       <c r="M42">
-        <v>11.08502358880258</v>
+        <v>10.9972358176429</v>
       </c>
       <c r="N42">
-        <v>13.97596995334383</v>
+        <v>13.91583793204492</v>
       </c>
       <c r="O42">
-        <v>12.50140674220216</v>
+        <v>12.42138860745626</v>
       </c>
       <c r="P42">
-        <v>10.79246885580257</v>
+        <v>10.63659580497109</v>
       </c>
       <c r="Q42">
-        <v>11.97434021188073</v>
+        <v>11.78231848120969</v>
       </c>
       <c r="R42">
-        <v>10.93204073992849</v>
+        <v>10.91641795012267</v>
       </c>
       <c r="S42">
-        <v>7.983626149885516</v>
+        <v>6.712153179984935</v>
       </c>
       <c r="T42">
-        <v>10.10118279681893</v>
+        <v>10.07770947907891</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.279163683803179</v>
+        <v>1.258860648886466</v>
       </c>
       <c r="C43">
-        <v>1.258422762133847</v>
+        <v>1.280284500260567</v>
       </c>
       <c r="D43">
-        <v>0.9015671137711315</v>
+        <v>0.8916222233741519</v>
       </c>
       <c r="E43">
-        <v>0.8236158378971568</v>
+        <v>0.8229217041295297</v>
       </c>
       <c r="F43">
-        <v>0.8870552569045167</v>
+        <v>0.8738158887111594</v>
       </c>
       <c r="G43">
-        <v>1.856525130000557</v>
+        <v>1.832452084778583</v>
       </c>
       <c r="H43">
-        <v>1.176255405736095</v>
+        <v>1.173548041154956</v>
       </c>
       <c r="I43">
-        <v>0.6631175561989762</v>
+        <v>0.6638420428444782</v>
       </c>
       <c r="J43">
-        <v>0.5959525951057683</v>
+        <v>0.5938584549116758</v>
       </c>
       <c r="K43">
-        <v>0.8723976205974706</v>
+        <v>0.8709982472130494</v>
       </c>
       <c r="L43">
-        <v>0.7581014795754262</v>
+        <v>0.7460472054827788</v>
       </c>
       <c r="M43">
-        <v>0.64339988690511</v>
+        <v>0.6383044857466638</v>
       </c>
       <c r="N43">
-        <v>0.9077266499868429</v>
+        <v>0.903821129408821</v>
       </c>
       <c r="O43">
-        <v>1.246215585761126</v>
+        <v>1.238238895719737</v>
       </c>
       <c r="P43">
-        <v>0.5332344584947992</v>
+        <v>0.5255330805279435</v>
       </c>
       <c r="Q43">
-        <v>0.741505996220638</v>
+        <v>0.729615131072513</v>
       </c>
       <c r="R43">
-        <v>0.7604254537850697</v>
+        <v>0.7593387429586005</v>
       </c>
       <c r="S43">
-        <v>0.5233054135430555</v>
+        <v>0.4399637495133362</v>
       </c>
       <c r="T43">
-        <v>0.8927410929582159</v>
+        <v>0.8906665244887512</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.570590295137346</v>
+        <v>6.466301120988061</v>
       </c>
       <c r="C44">
-        <v>6.217441629280905</v>
+        <v>6.325453089981941</v>
       </c>
       <c r="D44">
-        <v>7.586316812369641</v>
+        <v>7.502634645991362</v>
       </c>
       <c r="E44">
-        <v>8.301387495904264</v>
+        <v>8.294391183893342</v>
       </c>
       <c r="F44">
-        <v>5.092203130712221</v>
+        <v>5.01620160584879</v>
       </c>
       <c r="G44">
-        <v>5.985430937139388</v>
+        <v>5.907819518207118</v>
       </c>
       <c r="H44">
-        <v>5.685093524632473</v>
+        <v>5.672008253547643</v>
       </c>
       <c r="I44">
-        <v>4.634658357971715</v>
+        <v>4.639721936903425</v>
       </c>
       <c r="J44">
-        <v>5.661153934650147</v>
+        <v>5.641260993337604</v>
       </c>
       <c r="K44">
-        <v>6.664171159774504</v>
+        <v>6.65348146561437</v>
       </c>
       <c r="L44">
-        <v>4.813987616596976</v>
+        <v>4.737442288863849</v>
       </c>
       <c r="M44">
-        <v>6.759359115273659</v>
+        <v>6.705828415366342</v>
       </c>
       <c r="N44">
-        <v>4.941625729394223</v>
+        <v>4.920364239522452</v>
       </c>
       <c r="O44">
-        <v>7.736512898219169</v>
+        <v>7.686993564569836</v>
       </c>
       <c r="P44">
-        <v>5.783668988374465</v>
+        <v>5.700136838107231</v>
       </c>
       <c r="Q44">
-        <v>5.252459989522157</v>
+        <v>5.168231009918942</v>
       </c>
       <c r="R44">
-        <v>4.331547801074089</v>
+        <v>4.325357661242018</v>
       </c>
       <c r="S44">
-        <v>4.936943546870013</v>
+        <v>4.150685503730013</v>
       </c>
       <c r="T44">
-        <v>6.970499971355808</v>
+        <v>6.954301792991394</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2019.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2019.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>154.1063501406317</v>
+        <v>151.3328485502824</v>
       </c>
       <c r="C2">
-        <v>136.3506171921276</v>
+        <v>135.5554083555244</v>
       </c>
       <c r="D2">
-        <v>141.7042065311503</v>
+        <v>139.9098428925537</v>
       </c>
       <c r="E2">
-        <v>124.4359359972539</v>
+        <v>124.3305278744285</v>
       </c>
       <c r="F2">
-        <v>142.7040963890458</v>
+        <v>139.8091142111735</v>
       </c>
       <c r="G2">
-        <v>142.0583835960869</v>
+        <v>140.2165002962299</v>
       </c>
       <c r="H2">
-        <v>165.0613588627339</v>
+        <v>164.6820366489886</v>
       </c>
       <c r="I2">
-        <v>153.814614896478</v>
+        <v>153.6509991042443</v>
       </c>
       <c r="J2">
-        <v>139.2518820765866</v>
+        <v>138.0594459423561</v>
       </c>
       <c r="K2">
-        <v>139.8398707950037</v>
+        <v>139.4698219746749</v>
       </c>
       <c r="L2">
-        <v>183.5720689932454</v>
+        <v>180.6539377816954</v>
       </c>
       <c r="M2">
-        <v>149.7974841620972</v>
+        <v>148.4177854132222</v>
       </c>
       <c r="N2">
-        <v>121.1687900618602</v>
+        <v>120.4492812255911</v>
       </c>
       <c r="O2">
-        <v>147.5432574504368</v>
+        <v>146.5993463682984</v>
       </c>
       <c r="P2">
-        <v>133.1284125025495</v>
+        <v>131.1610138690598</v>
       </c>
       <c r="Q2">
-        <v>132.8685113105661</v>
+        <v>130.7378516345638</v>
       </c>
       <c r="R2">
-        <v>146.8854248162674</v>
+        <v>146.639382525896</v>
       </c>
       <c r="S2">
-        <v>168.0075438102354</v>
+        <v>141.1391565237003</v>
       </c>
       <c r="T2">
-        <v>182.1819465030649</v>
+        <v>181.7585737692112</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.54196272928687</v>
+        <v>12.3162409887873</v>
       </c>
       <c r="C3">
-        <v>9.907819435788344</v>
+        <v>9.850036158168809</v>
       </c>
       <c r="D3">
-        <v>9.301209014002634</v>
+        <v>9.183430215064549</v>
       </c>
       <c r="E3">
-        <v>11.15968024631644</v>
+        <v>11.15022702095458</v>
       </c>
       <c r="F3">
-        <v>15.11502986971983</v>
+        <v>14.80839717172388</v>
       </c>
       <c r="G3">
-        <v>9.006655698245947</v>
+        <v>8.889878298009375</v>
       </c>
       <c r="H3">
-        <v>9.52758422460718</v>
+        <v>9.505689188939087</v>
       </c>
       <c r="I3">
-        <v>10.72849376337767</v>
+        <v>10.71708164231395</v>
       </c>
       <c r="J3">
-        <v>10.60289099154313</v>
+        <v>10.51209674045596</v>
       </c>
       <c r="K3">
-        <v>11.52723703549043</v>
+        <v>11.49673328543414</v>
       </c>
       <c r="L3">
-        <v>13.49800981022837</v>
+        <v>13.28344032840549</v>
       </c>
       <c r="M3">
-        <v>11.06794217587589</v>
+        <v>10.96600170565977</v>
       </c>
       <c r="N3">
-        <v>9.349107580687607</v>
+        <v>9.29359191933537</v>
       </c>
       <c r="O3">
-        <v>12.04184430178369</v>
+        <v>11.96480635045842</v>
       </c>
       <c r="P3">
-        <v>8.53994234142362</v>
+        <v>8.41373734448297</v>
       </c>
       <c r="Q3">
-        <v>7.584201859511292</v>
+        <v>7.462582727052201</v>
       </c>
       <c r="R3">
-        <v>8.230680695455264</v>
+        <v>8.216893789557972</v>
       </c>
       <c r="S3">
-        <v>15.0153059830943</v>
+        <v>12.61400276045277</v>
       </c>
       <c r="T3">
-        <v>18.15833509538516</v>
+        <v>18.11613692965507</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.687465808256322</v>
+        <v>7.549112011508178</v>
       </c>
       <c r="C4">
-        <v>5.866089365274765</v>
+        <v>5.831877814233544</v>
       </c>
       <c r="D4">
-        <v>6.59900508851686</v>
+        <v>6.515443597495451</v>
       </c>
       <c r="E4">
-        <v>8.055402994700245</v>
+        <v>8.048579363717215</v>
       </c>
       <c r="F4">
-        <v>6.70963047126857</v>
+        <v>6.573514822692678</v>
       </c>
       <c r="G4">
-        <v>6.925097219154413</v>
+        <v>6.83530863649594</v>
       </c>
       <c r="H4">
-        <v>6.596670323614148</v>
+        <v>6.581510727160187</v>
       </c>
       <c r="I4">
-        <v>6.860440695465518</v>
+        <v>6.853143102579328</v>
       </c>
       <c r="J4">
-        <v>7.327921750443969</v>
+        <v>7.265171584674308</v>
       </c>
       <c r="K4">
-        <v>6.416896623721153</v>
+        <v>6.399916022893357</v>
       </c>
       <c r="L4">
-        <v>7.122004663879062</v>
+        <v>7.008790577376421</v>
       </c>
       <c r="M4">
-        <v>8.316207893448603</v>
+        <v>8.239612070159883</v>
       </c>
       <c r="N4">
-        <v>5.932017503372863</v>
+        <v>5.896792764325784</v>
       </c>
       <c r="O4">
-        <v>9.323720543863752</v>
+        <v>9.26407184625335</v>
       </c>
       <c r="P4">
-        <v>5.981891321639814</v>
+        <v>5.893489720579236</v>
       </c>
       <c r="Q4">
-        <v>6.351127224248254</v>
+        <v>6.249281493153729</v>
       </c>
       <c r="R4">
-        <v>7.301728519479989</v>
+        <v>7.289497666685367</v>
       </c>
       <c r="S4">
-        <v>7.39443423709753</v>
+        <v>6.211888987394001</v>
       </c>
       <c r="T4">
-        <v>6.977057356088975</v>
+        <v>6.960843368348688</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.8869036905715</v>
+        <v>20.51099536135334</v>
       </c>
       <c r="C5">
-        <v>15.32037355199926</v>
+        <v>15.23102378094949</v>
       </c>
       <c r="D5">
-        <v>14.68896742612337</v>
+        <v>14.50296483888069</v>
       </c>
       <c r="E5">
-        <v>14.74728167761465</v>
+        <v>14.73478944001498</v>
       </c>
       <c r="F5">
-        <v>14.83757008375153</v>
+        <v>14.53656610389178</v>
       </c>
       <c r="G5">
-        <v>15.44443407697024</v>
+        <v>15.24418651338402</v>
       </c>
       <c r="H5">
-        <v>16.17160918712947</v>
+        <v>16.13444573083084</v>
       </c>
       <c r="I5">
-        <v>18.058609558672</v>
+        <v>18.03940024158877</v>
       </c>
       <c r="J5">
-        <v>13.47897562715317</v>
+        <v>13.36355300341161</v>
       </c>
       <c r="K5">
-        <v>17.24311442993822</v>
+        <v>17.19748513896906</v>
       </c>
       <c r="L5">
-        <v>21.83799051141846</v>
+        <v>21.49084553419839</v>
       </c>
       <c r="M5">
-        <v>14.33211884610372</v>
+        <v>14.20011391590543</v>
       </c>
       <c r="N5">
-        <v>16.46864138448109</v>
+        <v>16.37084942838884</v>
       </c>
       <c r="O5">
-        <v>23.00756018436682</v>
+        <v>22.86036883583444</v>
       </c>
       <c r="P5">
-        <v>13.17441325718948</v>
+        <v>12.97971911074852</v>
       </c>
       <c r="Q5">
-        <v>12.57539802551782</v>
+        <v>12.37374081405091</v>
       </c>
       <c r="R5">
-        <v>16.52630583507163</v>
+        <v>16.49862323726367</v>
       </c>
       <c r="S5">
-        <v>20.14839439553255</v>
+        <v>16.92618870438523</v>
       </c>
       <c r="T5">
-        <v>26.64452770934999</v>
+        <v>26.58260847555609</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>45.61046618552339</v>
+        <v>44.7895999435633</v>
       </c>
       <c r="C6">
-        <v>43.18881766908578</v>
+        <v>42.93693667169721</v>
       </c>
       <c r="D6">
-        <v>46.10645853759383</v>
+        <v>45.52262440359348</v>
       </c>
       <c r="E6">
-        <v>35.39111834734987</v>
+        <v>35.36113897427096</v>
       </c>
       <c r="F6">
-        <v>33.18663857639005</v>
+        <v>32.51339422214098</v>
       </c>
       <c r="G6">
-        <v>45.2362646540922</v>
+        <v>44.64974579962471</v>
       </c>
       <c r="H6">
-        <v>44.48630077998886</v>
+        <v>44.3840682392569</v>
       </c>
       <c r="I6">
-        <v>46.13801599301352</v>
+        <v>46.08893802962319</v>
       </c>
       <c r="J6">
-        <v>36.50902153018472</v>
+        <v>36.19638894060112</v>
       </c>
       <c r="K6">
-        <v>41.10469911529785</v>
+        <v>40.9959265218228</v>
       </c>
       <c r="L6">
-        <v>49.79352283692506</v>
+        <v>49.00198611829275</v>
       </c>
       <c r="M6">
-        <v>50.3340434912454</v>
+        <v>49.8704454727664</v>
       </c>
       <c r="N6">
-        <v>36.52924137779802</v>
+        <v>36.31232816161329</v>
       </c>
       <c r="O6">
-        <v>46.94651115100525</v>
+        <v>46.64616986188836</v>
       </c>
       <c r="P6">
-        <v>50.49345344686928</v>
+        <v>49.74725096879462</v>
       </c>
       <c r="Q6">
-        <v>42.28018864193705</v>
+        <v>41.60218982833869</v>
       </c>
       <c r="R6">
-        <v>42.52052513094612</v>
+        <v>42.44930058702626</v>
       </c>
       <c r="S6">
-        <v>43.86829143979021</v>
+        <v>36.85271215524221</v>
       </c>
       <c r="T6">
-        <v>64.62771039159215</v>
+        <v>64.47752201696777</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>13.45826670838075</v>
+        <v>13.21605395021097</v>
       </c>
       <c r="C7">
-        <v>11.45707069385568</v>
+        <v>11.39025204612999</v>
       </c>
       <c r="D7">
-        <v>14.05129391813751</v>
+        <v>13.87336602524609</v>
       </c>
       <c r="E7">
-        <v>11.46775029255278</v>
+        <v>11.45803610491333</v>
       </c>
       <c r="F7">
-        <v>13.00143914719665</v>
+        <v>12.73768403735584</v>
       </c>
       <c r="G7">
-        <v>13.84791369490588</v>
+        <v>13.66836610097415</v>
       </c>
       <c r="H7">
-        <v>14.04995224033445</v>
+        <v>14.01766449580393</v>
       </c>
       <c r="I7">
-        <v>14.72789664734365</v>
+        <v>14.71223027858206</v>
       </c>
       <c r="J7">
-        <v>12.38125152434879</v>
+        <v>12.2752288876385</v>
       </c>
       <c r="K7">
-        <v>11.39503084789755</v>
+        <v>11.36487694616049</v>
       </c>
       <c r="L7">
-        <v>14.40219926021229</v>
+        <v>14.17325644006172</v>
       </c>
       <c r="M7">
-        <v>17.00413986820648</v>
+        <v>16.84752448422265</v>
       </c>
       <c r="N7">
-        <v>11.06520376047884</v>
+        <v>10.99949779876447</v>
       </c>
       <c r="O7">
-        <v>13.29787260869254</v>
+        <v>13.21279918994667</v>
       </c>
       <c r="P7">
-        <v>13.77399486028962</v>
+        <v>13.57043997552519</v>
       </c>
       <c r="Q7">
-        <v>12.56482665693627</v>
+        <v>12.36333896636287</v>
       </c>
       <c r="R7">
-        <v>12.47755409464842</v>
+        <v>12.45665340969945</v>
       </c>
       <c r="S7">
-        <v>12.54039702295146</v>
+        <v>10.5348903873676</v>
       </c>
       <c r="T7">
-        <v>18.16676601861352</v>
+        <v>18.12454826025592</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>185.99</v>
+        <v>200.64</v>
       </c>
       <c r="C8">
-        <v>236.98</v>
+        <v>241.43</v>
       </c>
       <c r="D8">
-        <v>186.59</v>
+        <v>196.89</v>
       </c>
       <c r="E8">
-        <v>244.47</v>
+        <v>245.11</v>
       </c>
       <c r="F8">
-        <v>214.26</v>
+        <v>230.2</v>
       </c>
       <c r="G8">
-        <v>263.44</v>
+        <v>272.99</v>
       </c>
       <c r="H8">
-        <v>177.57</v>
+        <v>179.46</v>
       </c>
       <c r="I8">
-        <v>219.72</v>
+        <v>220.55</v>
       </c>
       <c r="J8">
-        <v>243.27</v>
+        <v>249.75</v>
       </c>
       <c r="K8">
-        <v>202.64</v>
+        <v>204.75</v>
       </c>
       <c r="L8">
-        <v>150.75</v>
+        <v>164.25</v>
       </c>
       <c r="M8">
-        <v>207.42</v>
+        <v>214.72</v>
       </c>
       <c r="N8">
-        <v>238.81</v>
+        <v>243.33</v>
       </c>
       <c r="O8">
-        <v>199.69</v>
+        <v>204.81</v>
       </c>
       <c r="P8">
-        <v>196.79</v>
+        <v>208.66</v>
       </c>
       <c r="Q8">
-        <v>259.16</v>
+        <v>271.04</v>
       </c>
       <c r="R8">
-        <v>194.06</v>
+        <v>195.41</v>
       </c>
       <c r="S8">
-        <v>271.34</v>
+        <v>387.87</v>
       </c>
       <c r="T8">
-        <v>100.65</v>
+        <v>102.74</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.59616917513473</v>
+        <v>10.40546650758061</v>
       </c>
       <c r="C9">
-        <v>8.924504710348343</v>
+        <v>8.872456211015363</v>
       </c>
       <c r="D9">
-        <v>10.81880536525358</v>
+        <v>10.68180963706962</v>
       </c>
       <c r="E9">
-        <v>11.58720602476687</v>
+        <v>11.57739064767284</v>
       </c>
       <c r="F9">
-        <v>11.9258744474725</v>
+        <v>11.68393889793612</v>
       </c>
       <c r="G9">
-        <v>11.04488005268145</v>
+        <v>10.90167569118597</v>
       </c>
       <c r="H9">
-        <v>9.057420309733514</v>
+        <v>9.036605742675652</v>
       </c>
       <c r="I9">
-        <v>8.672272097516982</v>
+        <v>8.663047222035182</v>
       </c>
       <c r="J9">
-        <v>8.872016721295701</v>
+        <v>8.796044223371746</v>
       </c>
       <c r="K9">
-        <v>7.28031728096355</v>
+        <v>7.261051868273132</v>
       </c>
       <c r="L9">
-        <v>11.19345046638791</v>
+        <v>11.01551513368701</v>
       </c>
       <c r="M9">
-        <v>9.710376548512269</v>
+        <v>9.62093983700789</v>
       </c>
       <c r="N9">
-        <v>7.776085653959092</v>
+        <v>7.72991070794575</v>
       </c>
       <c r="O9">
-        <v>10.57238930991181</v>
+        <v>10.50475222769774</v>
       </c>
       <c r="P9">
-        <v>13.59952644299409</v>
+        <v>13.39854988782378</v>
       </c>
       <c r="Q9">
-        <v>7.553242851522446</v>
+        <v>7.432120173108638</v>
       </c>
       <c r="R9">
-        <v>5.908300255517077</v>
+        <v>5.898403482376462</v>
       </c>
       <c r="S9">
-        <v>5.941901989375997</v>
+        <v>4.991651064634713</v>
       </c>
       <c r="T9">
-        <v>7.363943055345787</v>
+        <v>7.346829983698849</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>27.48495813767078</v>
+        <v>26.99030249865298</v>
       </c>
       <c r="C10">
-        <v>30.59908788701344</v>
+        <v>30.42063130514507</v>
       </c>
       <c r="D10">
-        <v>28.58042673129316</v>
+        <v>28.21852019543507</v>
       </c>
       <c r="E10">
-        <v>28.04066135130778</v>
+        <v>28.01690845828588</v>
       </c>
       <c r="F10">
-        <v>24.1798042889428</v>
+        <v>23.68927805842667</v>
       </c>
       <c r="G10">
-        <v>26.35246952547473</v>
+        <v>26.01079188350629</v>
       </c>
       <c r="H10">
-        <v>28.65378463218375</v>
+        <v>28.58793628891462</v>
       </c>
       <c r="I10">
-        <v>23.8013827284432</v>
+        <v>23.77606470457407</v>
       </c>
       <c r="J10">
-        <v>27.20883700815565</v>
+        <v>26.97584338584275</v>
       </c>
       <c r="K10">
-        <v>27.20835984164609</v>
+        <v>27.13636019372562</v>
       </c>
       <c r="L10">
-        <v>27.81463091026054</v>
+        <v>27.37247899116896</v>
       </c>
       <c r="M10">
-        <v>20.03243035992294</v>
+        <v>19.84792312831549</v>
       </c>
       <c r="N10">
-        <v>34.36723044262796</v>
+        <v>34.16315540012782</v>
       </c>
       <c r="O10">
-        <v>31.0809765086579</v>
+        <v>30.88213530996699</v>
       </c>
       <c r="P10">
-        <v>25.33723733428514</v>
+        <v>24.96279851111564</v>
       </c>
       <c r="Q10">
-        <v>29.91697308580618</v>
+        <v>29.43722895716927</v>
       </c>
       <c r="R10">
-        <v>31.08126006130369</v>
+        <v>31.02919700315699</v>
       </c>
       <c r="S10">
-        <v>25.67150059085745</v>
+        <v>21.5660193460346</v>
       </c>
       <c r="T10">
-        <v>24.65108275046742</v>
+        <v>24.59379608459932</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>43.87523112974614</v>
+        <v>43.08559447165743</v>
       </c>
       <c r="C11">
-        <v>50.62695295832538</v>
+        <v>50.33169209928559</v>
       </c>
       <c r="D11">
-        <v>50.30378207188196</v>
+        <v>49.66679831788289</v>
       </c>
       <c r="E11">
-        <v>39.97601796404071</v>
+        <v>39.9421547799223</v>
       </c>
       <c r="F11">
-        <v>30.46834873209479</v>
+        <v>29.8502492605271</v>
       </c>
       <c r="G11">
-        <v>42.73352889325606</v>
+        <v>42.1794597055041</v>
       </c>
       <c r="H11">
-        <v>60.34164862869611</v>
+        <v>60.20297942170191</v>
       </c>
       <c r="I11">
-        <v>58.60430762575777</v>
+        <v>58.54196900971048</v>
       </c>
       <c r="J11">
-        <v>46.70115635059918</v>
+        <v>46.30124688070651</v>
       </c>
       <c r="K11">
-        <v>45.00886208717652</v>
+        <v>44.88975817049656</v>
       </c>
       <c r="L11">
-        <v>53.10859601157929</v>
+        <v>52.2643616328259</v>
       </c>
       <c r="M11">
-        <v>46.77622919880172</v>
+        <v>46.34540016810293</v>
       </c>
       <c r="N11">
-        <v>42.04157440552023</v>
+        <v>41.79192856635661</v>
       </c>
       <c r="O11">
-        <v>37.18530678930541</v>
+        <v>36.94741300969346</v>
       </c>
       <c r="P11">
-        <v>48.68651763206201</v>
+        <v>47.96701841729553</v>
       </c>
       <c r="Q11">
-        <v>42.48784052478906</v>
+        <v>41.80651183649674</v>
       </c>
       <c r="R11">
-        <v>58.6538759747645</v>
+        <v>58.55562705726949</v>
       </c>
       <c r="S11">
-        <v>31.02345335136219</v>
+        <v>26.06206804266646</v>
       </c>
       <c r="T11">
-        <v>40.40660472577092</v>
+        <v>40.31270379301186</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>11.02144740703026</v>
+        <v>10.82309087023956</v>
       </c>
       <c r="C12">
-        <v>11.74711316682719</v>
+        <v>11.67860296579396</v>
       </c>
       <c r="D12">
-        <v>11.85939529342894</v>
+        <v>11.70922284469789</v>
       </c>
       <c r="E12">
-        <v>10.9372725343652</v>
+        <v>10.92800770779048</v>
       </c>
       <c r="F12">
-        <v>9.249203571072485</v>
+        <v>9.061568596497059</v>
       </c>
       <c r="G12">
-        <v>9.858893483147922</v>
+        <v>9.731066241967214</v>
       </c>
       <c r="H12">
-        <v>11.34397287415508</v>
+        <v>11.31790365399999</v>
       </c>
       <c r="I12">
-        <v>10.15055457274087</v>
+        <v>10.1397572175666</v>
       </c>
       <c r="J12">
-        <v>9.464803565564255</v>
+        <v>9.38375493909926</v>
       </c>
       <c r="K12">
-        <v>10.73808034782181</v>
+        <v>10.70966488989327</v>
       </c>
       <c r="L12">
-        <v>11.23148520424574</v>
+        <v>11.05294525693068</v>
       </c>
       <c r="M12">
-        <v>12.47105823771068</v>
+        <v>12.35619446984461</v>
       </c>
       <c r="N12">
-        <v>10.01678742831366</v>
+        <v>9.957307036852944</v>
       </c>
       <c r="O12">
-        <v>11.72129541095799</v>
+        <v>11.64630817788068</v>
       </c>
       <c r="P12">
-        <v>13.10233240872935</v>
+        <v>12.90870348766062</v>
       </c>
       <c r="Q12">
-        <v>12.17066562839536</v>
+        <v>11.97549864542287</v>
       </c>
       <c r="R12">
-        <v>12.30491696459992</v>
+        <v>12.28430545766118</v>
       </c>
       <c r="S12">
-        <v>7.871543369560809</v>
+        <v>6.612697064212745</v>
       </c>
       <c r="T12">
-        <v>13.55130393571202</v>
+        <v>13.51981205243449</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.628125729101809</v>
+        <v>4.544831860560461</v>
       </c>
       <c r="C13">
-        <v>4.690199014149071</v>
+        <v>4.662845359444132</v>
       </c>
       <c r="D13">
-        <v>4.815017715653023</v>
+        <v>4.754046394337541</v>
       </c>
       <c r="E13">
-        <v>4.111006152709949</v>
+        <v>4.107523770888268</v>
       </c>
       <c r="F13">
-        <v>4.328372661105388</v>
+        <v>4.240564658180731</v>
       </c>
       <c r="G13">
-        <v>3.245497862396552</v>
+        <v>3.203417781227486</v>
       </c>
       <c r="H13">
-        <v>4.507146881792514</v>
+        <v>4.496789152129701</v>
       </c>
       <c r="I13">
-        <v>4.338524227232197</v>
+        <v>4.333909249136381</v>
       </c>
       <c r="J13">
-        <v>3.586004260855559</v>
+        <v>3.555296732925725</v>
       </c>
       <c r="K13">
-        <v>4.036369159471553</v>
+        <v>4.025687987947417</v>
       </c>
       <c r="L13">
-        <v>4.404249758764877</v>
+        <v>4.334238134692665</v>
       </c>
       <c r="M13">
-        <v>4.292315048291107</v>
+        <v>4.252780995132404</v>
       </c>
       <c r="N13">
-        <v>3.379731800126144</v>
+        <v>3.359662713910388</v>
       </c>
       <c r="O13">
-        <v>4.50649218709289</v>
+        <v>4.47766180886706</v>
       </c>
       <c r="P13">
-        <v>5.022724576789722</v>
+        <v>4.94849773607995</v>
       </c>
       <c r="Q13">
-        <v>4.276118591239789</v>
+        <v>4.207547389814478</v>
       </c>
       <c r="R13">
-        <v>4.141646958020736</v>
+        <v>4.134709439851485</v>
       </c>
       <c r="S13">
-        <v>3.395805317405298</v>
+        <v>2.852735581675</v>
       </c>
       <c r="T13">
-        <v>6.245440573717131</v>
+        <v>6.230926790652618</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.612092257641704</v>
+        <v>8.457097661046513</v>
       </c>
       <c r="C14">
-        <v>7.343026510839723</v>
+        <v>7.300201331980406</v>
       </c>
       <c r="D14">
-        <v>7.898493790822248</v>
+        <v>7.798477211181637</v>
       </c>
       <c r="E14">
-        <v>8.612601114040974</v>
+        <v>8.605305487509947</v>
       </c>
       <c r="F14">
-        <v>5.904181033766494</v>
+        <v>5.784405222838911</v>
       </c>
       <c r="G14">
-        <v>6.788252614977466</v>
+        <v>6.700238315432238</v>
       </c>
       <c r="H14">
-        <v>8.344563870455636</v>
+        <v>8.325387495912924</v>
       </c>
       <c r="I14">
-        <v>6.740235712288993</v>
+        <v>6.733065983933531</v>
       </c>
       <c r="J14">
-        <v>6.760460912873138</v>
+        <v>6.702570004999237</v>
       </c>
       <c r="K14">
-        <v>8.817010189836365</v>
+        <v>8.793678330324282</v>
       </c>
       <c r="L14">
-        <v>7.663135252492763</v>
+        <v>7.541319148979484</v>
       </c>
       <c r="M14">
-        <v>7.605295755452312</v>
+        <v>7.535247736306229</v>
       </c>
       <c r="N14">
-        <v>6.156962023465923</v>
+        <v>6.120401547965633</v>
       </c>
       <c r="O14">
-        <v>8.817547677993582</v>
+        <v>8.761137231902287</v>
       </c>
       <c r="P14">
-        <v>8.035376402202735</v>
+        <v>7.916627982867632</v>
       </c>
       <c r="Q14">
-        <v>6.865348795965418</v>
+        <v>6.755257084265095</v>
       </c>
       <c r="R14">
-        <v>6.427033727234242</v>
+        <v>6.416268043024791</v>
       </c>
       <c r="S14">
-        <v>6.188787032523662</v>
+        <v>5.199053339305999</v>
       </c>
       <c r="T14">
-        <v>7.583147059283063</v>
+        <v>7.565524579320977</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.959109506618532</v>
+        <v>1.923850782190133</v>
       </c>
       <c r="C15">
-        <v>2.029511287838596</v>
+        <v>2.017674998841084</v>
       </c>
       <c r="D15">
-        <v>1.800636811714642</v>
+        <v>1.777835814479962</v>
       </c>
       <c r="E15">
-        <v>1.627584351416996</v>
+        <v>1.626205645098376</v>
       </c>
       <c r="F15">
-        <v>2.227022811492572</v>
+        <v>2.181844070922928</v>
       </c>
       <c r="G15">
-        <v>2.093722443907262</v>
+        <v>2.066575912274654</v>
       </c>
       <c r="H15">
-        <v>2.136032462177841</v>
+        <v>2.131123714498991</v>
       </c>
       <c r="I15">
-        <v>1.565052959768532</v>
+        <v>1.563388180514152</v>
       </c>
       <c r="J15">
-        <v>1.78469203448009</v>
+        <v>1.769409431195654</v>
       </c>
       <c r="K15">
-        <v>2.047563732534194</v>
+        <v>2.042145402701187</v>
       </c>
       <c r="L15">
-        <v>1.836040527500804</v>
+        <v>1.806854131126049</v>
       </c>
       <c r="M15">
-        <v>2.844461952600721</v>
+        <v>2.81826324426341</v>
       </c>
       <c r="N15">
-        <v>1.401332823053243</v>
+        <v>1.393011609742242</v>
       </c>
       <c r="O15">
-        <v>2.423742123488174</v>
+        <v>2.408236182450003</v>
       </c>
       <c r="P15">
-        <v>2.481874668570264</v>
+        <v>2.445197022231286</v>
       </c>
       <c r="Q15">
-        <v>1.825071275830226</v>
+        <v>1.795804704429029</v>
       </c>
       <c r="R15">
-        <v>1.408225732252783</v>
+        <v>1.405866865912186</v>
       </c>
       <c r="S15">
-        <v>1.419210340057433</v>
+        <v>1.19224497771163</v>
       </c>
       <c r="T15">
-        <v>2.957380514658014</v>
+        <v>2.950507856320731</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.984909164522175</v>
+        <v>1.949186115345567</v>
       </c>
       <c r="C16">
-        <v>1.822787248837221</v>
+        <v>1.812156592684924</v>
       </c>
       <c r="D16">
-        <v>2.280140650617847</v>
+        <v>2.25126782055507</v>
       </c>
       <c r="E16">
-        <v>2.239009086039122</v>
+        <v>2.237112449485887</v>
       </c>
       <c r="F16">
-        <v>2.325765852969524</v>
+        <v>2.278583950945528</v>
       </c>
       <c r="G16">
-        <v>1.765295393882593</v>
+        <v>1.742407141721767</v>
       </c>
       <c r="H16">
-        <v>2.092060297477427</v>
+        <v>2.087252600819677</v>
       </c>
       <c r="I16">
-        <v>1.631921957032294</v>
+        <v>1.63018604784029</v>
       </c>
       <c r="J16">
-        <v>1.598704172793695</v>
+        <v>1.58501421331052</v>
       </c>
       <c r="K16">
-        <v>1.704806949885983</v>
+        <v>1.700295634213941</v>
       </c>
       <c r="L16">
-        <v>1.734902701833387</v>
+        <v>1.707324030682665</v>
       </c>
       <c r="M16">
-        <v>2.136803417066655</v>
+        <v>2.117122545804969</v>
       </c>
       <c r="N16">
-        <v>1.735172746866268</v>
+        <v>1.72486916850103</v>
       </c>
       <c r="O16">
-        <v>1.971539223930495</v>
+        <v>1.958926260420701</v>
       </c>
       <c r="P16">
-        <v>1.733216765245768</v>
+        <v>1.707602936977361</v>
       </c>
       <c r="Q16">
-        <v>1.691418973049113</v>
+        <v>1.664295630087309</v>
       </c>
       <c r="R16">
-        <v>1.869413493953782</v>
+        <v>1.866282109214425</v>
       </c>
       <c r="S16">
-        <v>1.284408077234475</v>
+        <v>1.079000790927922</v>
       </c>
       <c r="T16">
-        <v>1.60093864414018</v>
+        <v>1.597218221872705</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.31587183962164</v>
+        <v>21.91424591063985</v>
       </c>
       <c r="C17">
-        <v>20.9192151102</v>
+        <v>20.79721240091271</v>
       </c>
       <c r="D17">
-        <v>19.65965739503143</v>
+        <v>19.41071224907942</v>
       </c>
       <c r="E17">
-        <v>23.20977723341291</v>
+        <v>23.19011652182054</v>
       </c>
       <c r="F17">
-        <v>21.82302822460035</v>
+        <v>21.3803129881352</v>
       </c>
       <c r="G17">
-        <v>17.56324469830994</v>
+        <v>17.33552531785369</v>
       </c>
       <c r="H17">
-        <v>21.82795168099628</v>
+        <v>21.77778956546416</v>
       </c>
       <c r="I17">
-        <v>19.36573924328031</v>
+        <v>19.34513950527353</v>
       </c>
       <c r="J17">
-        <v>19.51052240975751</v>
+        <v>19.34345068640145</v>
       </c>
       <c r="K17">
-        <v>23.35805864989785</v>
+        <v>23.29624779438556</v>
       </c>
       <c r="L17">
-        <v>22.22525329688003</v>
+        <v>21.87195224358844</v>
       </c>
       <c r="M17">
-        <v>20.0966890085519</v>
+        <v>19.91158992737091</v>
       </c>
       <c r="N17">
-        <v>22.49286229538325</v>
+        <v>22.35929808989562</v>
       </c>
       <c r="O17">
-        <v>22.21027659111414</v>
+        <v>22.06818588108115</v>
       </c>
       <c r="P17">
-        <v>19.65841321639813</v>
+        <v>19.36789720579237</v>
       </c>
       <c r="Q17">
-        <v>18.71887336691407</v>
+        <v>18.4187002990466</v>
       </c>
       <c r="R17">
-        <v>17.93453156732441</v>
+        <v>17.90449010317586</v>
       </c>
       <c r="S17">
-        <v>23.88120536999524</v>
+        <v>20.0620347530195</v>
       </c>
       <c r="T17">
-        <v>28.49558374259808</v>
+        <v>28.42936283858737</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.45912871758852</v>
+        <v>20.09091919225999</v>
       </c>
       <c r="C18">
-        <v>18.59101509680809</v>
+        <v>18.48259065553421</v>
       </c>
       <c r="D18">
-        <v>19.84280122239029</v>
+        <v>19.591536973622</v>
       </c>
       <c r="E18">
-        <v>18.88029283362719</v>
+        <v>18.86429957404316</v>
       </c>
       <c r="F18">
-        <v>22.40732589152182</v>
+        <v>21.95275723686397</v>
       </c>
       <c r="G18">
-        <v>17.3184449063934</v>
+        <v>17.09389952128417</v>
       </c>
       <c r="H18">
-        <v>18.49452334928407</v>
+        <v>18.45202167846692</v>
       </c>
       <c r="I18">
-        <v>19.26941604484083</v>
+        <v>19.24891876781564</v>
       </c>
       <c r="J18">
-        <v>18.38509798712749</v>
+        <v>18.22766345307098</v>
       </c>
       <c r="K18">
-        <v>21.31783970556327</v>
+        <v>21.26142774386624</v>
       </c>
       <c r="L18">
-        <v>19.31040929559344</v>
+        <v>19.00344370773296</v>
       </c>
       <c r="M18">
-        <v>19.7534339487871</v>
+        <v>19.57149639317613</v>
       </c>
       <c r="N18">
-        <v>18.93667224981309</v>
+        <v>18.82422495206988</v>
       </c>
       <c r="O18">
-        <v>19.33923792864214</v>
+        <v>19.21551474863109</v>
       </c>
       <c r="P18">
-        <v>21.27122220069346</v>
+        <v>20.95687177238425</v>
       </c>
       <c r="Q18">
-        <v>15.45685106174792</v>
+        <v>15.20898729816393</v>
       </c>
       <c r="R18">
-        <v>21.08310398678043</v>
+        <v>21.04778846654052</v>
       </c>
       <c r="S18">
-        <v>18.83445099105035</v>
+        <v>15.82237598489234</v>
       </c>
       <c r="T18">
-        <v>18.35224632963737</v>
+        <v>18.30959753347464</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.801373262296709</v>
+        <v>9.624974792630921</v>
       </c>
       <c r="C19">
-        <v>10.4863323358074</v>
+        <v>10.42517511988339</v>
       </c>
       <c r="D19">
-        <v>12.07084316683417</v>
+        <v>11.91799320848796</v>
       </c>
       <c r="E19">
-        <v>10.24097135843306</v>
+        <v>10.23229635986332</v>
       </c>
       <c r="F19">
-        <v>10.6112046968992</v>
+        <v>10.39593933829639</v>
       </c>
       <c r="G19">
-        <v>9.815559358491889</v>
+        <v>9.688293973630376</v>
       </c>
       <c r="H19">
-        <v>10.2742654059623</v>
+        <v>10.25065444622436</v>
       </c>
       <c r="I19">
-        <v>9.054380653309909</v>
+        <v>9.044749321041689</v>
       </c>
       <c r="J19">
-        <v>10.22379232878661</v>
+        <v>10.13624436017094</v>
       </c>
       <c r="K19">
-        <v>11.42849043858464</v>
+        <v>11.39824799498901</v>
       </c>
       <c r="L19">
-        <v>8.877653586362173</v>
+        <v>8.736531038919267</v>
       </c>
       <c r="M19">
-        <v>11.3550725931673</v>
+        <v>11.25048752928716</v>
       </c>
       <c r="N19">
-        <v>10.58987929752601</v>
+        <v>10.52699584605553</v>
       </c>
       <c r="O19">
-        <v>8.461018809626227</v>
+        <v>8.406889264443381</v>
       </c>
       <c r="P19">
-        <v>14.12293169488069</v>
+        <v>13.914220150928</v>
       </c>
       <c r="Q19">
-        <v>9.070989340731694</v>
+        <v>8.925528305463768</v>
       </c>
       <c r="R19">
-        <v>13.98607377864367</v>
+        <v>13.96264622870054</v>
       </c>
       <c r="S19">
-        <v>8.175984435037376</v>
+        <v>6.868450789420897</v>
       </c>
       <c r="T19">
-        <v>8.800010311909213</v>
+        <v>8.779559962710469</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5933921317837781</v>
+        <v>0.5827126625750061</v>
       </c>
       <c r="C20">
-        <v>0.7852369390204327</v>
+        <v>0.7806573678707369</v>
       </c>
       <c r="D20">
-        <v>1.489292305204574</v>
+        <v>1.470433782757583</v>
       </c>
       <c r="E20">
-        <v>1.065670874225711</v>
+        <v>1.064768157775663</v>
       </c>
       <c r="F20">
-        <v>0.6740640682641496</v>
+        <v>0.6603895942038618</v>
       </c>
       <c r="G20">
-        <v>1.386691988993045</v>
+        <v>1.368712586778856</v>
       </c>
       <c r="H20">
-        <v>0.5403502546839432</v>
+        <v>0.5391084930977258</v>
       </c>
       <c r="I20">
-        <v>0.6177421651985661</v>
+        <v>0.6170850600605197</v>
       </c>
       <c r="J20">
-        <v>1.722168455445089</v>
+        <v>1.707421251566184</v>
       </c>
       <c r="K20">
-        <v>1.334303189594822</v>
+        <v>1.330772313039633</v>
       </c>
       <c r="L20">
-        <v>1.306147475072371</v>
+        <v>1.28538445957225</v>
       </c>
       <c r="M20">
-        <v>1.012683766367714</v>
+        <v>1.003356516759493</v>
       </c>
       <c r="N20">
-        <v>1.258258569990519</v>
+        <v>1.250786941702762</v>
       </c>
       <c r="O20">
-        <v>0.704880469111608</v>
+        <v>0.7003709815357295</v>
       </c>
       <c r="P20">
-        <v>1.524346124821538</v>
+        <v>1.501819029165817</v>
       </c>
       <c r="Q20">
-        <v>0.9151784800605022</v>
+        <v>0.900502814136526</v>
       </c>
       <c r="R20">
-        <v>0.674928970332478</v>
+        <v>0.6737984220162898</v>
       </c>
       <c r="S20">
-        <v>0.5748029072057586</v>
+        <v>0.4828783020721064</v>
       </c>
       <c r="T20">
-        <v>0.5545673945763524</v>
+        <v>0.5532786350781986</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>35.49450354620807</v>
+        <v>34.85569754019837</v>
       </c>
       <c r="C21">
-        <v>30.3907918020881</v>
+        <v>30.21355002137555</v>
       </c>
       <c r="D21">
-        <v>31.6705625820027</v>
+        <v>31.26952645680799</v>
       </c>
       <c r="E21">
-        <v>31.21331129175704</v>
+        <v>31.18687088670796</v>
       </c>
       <c r="F21">
-        <v>32.12086657499418</v>
+        <v>31.46924312040945</v>
       </c>
       <c r="G21">
-        <v>25.84006250761217</v>
+        <v>25.50502857018998</v>
       </c>
       <c r="H21">
-        <v>33.93890058175283</v>
+        <v>33.86090668306295</v>
       </c>
       <c r="I21">
-        <v>32.79287468194553</v>
+        <v>32.75799222182093</v>
       </c>
       <c r="J21">
-        <v>27.94249976468029</v>
+        <v>27.70322367086198</v>
       </c>
       <c r="K21">
-        <v>33.27352271936396</v>
+        <v>33.18547323990944</v>
       </c>
       <c r="L21">
-        <v>34.63840865229977</v>
+        <v>34.08778337493028</v>
       </c>
       <c r="M21">
-        <v>32.09190788616209</v>
+        <v>31.79632772066589</v>
       </c>
       <c r="N21">
-        <v>27.35023318686276</v>
+        <v>27.18782556983597</v>
       </c>
       <c r="O21">
-        <v>31.79403424539261</v>
+        <v>31.5906312448848</v>
       </c>
       <c r="P21">
-        <v>37.21173801754029</v>
+        <v>36.66181541913114</v>
       </c>
       <c r="Q21">
-        <v>26.20868800694717</v>
+        <v>25.78840938602697</v>
       </c>
       <c r="R21">
-        <v>31.27033882278539</v>
+        <v>31.21795904586557</v>
       </c>
       <c r="S21">
-        <v>19.54178421282924</v>
+        <v>16.41658986385854</v>
       </c>
       <c r="T21">
-        <v>29.08106452234507</v>
+        <v>29.01348301920202</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>84.97991189945273</v>
+        <v>83.45050106994572</v>
       </c>
       <c r="C22">
-        <v>70.95193470926667</v>
+        <v>70.53813676235016</v>
       </c>
       <c r="D22">
-        <v>81.23177968113872</v>
+        <v>80.20316270972734</v>
       </c>
       <c r="E22">
-        <v>84.90787702901605</v>
+        <v>84.83595262985442</v>
       </c>
       <c r="F22">
-        <v>87.09952316461165</v>
+        <v>85.33256921133969</v>
       </c>
       <c r="G22">
-        <v>83.82340204078682</v>
+        <v>82.73657477689861</v>
       </c>
       <c r="H22">
-        <v>79.46277532496109</v>
+        <v>79.28016447009905</v>
       </c>
       <c r="I22">
-        <v>87.02601964133046</v>
+        <v>86.93344826143823</v>
       </c>
       <c r="J22">
-        <v>74.83755835405888</v>
+        <v>74.19671237447001</v>
       </c>
       <c r="K22">
-        <v>84.35652464761343</v>
+        <v>84.1332976648121</v>
       </c>
       <c r="L22">
-        <v>83.2787873914442</v>
+        <v>81.95495621124462</v>
       </c>
       <c r="M22">
-        <v>93.57035321114569</v>
+        <v>92.70853033087951</v>
       </c>
       <c r="N22">
-        <v>72.85499937346239</v>
+        <v>72.42238123979267</v>
       </c>
       <c r="O22">
-        <v>88.99320354224628</v>
+        <v>88.42386765723137</v>
       </c>
       <c r="P22">
-        <v>71.68358469304509</v>
+        <v>70.62423016520498</v>
       </c>
       <c r="Q22">
-        <v>67.04286444647839</v>
+        <v>65.96777504846513</v>
       </c>
       <c r="R22">
-        <v>76.21847083484211</v>
+        <v>76.09080012036334</v>
       </c>
       <c r="S22">
-        <v>55.92930738202857</v>
+        <v>46.98488585590145</v>
       </c>
       <c r="T22">
-        <v>78.54810141085666</v>
+        <v>78.36556343126175</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.5977232802399</v>
+        <v>12.3709979991555</v>
       </c>
       <c r="C23">
-        <v>11.52073855377626</v>
+        <v>11.45354858947086</v>
       </c>
       <c r="D23">
-        <v>12.6044576820025</v>
+        <v>12.44485070135974</v>
       </c>
       <c r="E23">
-        <v>17.52541334456737</v>
+        <v>17.51056778642867</v>
       </c>
       <c r="F23">
-        <v>25.37206531041245</v>
+        <v>24.85735214696401</v>
       </c>
       <c r="G23">
-        <v>11.29956306601076</v>
+        <v>11.15305656649898</v>
       </c>
       <c r="H23">
-        <v>10.19393164352885</v>
+        <v>10.17050529623331</v>
       </c>
       <c r="I23">
-        <v>8.067266884178181</v>
+        <v>8.05868556527488</v>
       </c>
       <c r="J23">
-        <v>12.20555235288334</v>
+        <v>12.10103425627467</v>
       </c>
       <c r="K23">
-        <v>10.80173517888505</v>
+        <v>10.77315127546947</v>
       </c>
       <c r="L23">
-        <v>7.785019298809908</v>
+        <v>7.66126568028305</v>
       </c>
       <c r="M23">
-        <v>10.36191044157294</v>
+        <v>10.26647282489894</v>
       </c>
       <c r="N23">
-        <v>24.59446410148239</v>
+        <v>24.44842043598666</v>
       </c>
       <c r="O23">
-        <v>7.936038228222918</v>
+        <v>7.885267257313521</v>
       </c>
       <c r="P23">
-        <v>9.516310197838061</v>
+        <v>9.375676239037324</v>
       </c>
       <c r="Q23">
-        <v>11.73421912552822</v>
+        <v>11.5460509337307</v>
       </c>
       <c r="R23">
-        <v>7.872253130211706</v>
+        <v>7.859066612945179</v>
       </c>
       <c r="S23">
-        <v>21.25937708969704</v>
+        <v>17.85949894040602</v>
       </c>
       <c r="T23">
-        <v>29.42766914395529</v>
+        <v>29.35928216612589</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2496741087449276</v>
+        <v>0.245180643439694</v>
       </c>
       <c r="C24">
-        <v>0.2994747485153002</v>
+        <v>0.2977281853440949</v>
       </c>
       <c r="D24">
-        <v>0.3171718101078496</v>
+        <v>0.3131555456850973</v>
       </c>
       <c r="E24">
-        <v>0.1249569830397404</v>
+        <v>0.1248511335444914</v>
       </c>
       <c r="F24">
-        <v>0.2056466648941474</v>
+        <v>0.2014747914520257</v>
       </c>
       <c r="G24">
-        <v>0.3633984488698879</v>
+        <v>0.3586867414913886</v>
       </c>
       <c r="H24">
-        <v>0.3763002556093188</v>
+        <v>0.3754354920633615</v>
       </c>
       <c r="I24">
-        <v>0.1401064704574067</v>
+        <v>0.1399574363023859</v>
       </c>
       <c r="J24">
-        <v>0.2121053060934209</v>
+        <v>0.2102890144392175</v>
       </c>
       <c r="K24">
-        <v>0.1509762018807597</v>
+        <v>0.1505766837384295</v>
       </c>
       <c r="L24">
-        <v>0.2221574461241557</v>
+        <v>0.2186259471277752</v>
       </c>
       <c r="M24">
-        <v>0.153732716340159</v>
+        <v>0.1523167724237302</v>
       </c>
       <c r="N24">
-        <v>0.1677148188679718</v>
+        <v>0.1667189164240574</v>
       </c>
       <c r="O24">
-        <v>0.3876024853351534</v>
+        <v>0.3851227903108304</v>
       </c>
       <c r="P24">
-        <v>0.2719413828268408</v>
+        <v>0.2679225780134611</v>
       </c>
       <c r="Q24">
-        <v>0.3307328170515676</v>
+        <v>0.3254292348117149</v>
       </c>
       <c r="R24">
-        <v>0.2679985923610084</v>
+        <v>0.2675496779260786</v>
       </c>
       <c r="S24">
-        <v>0.2696045256459157</v>
+        <v>0.2264883735674175</v>
       </c>
       <c r="T24">
-        <v>0.3859489300092182</v>
+        <v>0.3850520230611787</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.551669391373161</v>
+        <v>2.505746175953673</v>
       </c>
       <c r="C25">
-        <v>2.412304470324032</v>
+        <v>2.398235697692985</v>
       </c>
       <c r="D25">
-        <v>3.232488552883936</v>
+        <v>3.191556388176465</v>
       </c>
       <c r="E25">
-        <v>2.002455300536217</v>
+        <v>2.00075904573185</v>
       </c>
       <c r="F25">
-        <v>2.68156722556416</v>
+        <v>2.62716732028316</v>
       </c>
       <c r="G25">
-        <v>1.559268239816193</v>
+        <v>1.539051269453637</v>
       </c>
       <c r="H25">
-        <v>2.749951530879786</v>
+        <v>2.743631955483262</v>
       </c>
       <c r="I25">
-        <v>1.964674824368635</v>
+        <v>1.962584959058457</v>
       </c>
       <c r="J25">
-        <v>2.73204297251675</v>
+        <v>2.708648051657383</v>
       </c>
       <c r="K25">
-        <v>3.508360496677761</v>
+        <v>3.499076558873019</v>
       </c>
       <c r="L25">
-        <v>3.416211000321647</v>
+        <v>3.361905614976528</v>
       </c>
       <c r="M25">
-        <v>2.520728507609275</v>
+        <v>2.497511522439894</v>
       </c>
       <c r="N25">
-        <v>1.980783547957279</v>
+        <v>1.969021515302137</v>
       </c>
       <c r="O25">
-        <v>2.515327520866945</v>
+        <v>2.499235660329355</v>
       </c>
       <c r="P25">
-        <v>3.26329659392209</v>
+        <v>3.215070936161533</v>
       </c>
       <c r="Q25">
-        <v>2.192803882917243</v>
+        <v>2.157640406148904</v>
       </c>
       <c r="R25">
-        <v>3.02114977584879</v>
+        <v>3.01608916066975</v>
       </c>
       <c r="S25">
-        <v>0.7876087266060459</v>
+        <v>0.6616514283991972</v>
       </c>
       <c r="T25">
-        <v>3.320846982724948</v>
+        <v>3.313129664446307</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.86612727702137</v>
+        <v>27.36461161430425</v>
       </c>
       <c r="C26">
-        <v>26.69726990373273</v>
+        <v>26.54156906879839</v>
       </c>
       <c r="D26">
-        <v>29.55108901629513</v>
+        <v>29.17689123551072</v>
       </c>
       <c r="E26">
-        <v>28.84541575780271</v>
+        <v>28.8209811674026</v>
       </c>
       <c r="F26">
-        <v>28.133606238991</v>
+        <v>27.56287077503407</v>
       </c>
       <c r="G26">
-        <v>24.54916174154299</v>
+        <v>24.23086520815571</v>
       </c>
       <c r="H26">
-        <v>29.30829339137838</v>
+        <v>29.24094094252594</v>
       </c>
       <c r="I26">
-        <v>25.76446543382937</v>
+        <v>25.73705923822</v>
       </c>
       <c r="J26">
-        <v>26.81549246663166</v>
+        <v>26.58586711652823</v>
       </c>
       <c r="K26">
-        <v>28.75484580145171</v>
+        <v>28.67875379201926</v>
       </c>
       <c r="L26">
-        <v>30.92224187841749</v>
+        <v>30.43069019710029</v>
       </c>
       <c r="M26">
-        <v>26.23705025538714</v>
+        <v>25.99539582698329</v>
       </c>
       <c r="N26">
-        <v>27.37407889570655</v>
+        <v>27.21152968117589</v>
       </c>
       <c r="O26">
-        <v>24.70679639644794</v>
+        <v>24.54873414863171</v>
       </c>
       <c r="P26">
-        <v>25.25696548031818</v>
+        <v>24.88371293085866</v>
       </c>
       <c r="Q26">
-        <v>24.65469682545831</v>
+        <v>24.25933777588425</v>
       </c>
       <c r="R26">
-        <v>29.41654487869313</v>
+        <v>29.36727032278794</v>
       </c>
       <c r="S26">
-        <v>29.35660065207381</v>
+        <v>24.661784586987</v>
       </c>
       <c r="T26">
-        <v>30.42813870038695</v>
+        <v>30.35742673076021</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.56096425982556</v>
+        <v>7.424887152165402</v>
       </c>
       <c r="C27">
-        <v>8.049661153661914</v>
+        <v>8.002714819183401</v>
       </c>
       <c r="D27">
-        <v>7.81774401239584</v>
+        <v>7.718749946269683</v>
       </c>
       <c r="E27">
-        <v>6.574780629625586</v>
+        <v>6.56921121530324</v>
       </c>
       <c r="F27">
-        <v>8.063471015155041</v>
+        <v>7.899890533085181</v>
       </c>
       <c r="G27">
-        <v>6.236312711463786</v>
+        <v>6.155454687141969</v>
       </c>
       <c r="H27">
-        <v>7.427913360162373</v>
+        <v>7.410843510751836</v>
       </c>
       <c r="I27">
-        <v>6.191750722827894</v>
+        <v>6.185164429317941</v>
       </c>
       <c r="J27">
-        <v>7.981649298328916</v>
+        <v>7.913301159028016</v>
       </c>
       <c r="K27">
-        <v>8.07355440652084</v>
+        <v>8.052189903915043</v>
       </c>
       <c r="L27">
-        <v>7.393434384046319</v>
+        <v>7.275905547797128</v>
       </c>
       <c r="M27">
-        <v>6.615387206320176</v>
+        <v>6.554456667313215</v>
       </c>
       <c r="N27">
-        <v>7.502654859216996</v>
+        <v>7.45810356458141</v>
       </c>
       <c r="O27">
-        <v>6.370909205160717</v>
+        <v>6.330151179982447</v>
       </c>
       <c r="P27">
-        <v>8.062406720375282</v>
+        <v>7.943258841525596</v>
       </c>
       <c r="Q27">
-        <v>7.624977138325868</v>
+        <v>7.502704139563234</v>
       </c>
       <c r="R27">
-        <v>7.667554818868482</v>
+        <v>7.6547111840998</v>
       </c>
       <c r="S27">
-        <v>6.625001096490085</v>
+        <v>5.565506438111708</v>
       </c>
       <c r="T27">
-        <v>8.283850456484265</v>
+        <v>8.264599611480593</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6874360460777008</v>
+        <v>0.6750640382706242</v>
       </c>
       <c r="C28">
-        <v>0.5085568564026227</v>
+        <v>0.5055909079202872</v>
       </c>
       <c r="D28">
-        <v>0.3105120345675273</v>
+        <v>0.3065801011562764</v>
       </c>
       <c r="E28">
-        <v>0.6884422461812112</v>
+        <v>0.687859075377198</v>
       </c>
       <c r="F28">
-        <v>0.1999342575359766</v>
+        <v>0.1958782694672472</v>
       </c>
       <c r="G28">
-        <v>0.2904146599755171</v>
+        <v>0.2866492369240805</v>
       </c>
       <c r="H28">
-        <v>0.7306144288684302</v>
+        <v>0.7289354272870658</v>
       </c>
       <c r="I28">
-        <v>0.34469375970487</v>
+        <v>0.3443271018121199</v>
       </c>
       <c r="J28">
-        <v>0.6363159182802627</v>
+        <v>0.6308670433176524</v>
       </c>
       <c r="K28">
-        <v>0.7516166590928631</v>
+        <v>0.7496277066113165</v>
       </c>
       <c r="L28">
-        <v>0.5661989385654552</v>
+        <v>0.5571984255591159</v>
       </c>
       <c r="M28">
-        <v>0.4595713477893643</v>
+        <v>0.455338499573585</v>
       </c>
       <c r="N28">
-        <v>0.58978386540301</v>
+        <v>0.5862816871405241</v>
       </c>
       <c r="O28">
-        <v>0.1619098989374691</v>
+        <v>0.1608740769652836</v>
       </c>
       <c r="P28">
-        <v>0.493917632062003</v>
+        <v>0.4866184172955333</v>
       </c>
       <c r="Q28">
-        <v>0.7286693343716045</v>
+        <v>0.7169845013545773</v>
       </c>
       <c r="R28">
-        <v>0.6683523177592018</v>
+        <v>0.6672327857481652</v>
       </c>
       <c r="S28">
-        <v>0.1999314459846117</v>
+        <v>0.1679576702859501</v>
       </c>
       <c r="T28">
-        <v>0.2304452349084167</v>
+        <v>0.2299097030899271</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.62280108006752</v>
+        <v>10.43161910954752</v>
       </c>
       <c r="C29">
-        <v>10.67890796149309</v>
+        <v>10.61662762751935</v>
       </c>
       <c r="D29">
-        <v>10.26521152346429</v>
+        <v>10.13522581061138</v>
       </c>
       <c r="E29">
-        <v>12.36445417713356</v>
+        <v>12.35398040286468</v>
       </c>
       <c r="F29">
-        <v>15.15093643025691</v>
+        <v>14.84357530991392</v>
       </c>
       <c r="G29">
-        <v>9.966088423086529</v>
+        <v>9.836871326800448</v>
       </c>
       <c r="H29">
-        <v>9.342393761734279</v>
+        <v>9.320924306328131</v>
       </c>
       <c r="I29">
-        <v>9.276481251364549</v>
+        <v>9.266613666089222</v>
       </c>
       <c r="J29">
-        <v>11.72514966333593</v>
+        <v>11.62474533177988</v>
       </c>
       <c r="K29">
-        <v>11.51989224729083</v>
+        <v>11.48940793325227</v>
       </c>
       <c r="L29">
-        <v>9.028928111933098</v>
+        <v>8.885400847274756</v>
       </c>
       <c r="M29">
-        <v>11.30301495377169</v>
+        <v>11.19890936296378</v>
       </c>
       <c r="N29">
-        <v>9.785484052528917</v>
+        <v>9.727377156855784</v>
       </c>
       <c r="O29">
-        <v>11.44081513148551</v>
+        <v>11.36762227687516</v>
       </c>
       <c r="P29">
-        <v>10.08067047725882</v>
+        <v>9.931696287986947</v>
       </c>
       <c r="Q29">
-        <v>9.924249804814506</v>
+        <v>9.76510601171317</v>
       </c>
       <c r="R29">
-        <v>8.415649049078658</v>
+        <v>8.401552309598976</v>
       </c>
       <c r="S29">
-        <v>11.00001610957002</v>
+        <v>9.240852882209943</v>
       </c>
       <c r="T29">
-        <v>13.03420731103947</v>
+        <v>13.00391710891563</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>21.44534144713099</v>
+        <v>21.05938273384679</v>
       </c>
       <c r="C30">
-        <v>24.75579318763617</v>
+        <v>24.61141521630517</v>
       </c>
       <c r="D30">
-        <v>25.94232314538298</v>
+        <v>25.61382223145588</v>
       </c>
       <c r="E30">
-        <v>23.71117695152206</v>
+        <v>23.6910915105085</v>
       </c>
       <c r="F30">
-        <v>26.29910741882415</v>
+        <v>25.76558771477949</v>
       </c>
       <c r="G30">
-        <v>21.61840646875341</v>
+        <v>21.33810916537475</v>
       </c>
       <c r="H30">
-        <v>22.4765411103274</v>
+        <v>22.42488849223404</v>
       </c>
       <c r="I30">
-        <v>19.38166043310501</v>
+        <v>19.3610437593988</v>
       </c>
       <c r="J30">
-        <v>29.11145326132202</v>
+        <v>28.8621672317826</v>
       </c>
       <c r="K30">
-        <v>26.97985531988062</v>
+        <v>26.90846034806745</v>
       </c>
       <c r="L30">
-        <v>20.59408169829527</v>
+        <v>20.26671036720668</v>
       </c>
       <c r="M30">
-        <v>20.95564005857946</v>
+        <v>20.76262967170668</v>
       </c>
       <c r="N30">
-        <v>29.44547613727022</v>
+        <v>29.2706268195697</v>
       </c>
       <c r="O30">
-        <v>21.39909164290217</v>
+        <v>21.26219050557831</v>
       </c>
       <c r="P30">
-        <v>29.9667936467469</v>
+        <v>29.52393830307975</v>
       </c>
       <c r="Q30">
-        <v>25.28973403810754</v>
+        <v>24.88419162628756</v>
       </c>
       <c r="R30">
-        <v>27.04155121816874</v>
+        <v>26.99625492546143</v>
       </c>
       <c r="S30">
-        <v>22.43018775444025</v>
+        <v>18.84306923685329</v>
       </c>
       <c r="T30">
-        <v>25.15038075943565</v>
+        <v>25.09193377462749</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.21749677687159</v>
+        <v>10.03360919836374</v>
       </c>
       <c r="C31">
-        <v>9.613060825044938</v>
+        <v>9.55699660566478</v>
       </c>
       <c r="D31">
-        <v>11.67625146607007</v>
+        <v>11.52839812015532</v>
       </c>
       <c r="E31">
-        <v>9.206736203211062</v>
+        <v>9.198937292287528</v>
       </c>
       <c r="F31">
-        <v>11.22814469158164</v>
+        <v>11.00036371265247</v>
       </c>
       <c r="G31">
-        <v>9.39438207674729</v>
+        <v>9.272577541023201</v>
       </c>
       <c r="H31">
-        <v>10.13220148923788</v>
+        <v>10.10891700202966</v>
       </c>
       <c r="I31">
-        <v>7.717796767525899</v>
+        <v>7.709587187225178</v>
       </c>
       <c r="J31">
-        <v>9.782170086995082</v>
+        <v>9.698403800256447</v>
       </c>
       <c r="K31">
-        <v>10.25169215149245</v>
+        <v>10.22456378984947</v>
       </c>
       <c r="L31">
-        <v>9.222559504663879</v>
+        <v>9.075954201969783</v>
       </c>
       <c r="M31">
-        <v>10.17482829999497</v>
+        <v>10.08111378967429</v>
       </c>
       <c r="N31">
-        <v>11.44435053109506</v>
+        <v>11.37639316906909</v>
       </c>
       <c r="O31">
-        <v>10.5249611576978</v>
+        <v>10.45762749808164</v>
       </c>
       <c r="P31">
-        <v>11.54686046298185</v>
+        <v>11.37621862125229</v>
       </c>
       <c r="Q31">
-        <v>10.2587581106452</v>
+        <v>10.09425019212776</v>
       </c>
       <c r="R31">
-        <v>9.473668031804479</v>
+        <v>9.457799044233525</v>
       </c>
       <c r="S31">
-        <v>9.932200432152204</v>
+        <v>8.343806234091799</v>
       </c>
       <c r="T31">
-        <v>12.44216914655931</v>
+        <v>12.4132547822781</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>9.111440475131561</v>
+        <v>8.947458947925902</v>
       </c>
       <c r="C32">
-        <v>12.58972978207234</v>
+        <v>12.51630536655215</v>
       </c>
       <c r="D32">
-        <v>14.57908112970806</v>
+        <v>14.39447000415515</v>
       </c>
       <c r="E32">
-        <v>9.638191446536958</v>
+        <v>9.630027055280772</v>
       </c>
       <c r="F32">
-        <v>11.08778268220945</v>
+        <v>10.86284917245505</v>
       </c>
       <c r="G32">
-        <v>11.63407209844329</v>
+        <v>11.48322846243247</v>
       </c>
       <c r="H32">
-        <v>12.10672080799689</v>
+        <v>12.07889874128348</v>
       </c>
       <c r="I32">
-        <v>10.05900773124881</v>
+        <v>10.0483077563463</v>
       </c>
       <c r="J32">
-        <v>16.63048058560095</v>
+        <v>16.4880711209376</v>
       </c>
       <c r="K32">
-        <v>12.47961123870582</v>
+        <v>12.44658728501656</v>
       </c>
       <c r="L32">
-        <v>9.331477163074945</v>
+        <v>9.183140463985735</v>
       </c>
       <c r="M32">
-        <v>9.631476688803296</v>
+        <v>9.542766678674019</v>
       </c>
       <c r="N32">
-        <v>16.53938365405099</v>
+        <v>16.44117162536391</v>
       </c>
       <c r="O32">
-        <v>14.05508759059201</v>
+        <v>13.96516987312775</v>
       </c>
       <c r="P32">
-        <v>19.31357188456048</v>
+        <v>19.0281520089741</v>
       </c>
       <c r="Q32">
-        <v>15.01134338581088</v>
+        <v>14.77062371702486</v>
       </c>
       <c r="R32">
-        <v>16.58878403451775</v>
+        <v>16.56099678181085</v>
       </c>
       <c r="S32">
-        <v>8.882560340732994</v>
+        <v>7.462028465090561</v>
       </c>
       <c r="T32">
-        <v>16.04029982657244</v>
+        <v>16.00302376426351</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.458457724108388</v>
+        <v>2.414212069069521</v>
       </c>
       <c r="C33">
-        <v>2.933437694118373</v>
+        <v>2.916329626520111</v>
       </c>
       <c r="D33">
-        <v>2.559018751368844</v>
+        <v>2.526614560199447</v>
       </c>
       <c r="E33">
-        <v>4.41593262704592</v>
+        <v>4.412191945827027</v>
       </c>
       <c r="F33">
-        <v>4.021534780152215</v>
+        <v>3.939951477284057</v>
       </c>
       <c r="G33">
-        <v>2.304311084779561</v>
+        <v>2.274434128578241</v>
       </c>
       <c r="H33">
-        <v>2.867492509598202</v>
+        <v>2.860902817049121</v>
       </c>
       <c r="I33">
-        <v>2.029155643158691</v>
+        <v>2.026997188265805</v>
       </c>
       <c r="J33">
-        <v>4.948068558567415</v>
+        <v>4.905697456246221</v>
       </c>
       <c r="K33">
-        <v>2.790203428271985</v>
+        <v>2.782819901090218</v>
       </c>
       <c r="L33">
-        <v>1.959653425538758</v>
+        <v>1.928502031667963</v>
       </c>
       <c r="M33">
-        <v>2.874557775376307</v>
+        <v>2.848081871669114</v>
       </c>
       <c r="N33">
-        <v>5.735687833892345</v>
+        <v>5.701628914293829</v>
       </c>
       <c r="O33">
-        <v>1.658349873965593</v>
+        <v>1.647740545886844</v>
       </c>
       <c r="P33">
-        <v>4.333041913114421</v>
+        <v>4.269007342443401</v>
       </c>
       <c r="Q33">
-        <v>3.944630676432396</v>
+        <v>3.881375165882188</v>
       </c>
       <c r="R33">
-        <v>2.023142747854115</v>
+        <v>2.019753856981839</v>
       </c>
       <c r="S33">
-        <v>1.500243160967862</v>
+        <v>1.260318730441163</v>
       </c>
       <c r="T33">
-        <v>2.34473342673076</v>
+        <v>2.339284499325559</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.246706049666339</v>
+        <v>1.224268679575539</v>
       </c>
       <c r="C34">
-        <v>1.48715544407073</v>
+        <v>1.478482222233668</v>
       </c>
       <c r="D34">
-        <v>1.297823758420308</v>
+        <v>1.281389752553981</v>
       </c>
       <c r="E34">
-        <v>2.239009086039122</v>
+        <v>2.237112449485887</v>
       </c>
       <c r="F34">
-        <v>2.039329426866961</v>
+        <v>1.997958348565921</v>
       </c>
       <c r="G34">
-        <v>1.168500870110916</v>
+        <v>1.153350463749507</v>
       </c>
       <c r="H34">
-        <v>1.453618290769481</v>
+        <v>1.450277777206558</v>
       </c>
       <c r="I34">
-        <v>1.028508862675963</v>
+        <v>1.027414816492515</v>
       </c>
       <c r="J34">
-        <v>2.508857538493075</v>
+        <v>2.487373790195221</v>
       </c>
       <c r="K34">
-        <v>1.415095859790472</v>
+        <v>1.411351187040198</v>
       </c>
       <c r="L34">
-        <v>0.9932253136056611</v>
+        <v>0.977436627431182</v>
       </c>
       <c r="M34">
-        <v>1.457613903077064</v>
+        <v>1.444188657054627</v>
       </c>
       <c r="N34">
-        <v>2.908381621980611</v>
+        <v>2.891111446424768</v>
       </c>
       <c r="O34">
-        <v>0.8406231116551426</v>
+        <v>0.835245207678341</v>
       </c>
       <c r="P34">
-        <v>2.196827676932491</v>
+        <v>2.164362512747297</v>
       </c>
       <c r="Q34">
-        <v>2.000253955181742</v>
+        <v>1.968178180402358</v>
       </c>
       <c r="R34">
-        <v>1.025957801431099</v>
+        <v>1.024239257827442</v>
       </c>
       <c r="S34">
-        <v>0.7603453476081443</v>
+        <v>0.6387481097238403</v>
       </c>
       <c r="T34">
-        <v>1.188760175198296</v>
+        <v>1.18599761471999</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.366439232910774</v>
+        <v>3.305852342378541</v>
       </c>
       <c r="C35">
-        <v>4.315266061283459</v>
+        <v>4.290099048659005</v>
       </c>
       <c r="D35">
-        <v>4.852478953067337</v>
+        <v>4.791033269812159</v>
       </c>
       <c r="E35">
-        <v>4.380567443166748</v>
+        <v>4.376856719352171</v>
       </c>
       <c r="F35">
-        <v>4.938784190235634</v>
+        <v>4.838593007411346</v>
       </c>
       <c r="G35">
-        <v>3.378541227568581</v>
+        <v>3.334736148928308</v>
       </c>
       <c r="H35">
-        <v>5.783185276656474</v>
+        <v>5.769895124092875</v>
       </c>
       <c r="I35">
-        <v>3.388825254188525</v>
+        <v>3.385220490563959</v>
       </c>
       <c r="J35">
-        <v>7.40073401969992</v>
+        <v>7.337360350825084</v>
       </c>
       <c r="K35">
-        <v>3.359832557530203</v>
+        <v>3.350941659195211</v>
       </c>
       <c r="L35">
-        <v>2.909657446124156</v>
+        <v>2.863404428140434</v>
       </c>
       <c r="M35">
-        <v>4.457435373249056</v>
+        <v>4.416380491439374</v>
       </c>
       <c r="N35">
-        <v>5.850147236342525</v>
+        <v>5.815408648725414</v>
       </c>
       <c r="O35">
-        <v>2.913560454112134</v>
+        <v>2.894920890036896</v>
       </c>
       <c r="P35">
-        <v>6.353762971650012</v>
+        <v>6.259865776055475</v>
       </c>
       <c r="Q35">
-        <v>8.039525806274066</v>
+        <v>7.91060516675874</v>
       </c>
       <c r="R35">
-        <v>6.810945821199246</v>
+        <v>6.799537060176567</v>
       </c>
       <c r="S35">
-        <v>2.199245905830728</v>
+        <v>1.847534373145451</v>
       </c>
       <c r="T35">
-        <v>3.437006369426751</v>
+        <v>3.429019108280254</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.267040907403943</v>
+        <v>2.226240242432422</v>
       </c>
       <c r="C36">
-        <v>1.994140254549387</v>
+        <v>1.9825102525406</v>
       </c>
       <c r="D36">
-        <v>3.67702857020045</v>
+        <v>3.630467310475262</v>
       </c>
       <c r="E36">
-        <v>2.419764470310445</v>
+        <v>2.417714718135151</v>
       </c>
       <c r="F36">
-        <v>3.007174444979893</v>
+        <v>2.946169073415534</v>
       </c>
       <c r="G36">
-        <v>1.60640360347714</v>
+        <v>1.585575491153356</v>
       </c>
       <c r="H36">
-        <v>2.309384265323707</v>
+        <v>2.304077143427056</v>
       </c>
       <c r="I36">
-        <v>1.682073704980116</v>
+        <v>1.680284448334894</v>
       </c>
       <c r="J36">
-        <v>2.594332811097887</v>
+        <v>2.57211712437222</v>
       </c>
       <c r="K36">
-        <v>2.73797382329702</v>
+        <v>2.730728507796924</v>
       </c>
       <c r="L36">
-        <v>1.926805242843358</v>
+        <v>1.896176016139342</v>
       </c>
       <c r="M36">
-        <v>2.16039203491779</v>
+        <v>2.140493902420251</v>
       </c>
       <c r="N36">
-        <v>2.696949670232362</v>
+        <v>2.680934992544203</v>
       </c>
       <c r="O36">
-        <v>2.3787671515611</v>
+        <v>2.363548938848535</v>
       </c>
       <c r="P36">
-        <v>3.021661931470529</v>
+        <v>2.977007199673669</v>
       </c>
       <c r="Q36">
-        <v>3.048329640267531</v>
+        <v>2.999447079760029</v>
       </c>
       <c r="R36">
-        <v>2.817273546077226</v>
+        <v>2.812554436357887</v>
       </c>
       <c r="S36">
-        <v>1.045853511002836</v>
+        <v>0.8785967525185494</v>
       </c>
       <c r="T36">
-        <v>1.634662337053606</v>
+        <v>1.630863544276109</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>100.5945306603605</v>
+        <v>98.78409851066418</v>
       </c>
       <c r="C37">
-        <v>87.73981313128709</v>
+        <v>87.22810679536639</v>
       </c>
       <c r="D37">
-        <v>100.9172437063889</v>
+        <v>99.63935480635594</v>
       </c>
       <c r="E37">
-        <v>81.77059227244597</v>
+        <v>81.70132542790719</v>
       </c>
       <c r="F37">
-        <v>91.78940960566985</v>
+        <v>89.92731376084284</v>
       </c>
       <c r="G37">
-        <v>78.60202014363539</v>
+        <v>77.58289163764576</v>
       </c>
       <c r="H37">
-        <v>91.68872834878026</v>
+        <v>91.47802142347452</v>
       </c>
       <c r="I37">
-        <v>88.13493051262118</v>
+        <v>88.04117956126336</v>
       </c>
       <c r="J37">
-        <v>82.39895422874748</v>
+        <v>81.69335880712778</v>
       </c>
       <c r="K37">
-        <v>95.56956796567633</v>
+        <v>95.31666866246627</v>
       </c>
       <c r="L37">
-        <v>98.03885895786426</v>
+        <v>96.48039608364446</v>
       </c>
       <c r="M37">
-        <v>80.25091813140968</v>
+        <v>79.51177293173357</v>
       </c>
       <c r="N37">
-        <v>94.34793161132947</v>
+        <v>93.78768692750124</v>
       </c>
       <c r="O37">
-        <v>92.99352286346901</v>
+        <v>92.39859485174738</v>
       </c>
       <c r="P37">
-        <v>94.02209491127884</v>
+        <v>92.63261735672037</v>
       </c>
       <c r="Q37">
-        <v>98.56593045892542</v>
+        <v>96.98534186509676</v>
       </c>
       <c r="R37">
-        <v>97.65589197900781</v>
+        <v>97.49231224084907</v>
       </c>
       <c r="S37">
-        <v>77.9747785661651</v>
+        <v>65.5047638181136</v>
       </c>
       <c r="T37">
-        <v>100.639930576894</v>
+        <v>100.4060533823583</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>8.080286406015007</v>
+        <v>7.934862890519964</v>
       </c>
       <c r="C38">
-        <v>12.31697981426444</v>
+        <v>12.24514610063508</v>
       </c>
       <c r="D38">
-        <v>7.475598044011783</v>
+        <v>7.380936483601508</v>
       </c>
       <c r="E38">
-        <v>6.887566033712482</v>
+        <v>6.881731662791967</v>
       </c>
       <c r="F38">
-        <v>6.711262587656619</v>
+        <v>6.575113828974043</v>
       </c>
       <c r="G38">
-        <v>5.330097332692017</v>
+        <v>5.260989005431226</v>
       </c>
       <c r="H38">
-        <v>12.27246204417538</v>
+        <v>12.24425909284397</v>
       </c>
       <c r="I38">
-        <v>9.440469506559014</v>
+        <v>9.430427483579514</v>
       </c>
       <c r="J38">
-        <v>7.222660535106562</v>
+        <v>7.160811737956338</v>
       </c>
       <c r="K38">
-        <v>7.053444934353545</v>
+        <v>7.034779878655384</v>
       </c>
       <c r="L38">
-        <v>12.14086120939209</v>
+        <v>11.94786547630196</v>
       </c>
       <c r="M38">
-        <v>8.417882970393153</v>
+        <v>8.340350676260233</v>
       </c>
       <c r="N38">
-        <v>9.930942876476021</v>
+        <v>9.871972236029256</v>
       </c>
       <c r="O38">
-        <v>6.079798477778197</v>
+        <v>6.04090283958022</v>
       </c>
       <c r="P38">
-        <v>13.22437839078116</v>
+        <v>13.02894584947991</v>
       </c>
       <c r="Q38">
-        <v>8.95092879755544</v>
+        <v>8.807393035292392</v>
       </c>
       <c r="R38">
-        <v>13.63915535540334</v>
+        <v>13.61630891555696</v>
       </c>
       <c r="S38">
-        <v>6.025206758536251</v>
+        <v>5.061633427253859</v>
       </c>
       <c r="T38">
-        <v>7.299305977261719</v>
+        <v>7.282343115758993</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>27.16537527847727</v>
+        <v>26.67647127505017</v>
       </c>
       <c r="C39">
-        <v>25.34452438616099</v>
+        <v>25.19671288250655</v>
       </c>
       <c r="D39">
-        <v>28.61122819316715</v>
+        <v>28.24893162638087</v>
       </c>
       <c r="E39">
-        <v>28.06895349841112</v>
+        <v>28.04517663946576</v>
       </c>
       <c r="F39">
-        <v>29.9566802444415</v>
+        <v>29.34896079131909</v>
       </c>
       <c r="G39">
-        <v>30.06856077667979</v>
+        <v>29.6787014910584</v>
       </c>
       <c r="H39">
-        <v>26.79934314779894</v>
+        <v>26.73775643701585</v>
       </c>
       <c r="I39">
-        <v>27.7562062809</v>
+        <v>27.72668142929141</v>
       </c>
       <c r="J39">
-        <v>22.69843350283325</v>
+        <v>22.50406318700282</v>
       </c>
       <c r="K39">
-        <v>32.22893061986465</v>
+        <v>32.14364537404355</v>
       </c>
       <c r="L39">
-        <v>28.29611611450627</v>
+        <v>27.84631032404901</v>
       </c>
       <c r="M39">
-        <v>33.22985534732549</v>
+        <v>32.92379420014101</v>
       </c>
       <c r="N39">
-        <v>20.60507701191675</v>
+        <v>20.48272260881915</v>
       </c>
       <c r="O39">
-        <v>30.9174311561958</v>
+        <v>30.71963624232529</v>
       </c>
       <c r="P39">
-        <v>26.11292555578218</v>
+        <v>25.72702345502753</v>
       </c>
       <c r="Q39">
-        <v>24.29753558695284</v>
+        <v>23.90790392185242</v>
       </c>
       <c r="R39">
-        <v>28.99235078771682</v>
+        <v>28.94378678349391</v>
       </c>
       <c r="S39">
-        <v>32.06930686236502</v>
+        <v>26.940664795185</v>
       </c>
       <c r="T39">
-        <v>31.6665476457078</v>
+        <v>31.59295773679633</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.523623532466949</v>
+        <v>5.424213101697497</v>
       </c>
       <c r="C40">
-        <v>6.192288894497468</v>
+        <v>6.156174919004672</v>
       </c>
       <c r="D40">
-        <v>6.146140351774943</v>
+        <v>6.068313369535627</v>
       </c>
       <c r="E40">
-        <v>4.751508927410506</v>
+        <v>4.747483983710661</v>
       </c>
       <c r="F40">
-        <v>4.977954983548806</v>
+        <v>4.876969158164113</v>
       </c>
       <c r="G40">
-        <v>4.166157949386999</v>
+        <v>4.112140885717176</v>
       </c>
       <c r="H40">
-        <v>6.306623160301797</v>
+        <v>6.292130111929326</v>
       </c>
       <c r="I40">
-        <v>5.082043792045935</v>
+        <v>5.076637916786543</v>
       </c>
       <c r="J40">
-        <v>5.001886322800075</v>
+        <v>4.959054370357665</v>
       </c>
       <c r="K40">
-        <v>6.222667780220499</v>
+        <v>6.206201154083917</v>
       </c>
       <c r="L40">
-        <v>5.693108716629141</v>
+        <v>5.602608901881431</v>
       </c>
       <c r="M40">
-        <v>6.185098280690843</v>
+        <v>6.128130886296532</v>
       </c>
       <c r="N40">
-        <v>4.479018977824746</v>
+        <v>4.452422246680395</v>
       </c>
       <c r="O40">
-        <v>6.383175106595373</v>
+        <v>6.342338610055575</v>
       </c>
       <c r="P40">
-        <v>6.797715470120336</v>
+        <v>6.69725745461962</v>
       </c>
       <c r="Q40">
-        <v>5.15807277004397</v>
+        <v>5.075358682645717</v>
       </c>
       <c r="R40">
-        <v>6.219869171176041</v>
+        <v>6.209450500578866</v>
       </c>
       <c r="S40">
-        <v>4.333362628499803</v>
+        <v>3.64035526278866</v>
       </c>
       <c r="T40">
-        <v>7.942866450359614</v>
+        <v>7.924408018290618</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.818820687730233</v>
+        <v>2.768089464434146</v>
       </c>
       <c r="C41">
-        <v>3.974132095783091</v>
+        <v>3.950954606561007</v>
       </c>
       <c r="D41">
-        <v>3.502209462266989</v>
+        <v>3.457861891593713</v>
       </c>
       <c r="E41">
-        <v>4.776657502613473</v>
+        <v>4.772611255870559</v>
       </c>
       <c r="F41">
-        <v>3.286266347336236</v>
+        <v>3.219599147528997</v>
       </c>
       <c r="G41">
-        <v>2.262497455725494</v>
+        <v>2.233162641586554</v>
       </c>
       <c r="H41">
-        <v>3.086507714548345</v>
+        <v>3.079414710182628</v>
       </c>
       <c r="I41">
-        <v>2.505995278408616</v>
+        <v>2.503329599317675</v>
       </c>
       <c r="J41">
-        <v>4.219945866007911</v>
+        <v>4.183809794738461</v>
       </c>
       <c r="K41">
-        <v>3.197431129561169</v>
+        <v>3.188969983173874</v>
       </c>
       <c r="L41">
-        <v>2.486953200385976</v>
+        <v>2.447419649364238</v>
       </c>
       <c r="M41">
-        <v>2.044075746893226</v>
+        <v>2.02524893704145</v>
       </c>
       <c r="N41">
-        <v>4.515582398051887</v>
+        <v>4.488768550734929</v>
       </c>
       <c r="O41">
-        <v>3.219390263216242</v>
+        <v>3.198794146526876</v>
       </c>
       <c r="P41">
-        <v>3.702334489088314</v>
+        <v>3.647620640424229</v>
       </c>
       <c r="Q41">
-        <v>2.691923499517896</v>
+        <v>2.648756214848775</v>
       </c>
       <c r="R41">
-        <v>3.39355272781056</v>
+        <v>3.387868314352307</v>
       </c>
       <c r="S41">
-        <v>1.856181720107133</v>
+        <v>1.559334279813877</v>
       </c>
       <c r="T41">
-        <v>1.540048643046492</v>
+        <v>1.536469723088781</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.63065223236788</v>
+        <v>11.42133164023241</v>
       </c>
       <c r="C42">
-        <v>10.12240370440954</v>
+        <v>10.06336895239174</v>
       </c>
       <c r="D42">
-        <v>12.81424061152265</v>
+        <v>12.6519772040176</v>
       </c>
       <c r="E42">
-        <v>14.105993009939</v>
+        <v>14.09404399993759</v>
       </c>
       <c r="F42">
-        <v>9.711092508890294</v>
+        <v>9.514087374123434</v>
       </c>
       <c r="G42">
-        <v>10.77119084432756</v>
+        <v>10.63153504905857</v>
       </c>
       <c r="H42">
-        <v>11.24757235923494</v>
+        <v>11.22172467401072</v>
       </c>
       <c r="I42">
-        <v>11.0676151066439</v>
+        <v>11.05584225518222</v>
       </c>
       <c r="J42">
-        <v>15.49635034816858</v>
+        <v>15.36365262208909</v>
       </c>
       <c r="K42">
-        <v>12.53918563188039</v>
+        <v>12.50600403049172</v>
       </c>
       <c r="L42">
-        <v>11.90141524605983</v>
+        <v>11.7122258367907</v>
       </c>
       <c r="M42">
-        <v>11.08502358880258</v>
+        <v>10.98292579148463</v>
       </c>
       <c r="N42">
-        <v>13.97596995334383</v>
+        <v>13.89297965632323</v>
       </c>
       <c r="O42">
-        <v>12.50140674220216</v>
+        <v>12.42142873053159</v>
       </c>
       <c r="P42">
-        <v>10.79246885580257</v>
+        <v>10.63297556598001</v>
       </c>
       <c r="Q42">
-        <v>11.97434021188073</v>
+        <v>11.78232147407346</v>
       </c>
       <c r="R42">
-        <v>10.93204073992849</v>
+        <v>10.91372888669016</v>
       </c>
       <c r="S42">
-        <v>7.983626149885516</v>
+        <v>6.706855152100323</v>
       </c>
       <c r="T42">
-        <v>10.10118279681893</v>
+        <v>10.07770865210847</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.279163683803179</v>
+        <v>1.256142163222699</v>
       </c>
       <c r="C43">
-        <v>1.258422762133847</v>
+        <v>1.25108352949054</v>
       </c>
       <c r="D43">
-        <v>0.9015671137711315</v>
+        <v>0.890150803089135</v>
       </c>
       <c r="E43">
-        <v>0.8236158378971568</v>
+        <v>0.8229181632366479</v>
       </c>
       <c r="F43">
-        <v>0.8870552569045167</v>
+        <v>0.8690599139220313</v>
       </c>
       <c r="G43">
-        <v>1.856525130000557</v>
+        <v>1.832454022430902</v>
       </c>
       <c r="H43">
-        <v>1.176255405736095</v>
+        <v>1.173552290921654</v>
       </c>
       <c r="I43">
-        <v>0.6631175561989762</v>
+        <v>0.6624121843175423</v>
       </c>
       <c r="J43">
-        <v>0.5959525951057683</v>
+        <v>0.59084935773407</v>
       </c>
       <c r="K43">
-        <v>0.8723976205974706</v>
+        <v>0.8700890536020601</v>
       </c>
       <c r="L43">
-        <v>0.7581014795754262</v>
+        <v>0.7460504110157933</v>
       </c>
       <c r="M43">
-        <v>0.64339988690511</v>
+        <v>0.637473899403019</v>
       </c>
       <c r="N43">
-        <v>0.9077266499868429</v>
+        <v>0.9023365050060357</v>
       </c>
       <c r="O43">
-        <v>1.246215585761126</v>
+        <v>1.238242895429759</v>
       </c>
       <c r="P43">
-        <v>0.5332344584947992</v>
+        <v>0.525354211707118</v>
       </c>
       <c r="Q43">
-        <v>0.741505996220638</v>
+        <v>0.729615316404347</v>
       </c>
       <c r="R43">
-        <v>0.7604254537850697</v>
+        <v>0.75915169350191</v>
       </c>
       <c r="S43">
-        <v>0.5233054135430555</v>
+        <v>0.4396164779075435</v>
       </c>
       <c r="T43">
-        <v>0.8927410929582159</v>
+        <v>0.8906664514012216</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.570590295137346</v>
+        <v>6.452337266521281</v>
       </c>
       <c r="C44">
-        <v>6.217441629280905</v>
+        <v>6.181180960818349</v>
       </c>
       <c r="D44">
-        <v>7.586316812369641</v>
+        <v>7.490253248893155</v>
       </c>
       <c r="E44">
-        <v>8.301387495904264</v>
+        <v>8.294355494531214</v>
       </c>
       <c r="F44">
-        <v>5.092203130712221</v>
+        <v>4.988899597859683</v>
       </c>
       <c r="G44">
-        <v>5.985430937139388</v>
+        <v>5.907825765191848</v>
       </c>
       <c r="H44">
-        <v>5.685093524632473</v>
+        <v>5.672028793577482</v>
       </c>
       <c r="I44">
-        <v>4.634658357971715</v>
+        <v>4.629728375866425</v>
       </c>
       <c r="J44">
-        <v>5.661153934650147</v>
+        <v>5.612676568222844</v>
       </c>
       <c r="K44">
-        <v>6.664171159774504</v>
+        <v>6.646536213016298</v>
       </c>
       <c r="L44">
-        <v>4.813987616596976</v>
+        <v>4.737462644181246</v>
       </c>
       <c r="M44">
-        <v>6.759359115273659</v>
+        <v>6.697102533551313</v>
       </c>
       <c r="N44">
-        <v>4.941625729394223</v>
+        <v>4.912282006674714</v>
       </c>
       <c r="O44">
-        <v>7.736512898219169</v>
+        <v>7.687018394790647</v>
       </c>
       <c r="P44">
-        <v>5.783668988374465</v>
+        <v>5.698196757087496</v>
       </c>
       <c r="Q44">
-        <v>5.252459989522157</v>
+        <v>5.168232322717554</v>
       </c>
       <c r="R44">
-        <v>4.331547801074089</v>
+        <v>4.324292187093583</v>
       </c>
       <c r="S44">
-        <v>4.936943546870013</v>
+        <v>4.147409290129199</v>
       </c>
       <c r="T44">
-        <v>6.970499971355808</v>
+        <v>6.954301222325803</v>
       </c>
     </row>
   </sheetData>
